--- a/support_docs/OpenDSS components and attributes.xlsx
+++ b/support_docs/OpenDSS components and attributes.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sk8er\Documents\RISE Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sk8er\Documents\git\RISE-power-water-ss-1phase\support_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14983" windowHeight="9900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14985" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="New Class Structure" sheetId="2" r:id="rId1"/>
@@ -1633,7 +1633,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1682,6 +1682,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8989"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1695,7 +1701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1754,22 +1760,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1781,12 +1787,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8989"/>
+      <color rgb="FFFF4343"/>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2097,35 +2111,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S81" sqref="S81"/>
+    <sheetView tabSelected="1" topLeftCell="O227" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W239" sqref="W239"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.53515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.86328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.3046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.3828125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.3046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.69140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.84375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.53515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.15234375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.69140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.3046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="44.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.53125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="44.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="33" t="s">
         <v>171</v>
       </c>
@@ -2157,39 +2171,39 @@
       <c r="W1" s="32"/>
       <c r="X1" s="32"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="34" t="s">
         <v>462</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>477</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="K2" s="29" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="K2" s="28" t="s">
         <v>463</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="P2" s="29" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="P2" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="U2" s="28" t="s">
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="U2" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>436</v>
       </c>
@@ -2202,7 +2216,7 @@
       <c r="D3" t="s">
         <v>181</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="31" t="s">
         <v>172</v>
       </c>
       <c r="G3" t="s">
@@ -2214,7 +2228,7 @@
       <c r="I3" t="s">
         <v>181</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="31" t="s">
         <v>172</v>
       </c>
       <c r="L3" t="s">
@@ -2226,7 +2240,7 @@
       <c r="N3" t="s">
         <v>181</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="31" t="s">
         <v>172</v>
       </c>
       <c r="Q3" t="s">
@@ -2238,7 +2252,7 @@
       <c r="S3" t="s">
         <v>181</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="31" t="s">
         <v>172</v>
       </c>
       <c r="V3" t="s">
@@ -2251,7 +2265,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>436</v>
       </c>
@@ -2264,7 +2278,7 @@
       <c r="D4" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="31"/>
       <c r="G4" t="s">
         <v>47</v>
       </c>
@@ -2274,7 +2288,7 @@
       <c r="I4" t="s">
         <v>182</v>
       </c>
-      <c r="K4" s="27"/>
+      <c r="K4" s="31"/>
       <c r="L4" t="s">
         <v>47</v>
       </c>
@@ -2284,7 +2298,7 @@
       <c r="N4" t="s">
         <v>182</v>
       </c>
-      <c r="P4" s="27"/>
+      <c r="P4" s="31"/>
       <c r="Q4" t="s">
         <v>47</v>
       </c>
@@ -2294,7 +2308,7 @@
       <c r="S4" t="s">
         <v>182</v>
       </c>
-      <c r="U4" s="27"/>
+      <c r="U4" s="31"/>
       <c r="V4" t="s">
         <v>47</v>
       </c>
@@ -2305,7 +2319,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>436</v>
       </c>
@@ -2318,7 +2332,7 @@
       <c r="D5" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="31"/>
       <c r="G5" t="s">
         <v>196</v>
       </c>
@@ -2328,7 +2342,7 @@
       <c r="I5" t="s">
         <v>296</v>
       </c>
-      <c r="K5" s="27"/>
+      <c r="K5" s="31"/>
       <c r="L5" t="s">
         <v>184</v>
       </c>
@@ -2338,7 +2352,7 @@
       <c r="N5" t="s">
         <v>184</v>
       </c>
-      <c r="P5" s="27"/>
+      <c r="P5" s="31"/>
       <c r="Q5" t="s">
         <v>205</v>
       </c>
@@ -2348,7 +2362,7 @@
       <c r="S5" t="s">
         <v>310</v>
       </c>
-      <c r="U5" s="27"/>
+      <c r="U5" s="31"/>
       <c r="V5" s="3" t="s">
         <v>444</v>
       </c>
@@ -2359,7 +2373,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>436</v>
       </c>
@@ -2372,7 +2386,7 @@
       <c r="D6" t="s">
         <v>173</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="31"/>
       <c r="G6" t="s">
         <v>175</v>
       </c>
@@ -2382,7 +2396,7 @@
       <c r="I6" t="s">
         <v>193</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="31"/>
       <c r="L6" t="s">
         <v>435</v>
       </c>
@@ -2392,7 +2406,7 @@
       <c r="N6" t="s">
         <v>183</v>
       </c>
-      <c r="P6" s="27"/>
+      <c r="P6" s="31"/>
       <c r="Q6" t="s">
         <v>206</v>
       </c>
@@ -2402,7 +2416,7 @@
       <c r="S6" t="s">
         <v>309</v>
       </c>
-      <c r="U6" s="27"/>
+      <c r="U6" s="31"/>
       <c r="V6" t="s">
         <v>445</v>
       </c>
@@ -2413,7 +2427,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>436</v>
       </c>
@@ -2426,7 +2440,7 @@
       <c r="D7" t="s">
         <v>173</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="31"/>
       <c r="G7" t="s">
         <v>198</v>
       </c>
@@ -2436,7 +2450,7 @@
       <c r="I7" t="s">
         <v>300</v>
       </c>
-      <c r="K7" s="27"/>
+      <c r="K7" s="31"/>
       <c r="L7" t="s">
         <v>199</v>
       </c>
@@ -2446,7 +2460,7 @@
       <c r="N7" t="s">
         <v>188</v>
       </c>
-      <c r="P7" s="27"/>
+      <c r="P7" s="31"/>
       <c r="Q7" t="s">
         <v>207</v>
       </c>
@@ -2456,7 +2470,7 @@
       <c r="S7" t="s">
         <v>304</v>
       </c>
-      <c r="U7" s="27"/>
+      <c r="U7" s="31"/>
       <c r="V7" t="s">
         <v>205</v>
       </c>
@@ -2467,7 +2481,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>436</v>
       </c>
@@ -2480,7 +2494,7 @@
       <c r="D8" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="31"/>
       <c r="G8" t="s">
         <v>197</v>
       </c>
@@ -2490,7 +2504,7 @@
       <c r="I8" t="s">
         <v>298</v>
       </c>
-      <c r="K8" s="27"/>
+      <c r="K8" s="31"/>
       <c r="L8" t="s">
         <v>200</v>
       </c>
@@ -2500,17 +2514,17 @@
       <c r="N8" t="s">
         <v>186</v>
       </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" t="s">
+      <c r="P8" s="31"/>
+      <c r="Q8" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="U8" s="27"/>
+      <c r="U8" s="31"/>
       <c r="V8" t="s">
         <v>207</v>
       </c>
@@ -2521,7 +2535,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>436</v>
       </c>
@@ -2534,7 +2548,7 @@
       <c r="D9" t="s">
         <v>173</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="31"/>
       <c r="G9" t="s">
         <v>220</v>
       </c>
@@ -2556,28 +2570,28 @@
       <c r="N9" t="s">
         <v>430</v>
       </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" t="s">
+      <c r="P9" s="31"/>
+      <c r="Q9" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="U9" s="27"/>
-      <c r="V9" t="s">
+      <c r="U9" s="31"/>
+      <c r="V9" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X9" s="35" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>436</v>
       </c>
@@ -2590,7 +2604,7 @@
       <c r="D10" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="31"/>
       <c r="G10" t="s">
         <v>299</v>
       </c>
@@ -2607,7 +2621,7 @@
       <c r="N10" t="s">
         <v>303</v>
       </c>
-      <c r="P10" s="30" t="s">
+      <c r="P10" s="26" t="s">
         <v>190</v>
       </c>
       <c r="Q10" s="3" t="s">
@@ -2619,18 +2633,18 @@
       <c r="S10" t="s">
         <v>314</v>
       </c>
-      <c r="U10" s="27"/>
-      <c r="V10" t="s">
+      <c r="U10" s="31"/>
+      <c r="V10" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X10" s="35" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>436</v>
       </c>
@@ -2643,7 +2657,7 @@
       <c r="D11" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="31"/>
       <c r="G11" t="s">
         <v>221</v>
       </c>
@@ -2653,7 +2667,7 @@
       <c r="I11" t="s">
         <v>178</v>
       </c>
-      <c r="P11" s="30"/>
+      <c r="P11" s="26"/>
       <c r="Q11" s="3" t="s">
         <v>211</v>
       </c>
@@ -2676,7 +2690,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>436</v>
       </c>
@@ -2689,12 +2703,12 @@
       <c r="D12" t="s">
         <v>173</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="28" t="s">
         <v>464</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
       <c r="P12" s="7" t="s">
         <v>191</v>
       </c>
@@ -2720,7 +2734,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
         <v>436</v>
       </c>
@@ -2733,13 +2747,13 @@
       <c r="D13" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="28" t="s">
         <v>478</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="K13" s="27" t="s">
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="K13" s="31" t="s">
         <v>172</v>
       </c>
       <c r="L13" t="s">
@@ -2751,7 +2765,7 @@
       <c r="N13" t="s">
         <v>181</v>
       </c>
-      <c r="P13" s="31" t="s">
+      <c r="P13" s="30" t="s">
         <v>192</v>
       </c>
       <c r="Q13" t="s">
@@ -2763,7 +2777,7 @@
       <c r="S13" t="s">
         <v>316</v>
       </c>
-      <c r="U13" s="31" t="s">
+      <c r="U13" s="30" t="s">
         <v>192</v>
       </c>
       <c r="V13" t="s">
@@ -2776,7 +2790,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
         <v>436</v>
       </c>
@@ -2789,7 +2803,7 @@
       <c r="D14" t="s">
         <v>173</v>
       </c>
-      <c r="K14" s="27"/>
+      <c r="K14" s="31"/>
       <c r="L14" t="s">
         <v>47</v>
       </c>
@@ -2799,29 +2813,29 @@
       <c r="N14" t="s">
         <v>182</v>
       </c>
-      <c r="P14" s="31"/>
-      <c r="Q14" t="s">
+      <c r="P14" s="30"/>
+      <c r="Q14" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="U14" s="31"/>
-      <c r="V14" t="s">
+      <c r="U14" s="30"/>
+      <c r="V14" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W14" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X14" t="s">
+      <c r="X14" s="35" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="K15" s="27"/>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="K15" s="31"/>
       <c r="L15" t="s">
         <v>29</v>
       </c>
@@ -2831,29 +2845,29 @@
       <c r="N15" t="s">
         <v>489</v>
       </c>
-      <c r="P15" s="31"/>
-      <c r="Q15" t="s">
+      <c r="P15" s="30"/>
+      <c r="Q15" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="U15" s="31"/>
-      <c r="V15" t="s">
+      <c r="U15" s="30"/>
+      <c r="V15" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X15" t="s">
+      <c r="X15" s="35" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="K16" s="27"/>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="K16" s="31"/>
       <c r="L16" t="s">
         <v>199</v>
       </c>
@@ -2863,7 +2877,7 @@
       <c r="N16" t="s">
         <v>188</v>
       </c>
-      <c r="P16" s="31"/>
+      <c r="P16" s="30"/>
       <c r="Q16" t="s">
         <v>213</v>
       </c>
@@ -2873,19 +2887,19 @@
       <c r="S16" t="s">
         <v>319</v>
       </c>
-      <c r="U16" s="31"/>
-      <c r="V16" t="s">
+      <c r="U16" s="30"/>
+      <c r="V16" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W16" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X16" t="s">
+      <c r="X16" s="35" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="K17" s="27"/>
+    <row r="17" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="K17" s="31"/>
       <c r="L17" t="s">
         <v>203</v>
       </c>
@@ -2895,17 +2909,17 @@
       <c r="N17" t="s">
         <v>186</v>
       </c>
-      <c r="P17" s="31"/>
-      <c r="Q17" t="s">
+      <c r="P17" s="30"/>
+      <c r="Q17" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="U17" s="31"/>
+      <c r="U17" s="30"/>
       <c r="V17" t="s">
         <v>258</v>
       </c>
@@ -2916,8 +2930,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="K18" s="27"/>
+    <row r="18" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="K18" s="31"/>
       <c r="L18" t="s">
         <v>201</v>
       </c>
@@ -2927,29 +2941,29 @@
       <c r="N18" t="s">
         <v>186</v>
       </c>
-      <c r="P18" s="31"/>
-      <c r="Q18" t="s">
+      <c r="P18" s="30"/>
+      <c r="Q18" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="U18" s="31"/>
-      <c r="V18" t="s">
+      <c r="U18" s="30"/>
+      <c r="V18" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W18" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X18" t="s">
+      <c r="X18" s="35" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="19" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="K19" s="27"/>
+    <row r="19" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="K19" s="31"/>
       <c r="L19" t="s">
         <v>204</v>
       </c>
@@ -2959,7 +2973,7 @@
       <c r="N19" t="s">
         <v>187</v>
       </c>
-      <c r="P19" s="31"/>
+      <c r="P19" s="30"/>
       <c r="Q19" t="s">
         <v>216</v>
       </c>
@@ -2969,19 +2983,19 @@
       <c r="S19" t="s">
         <v>323</v>
       </c>
-      <c r="U19" s="31"/>
-      <c r="V19" t="s">
+      <c r="U19" s="30"/>
+      <c r="V19" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X19" t="s">
+      <c r="X19" s="35" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="K20" s="27"/>
+    <row r="20" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="K20" s="31"/>
       <c r="L20" t="s">
         <v>202</v>
       </c>
@@ -2991,28 +3005,28 @@
       <c r="N20" t="s">
         <v>187</v>
       </c>
-      <c r="P20" s="31"/>
-      <c r="Q20" t="s">
+      <c r="P20" s="30"/>
+      <c r="Q20" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="U20" s="31"/>
-      <c r="V20" t="s">
+      <c r="U20" s="30"/>
+      <c r="V20" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="W20" t="s">
+      <c r="W20" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X20" t="s">
+      <c r="X20" s="35" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="21" spans="11:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="11:24" x14ac:dyDescent="0.45">
       <c r="K21" s="25" t="s">
         <v>168</v>
       </c>
@@ -3025,17 +3039,17 @@
       <c r="N21" t="s">
         <v>430</v>
       </c>
-      <c r="P21" s="31"/>
-      <c r="Q21" t="s">
+      <c r="P21" s="30"/>
+      <c r="Q21" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S21" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="U21" s="31"/>
+      <c r="U21" s="30"/>
       <c r="V21" t="s">
         <v>262</v>
       </c>
@@ -3046,38 +3060,38 @@
         <v>387</v>
       </c>
     </row>
-    <row r="22" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="U22" s="31"/>
-      <c r="V22" t="s">
+    <row r="22" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="U22" s="30"/>
+      <c r="V22" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="W22" t="s">
+      <c r="W22" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X22" t="s">
+      <c r="X22" s="35" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="23" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="P23" s="29" t="s">
+    <row r="23" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P23" s="28" t="s">
         <v>466</v>
       </c>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="U23" s="31"/>
-      <c r="V23" t="s">
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X23" t="s">
+      <c r="X23" s="35" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="24" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="P24" s="27" t="s">
+    <row r="24" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P24" s="31" t="s">
         <v>172</v>
       </c>
       <c r="Q24" t="s">
@@ -3089,19 +3103,19 @@
       <c r="S24" t="s">
         <v>181</v>
       </c>
-      <c r="U24" s="31"/>
-      <c r="V24" t="s">
+      <c r="U24" s="30"/>
+      <c r="V24" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X24" t="s">
+      <c r="X24" s="35" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="25" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="P25" s="27"/>
+    <row r="25" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P25" s="31"/>
       <c r="Q25" t="s">
         <v>47</v>
       </c>
@@ -3111,7 +3125,7 @@
       <c r="S25" t="s">
         <v>182</v>
       </c>
-      <c r="U25" s="31"/>
+      <c r="U25" s="30"/>
       <c r="V25" t="s">
         <v>266</v>
       </c>
@@ -3122,8 +3136,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="26" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="P26" s="27"/>
+    <row r="26" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P26" s="31"/>
       <c r="Q26" t="s">
         <v>205</v>
       </c>
@@ -3133,19 +3147,19 @@
       <c r="S26" t="s">
         <v>310</v>
       </c>
-      <c r="U26" s="31"/>
-      <c r="V26" t="s">
+      <c r="U26" s="30"/>
+      <c r="V26" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="W26" t="s">
+      <c r="W26" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X26" t="s">
+      <c r="X26" s="35" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="27" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="P27" s="27"/>
+    <row r="27" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P27" s="31"/>
       <c r="Q27" t="s">
         <v>206</v>
       </c>
@@ -3155,19 +3169,19 @@
       <c r="S27" t="s">
         <v>309</v>
       </c>
-      <c r="U27" s="31"/>
-      <c r="V27" t="s">
+      <c r="U27" s="30"/>
+      <c r="V27" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="W27" t="s">
+      <c r="W27" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X27" t="s">
+      <c r="X27" s="35" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="28" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="P28" s="27"/>
+    <row r="28" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P28" s="31"/>
       <c r="Q28" t="s">
         <v>207</v>
       </c>
@@ -3177,29 +3191,29 @@
       <c r="S28" t="s">
         <v>304</v>
       </c>
-      <c r="U28" s="31"/>
-      <c r="V28" t="s">
+      <c r="U28" s="30"/>
+      <c r="V28" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X28" t="s">
+      <c r="X28" s="35" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="29" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="P29" s="27"/>
-      <c r="Q29" t="s">
+    <row r="29" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P29" s="31"/>
+      <c r="Q29" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S29" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="U29" s="31"/>
+      <c r="U29" s="30"/>
       <c r="V29" t="s">
         <v>279</v>
       </c>
@@ -3210,18 +3224,18 @@
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="P30" s="27"/>
-      <c r="Q30" t="s">
+    <row r="30" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P30" s="31"/>
+      <c r="Q30" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S30" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="U30" s="31"/>
+      <c r="U30" s="30"/>
       <c r="V30" t="s">
         <v>280</v>
       </c>
@@ -3232,8 +3246,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="31" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="P31" s="27"/>
+    <row r="31" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P31" s="31"/>
       <c r="Q31" t="s">
         <v>243</v>
       </c>
@@ -3243,7 +3257,7 @@
       <c r="S31" t="s">
         <v>333</v>
       </c>
-      <c r="U31" s="31"/>
+      <c r="U31" s="30"/>
       <c r="V31" t="s">
         <v>281</v>
       </c>
@@ -3254,8 +3268,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="32" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="P32" s="27"/>
+    <row r="32" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P32" s="31"/>
       <c r="Q32" t="s">
         <v>222</v>
       </c>
@@ -3265,7 +3279,7 @@
       <c r="S32" t="s">
         <v>328</v>
       </c>
-      <c r="U32" s="31"/>
+      <c r="U32" s="30"/>
       <c r="V32" t="s">
         <v>282</v>
       </c>
@@ -3276,8 +3290,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="33" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P33" s="27"/>
+    <row r="33" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P33" s="31"/>
       <c r="Q33" t="s">
         <v>220</v>
       </c>
@@ -3287,7 +3301,7 @@
       <c r="S33" t="s">
         <v>326</v>
       </c>
-      <c r="U33" s="31"/>
+      <c r="U33" s="30"/>
       <c r="V33" t="s">
         <v>283</v>
       </c>
@@ -3298,18 +3312,18 @@
         <v>399</v>
       </c>
     </row>
-    <row r="34" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P34" s="27"/>
-      <c r="Q34" t="s">
+    <row r="34" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P34" s="31"/>
+      <c r="Q34" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="R34" t="s">
+      <c r="R34" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S34" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="U34" s="31"/>
+      <c r="U34" s="30"/>
       <c r="V34" t="s">
         <v>284</v>
       </c>
@@ -3320,37 +3334,37 @@
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P35" s="27"/>
-      <c r="Q35" t="s">
+    <row r="35" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P35" s="31"/>
+      <c r="Q35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="R35" t="s">
+      <c r="R35" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="S35" t="s">
+      <c r="S35" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="U35" s="31"/>
-      <c r="V35" t="s">
+      <c r="U35" s="30"/>
+      <c r="V35" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="W35" t="s">
+      <c r="W35" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="X35" t="s">
+      <c r="X35" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="36" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P36" s="27"/>
-      <c r="Q36" t="s">
+    <row r="36" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P36" s="31"/>
+      <c r="Q36" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R36" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="S36" t="s">
+      <c r="S36" s="35" t="s">
         <v>350</v>
       </c>
       <c r="U36" s="24"/>
@@ -3358,15 +3372,15 @@
       <c r="W36" s="24"/>
       <c r="X36" s="24"/>
     </row>
-    <row r="37" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P37" s="27"/>
-      <c r="Q37" t="s">
+    <row r="37" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P37" s="31"/>
+      <c r="Q37" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R37" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="S37" t="s">
+      <c r="S37" s="35" t="s">
         <v>349</v>
       </c>
       <c r="U37" s="24"/>
@@ -3374,8 +3388,8 @@
       <c r="W37" s="24"/>
       <c r="X37" s="24"/>
     </row>
-    <row r="38" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P38" s="27"/>
+    <row r="38" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P38" s="31"/>
       <c r="Q38" s="23" t="s">
         <v>229</v>
       </c>
@@ -3385,15 +3399,15 @@
       <c r="S38" t="s">
         <v>323</v>
       </c>
-      <c r="U38" s="28" t="s">
+      <c r="U38" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-    </row>
-    <row r="39" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P39" s="27"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+    </row>
+    <row r="39" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P39" s="31"/>
       <c r="Q39" t="s">
         <v>223</v>
       </c>
@@ -3403,7 +3417,7 @@
       <c r="S39" t="s">
         <v>329</v>
       </c>
-      <c r="U39" s="27" t="s">
+      <c r="U39" s="31" t="s">
         <v>172</v>
       </c>
       <c r="V39" t="s">
@@ -3416,8 +3430,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P40" s="27"/>
+    <row r="40" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P40" s="31"/>
       <c r="Q40" t="s">
         <v>221</v>
       </c>
@@ -3427,7 +3441,7 @@
       <c r="S40" t="s">
         <v>327</v>
       </c>
-      <c r="U40" s="27"/>
+      <c r="U40" s="31"/>
       <c r="V40" t="s">
         <v>47</v>
       </c>
@@ -3438,8 +3452,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P41" s="30" t="s">
+    <row r="41" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P41" s="26" t="s">
         <v>168</v>
       </c>
       <c r="Q41" s="3" t="s">
@@ -3451,7 +3465,7 @@
       <c r="S41" t="s">
         <v>314</v>
       </c>
-      <c r="U41" s="27"/>
+      <c r="U41" s="31"/>
       <c r="V41" s="3" t="s">
         <v>444</v>
       </c>
@@ -3462,8 +3476,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P42" s="30"/>
+    <row r="42" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P42" s="26"/>
       <c r="Q42" s="3" t="s">
         <v>211</v>
       </c>
@@ -3473,7 +3487,7 @@
       <c r="S42" t="s">
         <v>315</v>
       </c>
-      <c r="U42" s="27"/>
+      <c r="U42" s="31"/>
       <c r="V42" t="s">
         <v>445</v>
       </c>
@@ -3484,8 +3498,8 @@
         <v>376</v>
       </c>
     </row>
-    <row r="43" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P43" s="30"/>
+    <row r="43" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P43" s="26"/>
       <c r="Q43" t="s">
         <v>228</v>
       </c>
@@ -3495,7 +3509,7 @@
       <c r="S43" t="s">
         <v>193</v>
       </c>
-      <c r="U43" s="27"/>
+      <c r="U43" s="31"/>
       <c r="V43" t="s">
         <v>512</v>
       </c>
@@ -3506,7 +3520,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="44" spans="16:24" x14ac:dyDescent="0.4">
+    <row r="44" spans="16:24" x14ac:dyDescent="0.45">
       <c r="P44" s="22" t="s">
         <v>191</v>
       </c>
@@ -3519,19 +3533,19 @@
       <c r="S44" t="s">
         <v>311</v>
       </c>
-      <c r="U44" s="27"/>
-      <c r="V44" t="s">
+      <c r="U44" s="31"/>
+      <c r="V44" s="35" t="s">
         <v>513</v>
       </c>
-      <c r="W44" s="3" t="s">
+      <c r="W44" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X44" s="3" t="s">
+      <c r="X44" s="35" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="45" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P45" s="31" t="s">
+    <row r="45" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P45" s="30" t="s">
         <v>192</v>
       </c>
       <c r="Q45" t="s">
@@ -3543,29 +3557,29 @@
       <c r="S45" t="s">
         <v>316</v>
       </c>
-      <c r="U45" s="27"/>
-      <c r="V45" t="s">
+      <c r="U45" s="31"/>
+      <c r="V45" s="35" t="s">
         <v>514</v>
       </c>
-      <c r="W45" t="s">
+      <c r="W45" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X45" t="s">
+      <c r="X45" s="35" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="46" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P46" s="31"/>
-      <c r="Q46" t="s">
+    <row r="46" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P46" s="30"/>
+      <c r="Q46" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="R46" t="s">
+      <c r="R46" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S46" t="s">
+      <c r="S46" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="U46" s="27"/>
+      <c r="U46" s="31"/>
       <c r="V46" t="s">
         <v>207</v>
       </c>
@@ -3576,30 +3590,30 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P47" s="31"/>
-      <c r="Q47" t="s">
+    <row r="47" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P47" s="30"/>
+      <c r="Q47" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="R47" t="s">
+      <c r="R47" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S47" t="s">
+      <c r="S47" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="U47" s="27"/>
-      <c r="V47" t="s">
+      <c r="U47" s="31"/>
+      <c r="V47" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="W47" t="s">
+      <c r="W47" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X47" t="s">
+      <c r="X47" s="35" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P48" s="31"/>
+    <row r="48" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P48" s="30"/>
       <c r="Q48" t="s">
         <v>213</v>
       </c>
@@ -3609,45 +3623,45 @@
       <c r="S48" t="s">
         <v>319</v>
       </c>
-      <c r="U48" s="27"/>
-      <c r="V48" t="s">
+      <c r="U48" s="31"/>
+      <c r="V48" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="W48" t="s">
+      <c r="W48" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X48" t="s">
+      <c r="X48" s="35" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="49" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P49" s="31"/>
-      <c r="Q49" t="s">
+    <row r="49" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P49" s="30"/>
+      <c r="Q49" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="R49" t="s">
+      <c r="R49" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="S49" t="s">
+      <c r="S49" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="U49" s="27"/>
+      <c r="U49" s="31"/>
       <c r="V49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P50" s="31"/>
-      <c r="Q50" t="s">
+    <row r="50" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P50" s="30"/>
+      <c r="Q50" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="R50" t="s">
+      <c r="R50" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="S50" t="s">
+      <c r="S50" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="U50" s="27"/>
+      <c r="U50" s="31"/>
       <c r="V50" t="s">
         <v>276</v>
       </c>
@@ -3658,8 +3672,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="51" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P51" s="31"/>
+    <row r="51" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P51" s="30"/>
       <c r="Q51" t="s">
         <v>216</v>
       </c>
@@ -3682,18 +3696,18 @@
         <v>383</v>
       </c>
     </row>
-    <row r="52" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P52" s="31"/>
-      <c r="Q52" t="s">
+    <row r="52" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P52" s="30"/>
+      <c r="Q52" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="R52" t="s">
+      <c r="R52" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S52" t="s">
+      <c r="S52" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="U52" s="26" t="s">
+      <c r="U52" s="27" t="s">
         <v>191</v>
       </c>
       <c r="V52" t="s">
@@ -3706,30 +3720,30 @@
         <v>517</v>
       </c>
     </row>
-    <row r="53" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P53" s="31"/>
-      <c r="Q53" t="s">
+    <row r="53" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P53" s="30"/>
+      <c r="Q53" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="R53" t="s">
+      <c r="R53" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S53" t="s">
+      <c r="S53" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="U53" s="26"/>
-      <c r="V53" t="s">
+      <c r="U53" s="27"/>
+      <c r="V53" s="35" t="s">
         <v>519</v>
       </c>
-      <c r="W53" t="s">
+      <c r="W53" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X53" t="s">
+      <c r="X53" s="35" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="54" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P54" s="31"/>
+    <row r="54" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P54" s="30"/>
       <c r="Q54" t="s">
         <v>230</v>
       </c>
@@ -3739,29 +3753,29 @@
       <c r="S54" t="s">
         <v>334</v>
       </c>
-      <c r="U54" s="26"/>
-      <c r="V54" t="s">
+      <c r="U54" s="27"/>
+      <c r="V54" s="35" t="s">
         <v>520</v>
       </c>
-      <c r="W54" t="s">
+      <c r="W54" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X54" t="s">
+      <c r="X54" s="35" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="55" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P55" s="31"/>
-      <c r="Q55" t="s">
+    <row r="55" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P55" s="30"/>
+      <c r="Q55" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="R55" t="s">
+      <c r="R55" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="S55" t="s">
+      <c r="S55" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="U55" s="31" t="s">
+      <c r="U55" s="30" t="s">
         <v>191</v>
       </c>
       <c r="V55" t="s">
@@ -3774,52 +3788,52 @@
         <v>378</v>
       </c>
     </row>
-    <row r="56" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P56" s="31"/>
-      <c r="Q56" t="s">
+    <row r="56" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P56" s="30"/>
+      <c r="Q56" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="R56" t="s">
+      <c r="R56" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="S56" t="s">
+      <c r="S56" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="U56" s="31"/>
-      <c r="V56" t="s">
+      <c r="U56" s="30"/>
+      <c r="V56" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="W56" t="s">
+      <c r="W56" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X56" t="s">
+      <c r="X56" s="35" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="57" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P57" s="31"/>
-      <c r="Q57" t="s">
+    <row r="57" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P57" s="30"/>
+      <c r="Q57" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="R57" t="s">
+      <c r="R57" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="S57" t="s">
+      <c r="S57" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="U57" s="31"/>
-      <c r="V57" t="s">
+      <c r="U57" s="30"/>
+      <c r="V57" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="W57" t="s">
+      <c r="W57" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X57" t="s">
+      <c r="X57" s="35" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="58" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P58" s="31"/>
+    <row r="58" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P58" s="30"/>
       <c r="Q58" t="s">
         <v>233</v>
       </c>
@@ -3829,29 +3843,29 @@
       <c r="S58" t="s">
         <v>338</v>
       </c>
-      <c r="U58" s="31"/>
-      <c r="V58" t="s">
+      <c r="U58" s="30"/>
+      <c r="V58" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="W58" t="s">
+      <c r="W58" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X58" t="s">
+      <c r="X58" s="35" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="59" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P59" s="31"/>
-      <c r="Q59" t="s">
+    <row r="59" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P59" s="30"/>
+      <c r="Q59" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="R59" t="s">
+      <c r="R59" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S59" t="s">
+      <c r="S59" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="U59" s="31"/>
+      <c r="U59" s="30"/>
       <c r="V59" t="s">
         <v>258</v>
       </c>
@@ -3862,52 +3876,52 @@
         <v>382</v>
       </c>
     </row>
-    <row r="60" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P60" s="31"/>
-      <c r="Q60" t="s">
+    <row r="60" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P60" s="30"/>
+      <c r="Q60" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="R60" t="s">
+      <c r="R60" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S60" t="s">
+      <c r="S60" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="U60" s="31"/>
-      <c r="V60" t="s">
+      <c r="U60" s="30"/>
+      <c r="V60" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="W60" t="s">
+      <c r="W60" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X60" t="s">
+      <c r="X60" s="35" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="61" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P61" s="31"/>
-      <c r="Q61" t="s">
+    <row r="61" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P61" s="30"/>
+      <c r="Q61" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="R61" t="s">
+      <c r="R61" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S61" t="s">
+      <c r="S61" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="U61" s="31"/>
-      <c r="V61" t="s">
+      <c r="U61" s="30"/>
+      <c r="V61" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="W61" t="s">
+      <c r="W61" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X61" t="s">
+      <c r="X61" s="35" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="62" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P62" s="31"/>
+    <row r="62" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P62" s="30"/>
       <c r="Q62" t="s">
         <v>22</v>
       </c>
@@ -3917,19 +3931,19 @@
       <c r="S62" t="s">
         <v>343</v>
       </c>
-      <c r="U62" s="31"/>
-      <c r="V62" t="s">
+      <c r="U62" s="30"/>
+      <c r="V62" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="W62" t="s">
+      <c r="W62" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X62" t="s">
+      <c r="X62" s="35" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P63" s="31"/>
+    <row r="63" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P63" s="30"/>
       <c r="Q63" t="s">
         <v>21</v>
       </c>
@@ -3939,7 +3953,7 @@
       <c r="S63" t="s">
         <v>344</v>
       </c>
-      <c r="U63" s="31"/>
+      <c r="U63" s="30"/>
       <c r="V63" t="s">
         <v>262</v>
       </c>
@@ -3950,8 +3964,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="64" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P64" s="31"/>
+    <row r="64" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P64" s="30"/>
       <c r="Q64" t="s">
         <v>241</v>
       </c>
@@ -3961,59 +3975,59 @@
       <c r="S64" t="s">
         <v>193</v>
       </c>
-      <c r="U64" s="31"/>
-      <c r="V64" t="s">
+      <c r="U64" s="30"/>
+      <c r="V64" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="W64" t="s">
+      <c r="W64" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X64" t="s">
+      <c r="X64" s="35" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P65" s="31"/>
-      <c r="Q65" t="s">
+    <row r="65" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P65" s="30"/>
+      <c r="Q65" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="R65" t="s">
+      <c r="R65" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="S65" t="s">
+      <c r="S65" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="U65" s="31"/>
-      <c r="V65" t="s">
+      <c r="U65" s="30"/>
+      <c r="V65" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="W65" t="s">
+      <c r="W65" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X65" t="s">
+      <c r="X65" s="35" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="U66" s="31"/>
-      <c r="V66" t="s">
+    <row r="66" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U66" s="30"/>
+      <c r="V66" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="W66" t="s">
+      <c r="W66" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X66" t="s">
+      <c r="X66" s="35" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="67" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P67" s="29" t="s">
+    <row r="67" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P67" s="28" t="s">
         <v>467</v>
       </c>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="U67" s="31"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="U67" s="30"/>
       <c r="V67" t="s">
         <v>266</v>
       </c>
@@ -4024,8 +4038,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="68" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P68" s="27" t="s">
+    <row r="68" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P68" s="31" t="s">
         <v>172</v>
       </c>
       <c r="Q68" t="s">
@@ -4037,19 +4051,19 @@
       <c r="S68" t="s">
         <v>181</v>
       </c>
-      <c r="U68" s="31"/>
-      <c r="V68" t="s">
+      <c r="U68" s="30"/>
+      <c r="V68" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="W68" t="s">
+      <c r="W68" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X68" t="s">
+      <c r="X68" s="35" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="69" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P69" s="27"/>
+    <row r="69" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P69" s="31"/>
       <c r="Q69" t="s">
         <v>47</v>
       </c>
@@ -4059,19 +4073,19 @@
       <c r="S69" t="s">
         <v>182</v>
       </c>
-      <c r="U69" s="31"/>
-      <c r="V69" t="s">
+      <c r="U69" s="30"/>
+      <c r="V69" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="W69" t="s">
+      <c r="W69" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X69" t="s">
+      <c r="X69" s="35" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="70" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P70" s="27"/>
+    <row r="70" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P70" s="31"/>
       <c r="Q70" t="s">
         <v>205</v>
       </c>
@@ -4081,19 +4095,19 @@
       <c r="S70" t="s">
         <v>310</v>
       </c>
-      <c r="U70" s="31"/>
-      <c r="V70" t="s">
+      <c r="U70" s="30"/>
+      <c r="V70" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="W70" t="s">
+      <c r="W70" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X70" t="s">
+      <c r="X70" s="35" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="71" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P71" s="27"/>
+    <row r="71" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P71" s="31"/>
       <c r="Q71" t="s">
         <v>206</v>
       </c>
@@ -4103,7 +4117,7 @@
       <c r="S71" t="s">
         <v>482</v>
       </c>
-      <c r="U71" s="31"/>
+      <c r="U71" s="30"/>
       <c r="V71" t="s">
         <v>449</v>
       </c>
@@ -4114,8 +4128,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="72" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P72" s="27"/>
+    <row r="72" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P72" s="31"/>
       <c r="Q72" t="s">
         <v>207</v>
       </c>
@@ -4125,51 +4139,51 @@
       <c r="S72" t="s">
         <v>304</v>
       </c>
-      <c r="U72" s="31"/>
-      <c r="V72" t="s">
+      <c r="U72" s="30"/>
+      <c r="V72" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="W72" t="s">
+      <c r="W72" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="X72" t="s">
+      <c r="X72" s="35" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="73" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P73" s="27"/>
-      <c r="Q73" t="s">
+    <row r="73" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P73" s="31"/>
+      <c r="Q73" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="R73" t="s">
+      <c r="R73" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="S73" t="s">
+      <c r="S73" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="U73" s="31"/>
-      <c r="V73" t="s">
+      <c r="U73" s="30"/>
+      <c r="V73" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="W73" t="s">
+      <c r="W73" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="X73" t="s">
+      <c r="X73" s="35" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="74" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P74" s="27"/>
-      <c r="Q74" t="s">
+    <row r="74" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P74" s="31"/>
+      <c r="Q74" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="R74" t="s">
+      <c r="R74" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="S74" t="s">
+      <c r="S74" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="U74" s="31"/>
+      <c r="U74" s="30"/>
       <c r="V74" t="s">
         <v>279</v>
       </c>
@@ -4180,8 +4194,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="75" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P75" s="27"/>
+    <row r="75" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P75" s="31"/>
       <c r="Q75" t="s">
         <v>239</v>
       </c>
@@ -4191,7 +4205,7 @@
       <c r="S75" t="s">
         <v>348</v>
       </c>
-      <c r="U75" s="31"/>
+      <c r="U75" s="30"/>
       <c r="V75" t="s">
         <v>280</v>
       </c>
@@ -4202,8 +4216,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="76" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P76" s="27"/>
+    <row r="76" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P76" s="31"/>
       <c r="Q76" t="s">
         <v>242</v>
       </c>
@@ -4213,7 +4227,7 @@
       <c r="S76" t="s">
         <v>347</v>
       </c>
-      <c r="U76" s="31"/>
+      <c r="U76" s="30"/>
       <c r="V76" t="s">
         <v>281</v>
       </c>
@@ -4224,8 +4238,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="77" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P77" s="27"/>
+    <row r="77" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P77" s="31"/>
       <c r="Q77" t="s">
         <v>147</v>
       </c>
@@ -4235,7 +4249,7 @@
       <c r="S77" t="s">
         <v>346</v>
       </c>
-      <c r="U77" s="31"/>
+      <c r="U77" s="30"/>
       <c r="V77" t="s">
         <v>282</v>
       </c>
@@ -4246,8 +4260,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="78" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P78" s="27"/>
+    <row r="78" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P78" s="31"/>
       <c r="Q78" t="s">
         <v>246</v>
       </c>
@@ -4257,7 +4271,7 @@
       <c r="S78" t="s">
         <v>351</v>
       </c>
-      <c r="U78" s="31"/>
+      <c r="U78" s="30"/>
       <c r="V78" t="s">
         <v>283</v>
       </c>
@@ -4268,8 +4282,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="79" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P79" s="27"/>
+    <row r="79" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P79" s="31"/>
       <c r="Q79" t="s">
         <v>272</v>
       </c>
@@ -4279,7 +4293,7 @@
       <c r="S79" t="s">
         <v>483</v>
       </c>
-      <c r="U79" s="31"/>
+      <c r="U79" s="30"/>
       <c r="V79" t="s">
         <v>284</v>
       </c>
@@ -4290,18 +4304,18 @@
         <v>400</v>
       </c>
     </row>
-    <row r="80" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P80" s="27"/>
-      <c r="Q80" t="s">
+    <row r="80" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P80" s="31"/>
+      <c r="Q80" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="R80" t="s">
+      <c r="R80" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="S80" t="s">
+      <c r="S80" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="U80" s="31"/>
+      <c r="U80" s="30"/>
       <c r="V80" t="s">
         <v>278</v>
       </c>
@@ -4312,20 +4326,20 @@
         <v>401</v>
       </c>
     </row>
-    <row r="81" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P81" s="27"/>
-      <c r="Q81" t="s">
+    <row r="81" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P81" s="31"/>
+      <c r="Q81" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="R81" t="s">
+      <c r="R81" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="S81" t="s">
+      <c r="S81" s="35" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="82" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P82" s="27"/>
+    <row r="82" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P82" s="31"/>
       <c r="Q82" t="s">
         <v>247</v>
       </c>
@@ -4335,15 +4349,15 @@
       <c r="S82" t="s">
         <v>354</v>
       </c>
-      <c r="U82" s="28" t="s">
+      <c r="U82" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="V82" s="28"/>
-      <c r="W82" s="28"/>
-      <c r="X82" s="28"/>
-    </row>
-    <row r="83" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P83" s="27"/>
+      <c r="V82" s="29"/>
+      <c r="W82" s="29"/>
+      <c r="X82" s="29"/>
+    </row>
+    <row r="83" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P83" s="31"/>
       <c r="Q83" t="s">
         <v>353</v>
       </c>
@@ -4353,7 +4367,7 @@
       <c r="S83" t="s">
         <v>355</v>
       </c>
-      <c r="U83" s="27" t="s">
+      <c r="U83" s="31" t="s">
         <v>172</v>
       </c>
       <c r="V83" t="s">
@@ -4366,9 +4380,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P84" s="27"/>
-      <c r="U84" s="27"/>
+    <row r="84" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P84" s="31"/>
+      <c r="U84" s="31"/>
       <c r="V84" t="s">
         <v>47</v>
       </c>
@@ -4379,9 +4393,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P85" s="27"/>
-      <c r="U85" s="27"/>
+    <row r="85" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P85" s="31"/>
+      <c r="U85" s="31"/>
       <c r="V85" s="3" t="s">
         <v>444</v>
       </c>
@@ -4392,8 +4406,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="86" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P86" s="27"/>
+    <row r="86" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P86" s="31"/>
       <c r="Q86" t="s">
         <v>23</v>
       </c>
@@ -4403,7 +4417,7 @@
       <c r="S86" t="s">
         <v>345</v>
       </c>
-      <c r="U86" s="27"/>
+      <c r="U86" s="31"/>
       <c r="V86" t="s">
         <v>445</v>
       </c>
@@ -4414,8 +4428,8 @@
         <v>376</v>
       </c>
     </row>
-    <row r="87" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P87" s="30" t="s">
+    <row r="87" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P87" s="26" t="s">
         <v>190</v>
       </c>
       <c r="Q87" t="s">
@@ -4427,7 +4441,7 @@
       <c r="S87" t="s">
         <v>314</v>
       </c>
-      <c r="U87" s="27"/>
+      <c r="U87" s="31"/>
       <c r="V87" t="s">
         <v>512</v>
       </c>
@@ -4438,8 +4452,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P88" s="30"/>
+    <row r="88" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P88" s="26"/>
       <c r="Q88" t="s">
         <v>211</v>
       </c>
@@ -4449,19 +4463,19 @@
       <c r="S88" t="s">
         <v>315</v>
       </c>
-      <c r="U88" s="27"/>
-      <c r="V88" t="s">
+      <c r="U88" s="31"/>
+      <c r="V88" s="35" t="s">
         <v>513</v>
       </c>
-      <c r="W88" s="3" t="s">
+      <c r="W88" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X88" s="3" t="s">
+      <c r="X88" s="35" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="89" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P89" s="26" t="s">
+    <row r="89" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P89" s="27" t="s">
         <v>191</v>
       </c>
       <c r="Q89" t="s">
@@ -4473,19 +4487,19 @@
       <c r="S89" t="s">
         <v>311</v>
       </c>
-      <c r="U89" s="27"/>
-      <c r="V89" t="s">
+      <c r="U89" s="31"/>
+      <c r="V89" s="35" t="s">
         <v>514</v>
       </c>
-      <c r="W89" t="s">
+      <c r="W89" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X89" t="s">
+      <c r="X89" s="35" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="90" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P90" s="26"/>
+    <row r="90" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P90" s="27"/>
       <c r="Q90" t="s">
         <v>252</v>
       </c>
@@ -4495,7 +4509,7 @@
       <c r="S90" t="s">
         <v>357</v>
       </c>
-      <c r="U90" s="27"/>
+      <c r="U90" s="31"/>
       <c r="V90" t="s">
         <v>207</v>
       </c>
@@ -4506,8 +4520,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="91" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P91" s="26"/>
+    <row r="91" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P91" s="27"/>
       <c r="Q91" t="s">
         <v>251</v>
       </c>
@@ -4517,19 +4531,19 @@
       <c r="S91" t="s">
         <v>356</v>
       </c>
-      <c r="U91" s="27"/>
-      <c r="V91" t="s">
+      <c r="U91" s="31"/>
+      <c r="V91" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="W91" t="s">
+      <c r="W91" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X91" t="s">
+      <c r="X91" s="35" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="92" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P92" s="31" t="s">
+    <row r="92" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P92" s="30" t="s">
         <v>192</v>
       </c>
       <c r="Q92" t="s">
@@ -4541,45 +4555,45 @@
       <c r="S92" t="s">
         <v>316</v>
       </c>
-      <c r="U92" s="27"/>
-      <c r="V92" t="s">
+      <c r="U92" s="31"/>
+      <c r="V92" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="W92" t="s">
+      <c r="W92" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X92" t="s">
+      <c r="X92" s="35" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="93" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P93" s="31"/>
-      <c r="Q93" t="s">
+    <row r="93" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P93" s="30"/>
+      <c r="Q93" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="R93" t="s">
+      <c r="R93" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S93" t="s">
+      <c r="S93" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="U93" s="27"/>
+      <c r="U93" s="31"/>
       <c r="V93" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P94" s="31"/>
-      <c r="Q94" t="s">
+    <row r="94" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P94" s="30"/>
+      <c r="Q94" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="R94" t="s">
+      <c r="R94" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S94" t="s">
+      <c r="S94" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="U94" s="27"/>
+      <c r="U94" s="31"/>
       <c r="V94" t="s">
         <v>27</v>
       </c>
@@ -4590,8 +4604,8 @@
         <v>403</v>
       </c>
     </row>
-    <row r="95" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P95" s="31"/>
+    <row r="95" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P95" s="30"/>
       <c r="Q95" t="s">
         <v>213</v>
       </c>
@@ -4601,7 +4615,7 @@
       <c r="S95" t="s">
         <v>319</v>
       </c>
-      <c r="U95" s="27"/>
+      <c r="U95" s="31"/>
       <c r="V95" t="s">
         <v>26</v>
       </c>
@@ -4612,18 +4626,18 @@
         <v>402</v>
       </c>
     </row>
-    <row r="96" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P96" s="31"/>
-      <c r="Q96" t="s">
+    <row r="96" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P96" s="30"/>
+      <c r="Q96" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="R96" t="s">
+      <c r="R96" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="S96" t="s">
+      <c r="S96" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="U96" s="27"/>
+      <c r="U96" s="31"/>
       <c r="V96" t="s">
         <v>28</v>
       </c>
@@ -4634,18 +4648,18 @@
         <v>417</v>
       </c>
     </row>
-    <row r="97" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P97" s="31"/>
-      <c r="Q97" t="s">
+    <row r="97" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P97" s="30"/>
+      <c r="Q97" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="R97" t="s">
+      <c r="R97" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="S97" t="s">
+      <c r="S97" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="U97" s="27"/>
+      <c r="U97" s="31"/>
       <c r="V97" t="s">
         <v>404</v>
       </c>
@@ -4656,8 +4670,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="98" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P98" s="31"/>
+    <row r="98" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P98" s="30"/>
       <c r="Q98" t="s">
         <v>216</v>
       </c>
@@ -4667,7 +4681,7 @@
       <c r="S98" t="s">
         <v>323</v>
       </c>
-      <c r="U98" s="27"/>
+      <c r="U98" s="31"/>
       <c r="V98" t="s">
         <v>405</v>
       </c>
@@ -4678,18 +4692,18 @@
         <v>413</v>
       </c>
     </row>
-    <row r="99" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P99" s="31"/>
-      <c r="Q99" t="s">
+    <row r="99" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P99" s="30"/>
+      <c r="Q99" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="R99" t="s">
+      <c r="R99" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S99" t="s">
+      <c r="S99" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="U99" s="27"/>
+      <c r="U99" s="31"/>
       <c r="V99" t="s">
         <v>406</v>
       </c>
@@ -4700,18 +4714,18 @@
         <v>414</v>
       </c>
     </row>
-    <row r="100" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P100" s="31"/>
-      <c r="Q100" t="s">
+    <row r="100" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P100" s="30"/>
+      <c r="Q100" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="R100" t="s">
+      <c r="R100" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S100" t="s">
+      <c r="S100" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="U100" s="27"/>
+      <c r="U100" s="31"/>
       <c r="V100" t="s">
         <v>407</v>
       </c>
@@ -4722,8 +4736,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="101" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P101" s="31"/>
+    <row r="101" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P101" s="30"/>
       <c r="Q101" t="s">
         <v>230</v>
       </c>
@@ -4733,7 +4747,7 @@
       <c r="S101" t="s">
         <v>334</v>
       </c>
-      <c r="U101" s="27"/>
+      <c r="U101" s="31"/>
       <c r="V101" t="s">
         <v>408</v>
       </c>
@@ -4744,18 +4758,18 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P102" s="31"/>
-      <c r="Q102" t="s">
+    <row r="102" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P102" s="30"/>
+      <c r="Q102" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="R102" t="s">
+      <c r="R102" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="S102" t="s">
+      <c r="S102" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="U102" s="27"/>
+      <c r="U102" s="31"/>
       <c r="V102" t="s">
         <v>409</v>
       </c>
@@ -4766,18 +4780,18 @@
         <v>413</v>
       </c>
     </row>
-    <row r="103" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P103" s="31"/>
-      <c r="Q103" t="s">
+    <row r="103" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P103" s="30"/>
+      <c r="Q103" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="R103" t="s">
+      <c r="R103" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="S103" t="s">
+      <c r="S103" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="U103" s="27"/>
+      <c r="U103" s="31"/>
       <c r="V103" t="s">
         <v>410</v>
       </c>
@@ -4788,18 +4802,18 @@
         <v>414</v>
       </c>
     </row>
-    <row r="104" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P104" s="31"/>
-      <c r="Q104" t="s">
+    <row r="104" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P104" s="30"/>
+      <c r="Q104" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="R104" t="s">
+      <c r="R104" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="S104" t="s">
+      <c r="S104" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="U104" s="27"/>
+      <c r="U104" s="31"/>
       <c r="V104" t="s">
         <v>411</v>
       </c>
@@ -4810,8 +4824,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="105" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P105" s="31"/>
+    <row r="105" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P105" s="30"/>
       <c r="Q105" t="s">
         <v>233</v>
       </c>
@@ -4834,18 +4848,18 @@
         <v>383</v>
       </c>
     </row>
-    <row r="106" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P106" s="31"/>
-      <c r="Q106" t="s">
+    <row r="106" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P106" s="30"/>
+      <c r="Q106" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="R106" t="s">
+      <c r="R106" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S106" t="s">
+      <c r="S106" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="U106" s="26" t="s">
+      <c r="U106" s="27" t="s">
         <v>191</v>
       </c>
       <c r="V106" t="s">
@@ -4858,52 +4872,52 @@
         <v>517</v>
       </c>
     </row>
-    <row r="107" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P107" s="31"/>
-      <c r="Q107" t="s">
+    <row r="107" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P107" s="30"/>
+      <c r="Q107" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="R107" t="s">
+      <c r="R107" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S107" t="s">
+      <c r="S107" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="U107" s="26"/>
-      <c r="V107" t="s">
+      <c r="U107" s="27"/>
+      <c r="V107" s="35" t="s">
         <v>519</v>
       </c>
-      <c r="W107" t="s">
+      <c r="W107" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X107" t="s">
+      <c r="X107" s="35" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="108" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P108" s="31"/>
-      <c r="Q108" t="s">
+    <row r="108" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P108" s="30"/>
+      <c r="Q108" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="R108" t="s">
+      <c r="R108" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S108" t="s">
+      <c r="S108" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="U108" s="26"/>
-      <c r="V108" t="s">
+      <c r="U108" s="27"/>
+      <c r="V108" s="35" t="s">
         <v>520</v>
       </c>
-      <c r="W108" t="s">
+      <c r="W108" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X108" t="s">
+      <c r="X108" s="35" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="109" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P109" s="31"/>
+    <row r="109" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P109" s="30"/>
       <c r="Q109" t="s">
         <v>22</v>
       </c>
@@ -4913,7 +4927,7 @@
       <c r="S109" t="s">
         <v>343</v>
       </c>
-      <c r="U109" s="31" t="s">
+      <c r="U109" s="30" t="s">
         <v>192</v>
       </c>
       <c r="V109" t="s">
@@ -4926,8 +4940,8 @@
         <v>378</v>
       </c>
     </row>
-    <row r="110" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P110" s="31"/>
+    <row r="110" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P110" s="30"/>
       <c r="Q110" t="s">
         <v>21</v>
       </c>
@@ -4937,59 +4951,59 @@
       <c r="S110" t="s">
         <v>344</v>
       </c>
-      <c r="U110" s="31"/>
-      <c r="V110" t="s">
+      <c r="U110" s="30"/>
+      <c r="V110" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="W110" t="s">
+      <c r="W110" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X110" t="s">
+      <c r="X110" s="35" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="111" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P111" s="31"/>
-      <c r="Q111" t="s">
+    <row r="111" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P111" s="30"/>
+      <c r="Q111" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="R111" t="s">
+      <c r="R111" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="S111" t="s">
+      <c r="S111" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="U111" s="31"/>
-      <c r="V111" t="s">
+      <c r="U111" s="30"/>
+      <c r="V111" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="W111" t="s">
+      <c r="W111" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X111" t="s">
+      <c r="X111" s="35" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="112" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="U112" s="31"/>
-      <c r="V112" t="s">
+    <row r="112" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U112" s="30"/>
+      <c r="V112" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="W112" t="s">
+      <c r="W112" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X112" t="s">
+      <c r="X112" s="35" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="113" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P113" s="28" t="s">
+    <row r="113" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P113" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="Q113" s="28"/>
-      <c r="R113" s="28"/>
-      <c r="S113" s="28"/>
-      <c r="U113" s="31"/>
+      <c r="Q113" s="29"/>
+      <c r="R113" s="29"/>
+      <c r="S113" s="29"/>
+      <c r="U113" s="30"/>
       <c r="V113" t="s">
         <v>258</v>
       </c>
@@ -5000,8 +5014,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="114" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P114" s="27" t="s">
+    <row r="114" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P114" s="31" t="s">
         <v>172</v>
       </c>
       <c r="Q114" t="s">
@@ -5013,19 +5027,19 @@
       <c r="S114" t="s">
         <v>181</v>
       </c>
-      <c r="U114" s="31"/>
-      <c r="V114" t="s">
+      <c r="U114" s="30"/>
+      <c r="V114" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="W114" t="s">
+      <c r="W114" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X114" t="s">
+      <c r="X114" s="35" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="115" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P115" s="27"/>
+    <row r="115" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P115" s="31"/>
       <c r="Q115" t="s">
         <v>47</v>
       </c>
@@ -5035,19 +5049,19 @@
       <c r="S115" t="s">
         <v>182</v>
       </c>
-      <c r="U115" s="31"/>
-      <c r="V115" t="s">
+      <c r="U115" s="30"/>
+      <c r="V115" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="W115" t="s">
+      <c r="W115" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X115" t="s">
+      <c r="X115" s="35" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="116" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P116" s="27"/>
+    <row r="116" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P116" s="31"/>
       <c r="Q116" t="s">
         <v>205</v>
       </c>
@@ -5057,19 +5071,19 @@
       <c r="S116" t="s">
         <v>310</v>
       </c>
-      <c r="U116" s="31"/>
-      <c r="V116" t="s">
+      <c r="U116" s="30"/>
+      <c r="V116" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="W116" t="s">
+      <c r="W116" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X116" t="s">
+      <c r="X116" s="35" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="117" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P117" s="27"/>
+    <row r="117" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P117" s="31"/>
       <c r="Q117" t="s">
         <v>206</v>
       </c>
@@ -5079,7 +5093,7 @@
       <c r="S117" t="s">
         <v>485</v>
       </c>
-      <c r="U117" s="31"/>
+      <c r="U117" s="30"/>
       <c r="V117" t="s">
         <v>262</v>
       </c>
@@ -5090,8 +5104,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="118" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P118" s="27"/>
+    <row r="118" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P118" s="31"/>
       <c r="Q118" t="s">
         <v>207</v>
       </c>
@@ -5101,63 +5115,63 @@
       <c r="S118" t="s">
         <v>304</v>
       </c>
-      <c r="U118" s="31"/>
-      <c r="V118" t="s">
+      <c r="U118" s="30"/>
+      <c r="V118" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="W118" t="s">
+      <c r="W118" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X118" t="s">
+      <c r="X118" s="35" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="119" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P119" s="27"/>
-      <c r="Q119" t="s">
+    <row r="119" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P119" s="31"/>
+      <c r="Q119" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="R119" t="s">
+      <c r="R119" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="S119" t="s">
+      <c r="S119" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="U119" s="31"/>
-      <c r="V119" t="s">
+      <c r="U119" s="30"/>
+      <c r="V119" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="W119" t="s">
+      <c r="W119" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X119" t="s">
+      <c r="X119" s="35" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="120" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P120" s="27"/>
-      <c r="Q120" t="s">
+    <row r="120" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P120" s="31"/>
+      <c r="Q120" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="R120" t="s">
+      <c r="R120" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="S120" t="s">
+      <c r="S120" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="U120" s="31"/>
-      <c r="V120" t="s">
+      <c r="U120" s="30"/>
+      <c r="V120" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="W120" t="s">
+      <c r="W120" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X120" t="s">
+      <c r="X120" s="35" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P121" s="27"/>
+    <row r="121" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P121" s="31"/>
       <c r="Q121" t="s">
         <v>271</v>
       </c>
@@ -5167,7 +5181,7 @@
       <c r="S121" t="s">
         <v>359</v>
       </c>
-      <c r="U121" s="31"/>
+      <c r="U121" s="30"/>
       <c r="V121" t="s">
         <v>266</v>
       </c>
@@ -5178,8 +5192,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="122" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P122" s="27"/>
+    <row r="122" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P122" s="31"/>
       <c r="Q122" t="s">
         <v>147</v>
       </c>
@@ -5189,19 +5203,19 @@
       <c r="S122" t="s">
         <v>358</v>
       </c>
-      <c r="U122" s="31"/>
-      <c r="V122" t="s">
+      <c r="U122" s="30"/>
+      <c r="V122" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="W122" t="s">
+      <c r="W122" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X122" t="s">
+      <c r="X122" s="35" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="123" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P123" s="27"/>
+    <row r="123" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P123" s="31"/>
       <c r="Q123" t="s">
         <v>251</v>
       </c>
@@ -5211,19 +5225,19 @@
       <c r="S123" t="s">
         <v>356</v>
       </c>
-      <c r="U123" s="31"/>
-      <c r="V123" t="s">
+      <c r="U123" s="30"/>
+      <c r="V123" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="W123" t="s">
+      <c r="W123" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X123" t="s">
+      <c r="X123" s="35" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="124" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P124" s="27"/>
+    <row r="124" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P124" s="31"/>
       <c r="Q124" t="s">
         <v>23</v>
       </c>
@@ -5233,29 +5247,29 @@
       <c r="S124" t="s">
         <v>345</v>
       </c>
-      <c r="U124" s="31"/>
-      <c r="V124" t="s">
+      <c r="U124" s="30"/>
+      <c r="V124" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="W124" t="s">
+      <c r="W124" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X124" t="s">
+      <c r="X124" s="35" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="125" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P125" s="27"/>
-      <c r="Q125" t="s">
+    <row r="125" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P125" s="31"/>
+      <c r="Q125" s="35" t="s">
         <v>501</v>
       </c>
-      <c r="R125" t="s">
+      <c r="R125" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S125" t="s">
+      <c r="S125" s="35" t="s">
         <v>506</v>
       </c>
-      <c r="U125" s="31"/>
+      <c r="U125" s="30"/>
       <c r="V125" t="s">
         <v>449</v>
       </c>
@@ -5266,62 +5280,62 @@
         <v>452</v>
       </c>
     </row>
-    <row r="126" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P126" s="27"/>
-      <c r="Q126" t="s">
+    <row r="126" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P126" s="31"/>
+      <c r="Q126" s="35" t="s">
         <v>497</v>
       </c>
-      <c r="R126" t="s">
+      <c r="R126" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S126" t="s">
+      <c r="S126" s="35" t="s">
         <v>503</v>
       </c>
-      <c r="U126" s="31"/>
-      <c r="V126" t="s">
+      <c r="U126" s="30"/>
+      <c r="V126" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="W126" t="s">
+      <c r="W126" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="X126" t="s">
+      <c r="X126" s="35" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="127" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P127" s="27"/>
-      <c r="Q127" t="s">
+    <row r="127" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P127" s="31"/>
+      <c r="Q127" s="35" t="s">
         <v>496</v>
       </c>
-      <c r="R127" t="s">
+      <c r="R127" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S127" t="s">
+      <c r="S127" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="U127" s="31"/>
-      <c r="V127" t="s">
+      <c r="U127" s="30"/>
+      <c r="V127" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="W127" t="s">
+      <c r="W127" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="X127" t="s">
+      <c r="X127" s="35" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="128" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P128" s="27"/>
-      <c r="Q128" t="s">
+    <row r="128" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P128" s="31"/>
+      <c r="Q128" s="35" t="s">
         <v>495</v>
       </c>
-      <c r="R128" t="s">
+      <c r="R128" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S128" t="s">
+      <c r="S128" s="35" t="s">
         <v>507</v>
       </c>
-      <c r="U128" s="31"/>
+      <c r="U128" s="30"/>
       <c r="V128" t="s">
         <v>279</v>
       </c>
@@ -5332,18 +5346,18 @@
         <v>395</v>
       </c>
     </row>
-    <row r="129" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P129" s="27"/>
-      <c r="Q129" t="s">
+    <row r="129" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P129" s="31"/>
+      <c r="Q129" s="35" t="s">
         <v>498</v>
       </c>
-      <c r="R129" t="s">
+      <c r="R129" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S129" t="s">
+      <c r="S129" s="35" t="s">
         <v>504</v>
       </c>
-      <c r="U129" s="31"/>
+      <c r="U129" s="30"/>
       <c r="V129" t="s">
         <v>280</v>
       </c>
@@ -5354,18 +5368,18 @@
         <v>396</v>
       </c>
     </row>
-    <row r="130" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P130" s="27"/>
-      <c r="Q130" t="s">
+    <row r="130" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P130" s="31"/>
+      <c r="Q130" s="35" t="s">
         <v>499</v>
       </c>
-      <c r="R130" t="s">
+      <c r="R130" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S130" t="s">
+      <c r="S130" s="35" t="s">
         <v>505</v>
       </c>
-      <c r="U130" s="31"/>
+      <c r="U130" s="30"/>
       <c r="V130" t="s">
         <v>281</v>
       </c>
@@ -5376,18 +5390,18 @@
         <v>397</v>
       </c>
     </row>
-    <row r="131" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P131" s="27"/>
-      <c r="Q131" t="s">
+    <row r="131" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P131" s="31"/>
+      <c r="Q131" s="35" t="s">
         <v>500</v>
       </c>
-      <c r="R131" t="s">
+      <c r="R131" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S131" t="s">
+      <c r="S131" s="35" t="s">
         <v>508</v>
       </c>
-      <c r="U131" s="31"/>
+      <c r="U131" s="30"/>
       <c r="V131" t="s">
         <v>282</v>
       </c>
@@ -5398,7 +5412,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="132" spans="16:24" x14ac:dyDescent="0.4">
+    <row r="132" spans="16:24" x14ac:dyDescent="0.45">
       <c r="P132" s="9" t="s">
         <v>457</v>
       </c>
@@ -5411,7 +5425,7 @@
       <c r="S132" t="s">
         <v>484</v>
       </c>
-      <c r="U132" s="31"/>
+      <c r="U132" s="30"/>
       <c r="V132" t="s">
         <v>283</v>
       </c>
@@ -5422,8 +5436,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="133" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P133" s="30" t="s">
+    <row r="133" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P133" s="26" t="s">
         <v>168</v>
       </c>
       <c r="Q133" t="s">
@@ -5435,7 +5449,7 @@
       <c r="S133" t="s">
         <v>314</v>
       </c>
-      <c r="U133" s="31"/>
+      <c r="U133" s="30"/>
       <c r="V133" t="s">
         <v>284</v>
       </c>
@@ -5446,8 +5460,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P134" s="30"/>
+    <row r="134" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P134" s="26"/>
       <c r="Q134" t="s">
         <v>211</v>
       </c>
@@ -5457,7 +5471,7 @@
       <c r="S134" t="s">
         <v>315</v>
       </c>
-      <c r="U134" s="31"/>
+      <c r="U134" s="30"/>
       <c r="V134" t="s">
         <v>278</v>
       </c>
@@ -5468,7 +5482,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="135" spans="16:24" x14ac:dyDescent="0.4">
+    <row r="135" spans="16:24" x14ac:dyDescent="0.45">
       <c r="P135" s="7" t="s">
         <v>191</v>
       </c>
@@ -5482,8 +5496,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="136" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P136" s="31" t="s">
+    <row r="136" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P136" s="30" t="s">
         <v>192</v>
       </c>
       <c r="Q136" t="s">
@@ -5495,25 +5509,25 @@
       <c r="S136" t="s">
         <v>316</v>
       </c>
-      <c r="U136" s="29" t="s">
+      <c r="U136" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="V136" s="29"/>
-      <c r="W136" s="29"/>
-      <c r="X136" s="29"/>
-    </row>
-    <row r="137" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P137" s="31"/>
-      <c r="Q137" t="s">
+      <c r="V136" s="28"/>
+      <c r="W136" s="28"/>
+      <c r="X136" s="28"/>
+    </row>
+    <row r="137" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P137" s="30"/>
+      <c r="Q137" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="R137" t="s">
+      <c r="R137" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S137" t="s">
+      <c r="S137" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="U137" s="27" t="s">
+      <c r="U137" s="31" t="s">
         <v>172</v>
       </c>
       <c r="V137" t="s">
@@ -5526,18 +5540,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="138" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P138" s="31"/>
-      <c r="Q138" t="s">
+    <row r="138" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P138" s="30"/>
+      <c r="Q138" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="R138" t="s">
+      <c r="R138" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S138" t="s">
+      <c r="S138" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="U138" s="27"/>
+      <c r="U138" s="31"/>
       <c r="V138" t="s">
         <v>47</v>
       </c>
@@ -5548,8 +5562,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="139" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P139" s="31"/>
+    <row r="139" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P139" s="30"/>
       <c r="Q139" t="s">
         <v>213</v>
       </c>
@@ -5559,7 +5573,7 @@
       <c r="S139" t="s">
         <v>319</v>
       </c>
-      <c r="U139" s="27"/>
+      <c r="U139" s="31"/>
       <c r="V139" s="3" t="s">
         <v>444</v>
       </c>
@@ -5570,18 +5584,18 @@
         <v>375</v>
       </c>
     </row>
-    <row r="140" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P140" s="31"/>
-      <c r="Q140" t="s">
+    <row r="140" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P140" s="30"/>
+      <c r="Q140" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="R140" t="s">
+      <c r="R140" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="S140" t="s">
+      <c r="S140" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="U140" s="27"/>
+      <c r="U140" s="31"/>
       <c r="V140" t="s">
         <v>445</v>
       </c>
@@ -5592,18 +5606,18 @@
         <v>376</v>
       </c>
     </row>
-    <row r="141" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P141" s="31"/>
-      <c r="Q141" t="s">
+    <row r="141" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P141" s="30"/>
+      <c r="Q141" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="R141" t="s">
+      <c r="R141" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="S141" t="s">
+      <c r="S141" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="U141" s="27"/>
+      <c r="U141" s="31"/>
       <c r="V141" t="s">
         <v>205</v>
       </c>
@@ -5614,8 +5628,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="142" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P142" s="31"/>
+    <row r="142" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P142" s="30"/>
       <c r="Q142" t="s">
         <v>216</v>
       </c>
@@ -5625,7 +5639,7 @@
       <c r="S142" t="s">
         <v>323</v>
       </c>
-      <c r="U142" s="27"/>
+      <c r="U142" s="31"/>
       <c r="V142" t="s">
         <v>207</v>
       </c>
@@ -5636,52 +5650,52 @@
         <v>304</v>
       </c>
     </row>
-    <row r="143" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P143" s="31"/>
-      <c r="Q143" t="s">
+    <row r="143" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P143" s="30"/>
+      <c r="Q143" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="R143" t="s">
+      <c r="R143" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S143" t="s">
+      <c r="S143" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="U143" s="27"/>
-      <c r="V143" t="s">
+      <c r="U143" s="31"/>
+      <c r="V143" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="W143" t="s">
+      <c r="W143" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X143" t="s">
+      <c r="X143" s="35" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="144" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P144" s="31"/>
-      <c r="Q144" t="s">
+    <row r="144" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P144" s="30"/>
+      <c r="Q144" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="R144" t="s">
+      <c r="R144" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S144" t="s">
+      <c r="S144" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="U144" s="27"/>
-      <c r="V144" t="s">
+      <c r="U144" s="31"/>
+      <c r="V144" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="W144" t="s">
+      <c r="W144" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X144" t="s">
+      <c r="X144" s="35" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="145" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P145" s="31"/>
+    <row r="145" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P145" s="30"/>
       <c r="Q145" t="s">
         <v>230</v>
       </c>
@@ -5691,7 +5705,7 @@
       <c r="S145" t="s">
         <v>334</v>
       </c>
-      <c r="U145" s="27"/>
+      <c r="U145" s="31"/>
       <c r="V145" t="s">
         <v>292</v>
       </c>
@@ -5702,18 +5716,18 @@
         <v>425</v>
       </c>
     </row>
-    <row r="146" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P146" s="31"/>
-      <c r="Q146" t="s">
+    <row r="146" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P146" s="30"/>
+      <c r="Q146" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="R146" t="s">
+      <c r="R146" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="S146" t="s">
+      <c r="S146" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="U146" s="27"/>
+      <c r="U146" s="31"/>
       <c r="V146" t="s">
         <v>293</v>
       </c>
@@ -5724,18 +5738,18 @@
         <v>426</v>
       </c>
     </row>
-    <row r="147" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P147" s="31"/>
-      <c r="Q147" t="s">
+    <row r="147" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P147" s="30"/>
+      <c r="Q147" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="R147" t="s">
+      <c r="R147" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="S147" t="s">
+      <c r="S147" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="U147" s="27"/>
+      <c r="U147" s="31"/>
       <c r="V147" t="s">
         <v>220</v>
       </c>
@@ -5746,18 +5760,18 @@
         <v>423</v>
       </c>
     </row>
-    <row r="148" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P148" s="31"/>
-      <c r="Q148" t="s">
+    <row r="148" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P148" s="30"/>
+      <c r="Q148" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="R148" t="s">
+      <c r="R148" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="S148" t="s">
+      <c r="S148" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="U148" s="27"/>
+      <c r="U148" s="31"/>
       <c r="V148" t="s">
         <v>272</v>
       </c>
@@ -5765,8 +5779,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="149" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P149" s="31"/>
+    <row r="149" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P149" s="30"/>
       <c r="Q149" t="s">
         <v>233</v>
       </c>
@@ -5776,7 +5790,7 @@
       <c r="S149" t="s">
         <v>338</v>
       </c>
-      <c r="U149" s="27"/>
+      <c r="U149" s="31"/>
       <c r="V149" t="s">
         <v>291</v>
       </c>
@@ -5787,18 +5801,18 @@
         <v>422</v>
       </c>
     </row>
-    <row r="150" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P150" s="31"/>
-      <c r="Q150" t="s">
+    <row r="150" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P150" s="30"/>
+      <c r="Q150" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="R150" t="s">
+      <c r="R150" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S150" t="s">
+      <c r="S150" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="U150" s="27"/>
+      <c r="U150" s="31"/>
       <c r="V150" t="s">
         <v>490</v>
       </c>
@@ -5809,18 +5823,18 @@
         <v>480</v>
       </c>
     </row>
-    <row r="151" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P151" s="31"/>
-      <c r="Q151" t="s">
+    <row r="151" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P151" s="30"/>
+      <c r="Q151" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="R151" t="s">
+      <c r="R151" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S151" t="s">
+      <c r="S151" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="U151" s="27"/>
+      <c r="U151" s="31"/>
       <c r="V151" t="s">
         <v>418</v>
       </c>
@@ -5831,18 +5845,18 @@
         <v>420</v>
       </c>
     </row>
-    <row r="152" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P152" s="31"/>
-      <c r="Q152" t="s">
+    <row r="152" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P152" s="30"/>
+      <c r="Q152" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="R152" t="s">
+      <c r="R152" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S152" t="s">
+      <c r="S152" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="U152" s="27"/>
+      <c r="U152" s="31"/>
       <c r="V152" t="s">
         <v>491</v>
       </c>
@@ -5853,8 +5867,8 @@
         <v>481</v>
       </c>
     </row>
-    <row r="153" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P153" s="31"/>
+    <row r="153" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P153" s="30"/>
       <c r="Q153" t="s">
         <v>22</v>
       </c>
@@ -5864,7 +5878,7 @@
       <c r="S153" t="s">
         <v>343</v>
       </c>
-      <c r="U153" s="27"/>
+      <c r="U153" s="31"/>
       <c r="V153" t="s">
         <v>419</v>
       </c>
@@ -5875,8 +5889,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="154" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P154" s="31"/>
+    <row r="154" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P154" s="30"/>
       <c r="Q154" t="s">
         <v>21</v>
       </c>
@@ -5886,7 +5900,7 @@
       <c r="S154" t="s">
         <v>344</v>
       </c>
-      <c r="U154" s="27"/>
+      <c r="U154" s="31"/>
       <c r="V154" t="s">
         <v>221</v>
       </c>
@@ -5897,8 +5911,8 @@
         <v>424</v>
       </c>
     </row>
-    <row r="155" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="U155" s="30" t="s">
+    <row r="155" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U155" s="26" t="s">
         <v>168</v>
       </c>
       <c r="V155" t="s">
@@ -5911,14 +5925,14 @@
         <v>383</v>
       </c>
     </row>
-    <row r="156" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P156" s="29" t="s">
+    <row r="156" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P156" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="Q156" s="29"/>
-      <c r="R156" s="29"/>
-      <c r="S156" s="29"/>
-      <c r="U156" s="30"/>
+      <c r="Q156" s="28"/>
+      <c r="R156" s="28"/>
+      <c r="S156" s="28"/>
+      <c r="U156" s="26"/>
       <c r="V156" t="s">
         <v>429</v>
       </c>
@@ -5929,8 +5943,8 @@
         <v>431</v>
       </c>
     </row>
-    <row r="157" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P157" s="27" t="s">
+    <row r="157" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P157" s="31" t="s">
         <v>172</v>
       </c>
       <c r="Q157" t="s">
@@ -5942,7 +5956,7 @@
       <c r="S157" t="s">
         <v>181</v>
       </c>
-      <c r="U157" s="26" t="s">
+      <c r="U157" s="27" t="s">
         <v>191</v>
       </c>
       <c r="V157" t="s">
@@ -5955,8 +5969,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P158" s="27"/>
+    <row r="158" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P158" s="31"/>
       <c r="Q158" t="s">
         <v>47</v>
       </c>
@@ -5966,7 +5980,7 @@
       <c r="S158" t="s">
         <v>182</v>
       </c>
-      <c r="U158" s="26"/>
+      <c r="U158" s="27"/>
       <c r="V158" s="23" t="s">
         <v>294</v>
       </c>
@@ -5977,8 +5991,8 @@
         <v>427</v>
       </c>
     </row>
-    <row r="159" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P159" s="27"/>
+    <row r="159" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P159" s="31"/>
       <c r="Q159" t="s">
         <v>205</v>
       </c>
@@ -5988,7 +6002,7 @@
       <c r="S159" t="s">
         <v>310</v>
       </c>
-      <c r="U159" s="26"/>
+      <c r="U159" s="27"/>
       <c r="V159" s="23" t="s">
         <v>295</v>
       </c>
@@ -5999,8 +6013,8 @@
         <v>428</v>
       </c>
     </row>
-    <row r="160" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P160" s="27"/>
+    <row r="160" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P160" s="31"/>
       <c r="Q160" t="s">
         <v>206</v>
       </c>
@@ -6010,7 +6024,7 @@
       <c r="S160" t="s">
         <v>482</v>
       </c>
-      <c r="U160" s="31" t="s">
+      <c r="U160" s="30" t="s">
         <v>192</v>
       </c>
       <c r="V160" t="s">
@@ -6023,8 +6037,8 @@
         <v>378</v>
       </c>
     </row>
-    <row r="161" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P161" s="27"/>
+    <row r="161" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P161" s="31"/>
       <c r="Q161" t="s">
         <v>207</v>
       </c>
@@ -6034,63 +6048,63 @@
       <c r="S161" t="s">
         <v>304</v>
       </c>
-      <c r="U161" s="31"/>
-      <c r="V161" t="s">
+      <c r="U161" s="30"/>
+      <c r="V161" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="W161" t="s">
+      <c r="W161" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X161" t="s">
+      <c r="X161" s="35" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="162" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P162" s="27"/>
-      <c r="Q162" t="s">
+    <row r="162" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P162" s="31"/>
+      <c r="Q162" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="R162" t="s">
+      <c r="R162" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="S162" t="s">
+      <c r="S162" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="U162" s="31"/>
-      <c r="V162" t="s">
+      <c r="U162" s="30"/>
+      <c r="V162" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="W162" t="s">
+      <c r="W162" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X162" t="s">
+      <c r="X162" s="35" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="163" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P163" s="27"/>
-      <c r="Q163" t="s">
+    <row r="163" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P163" s="31"/>
+      <c r="Q163" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="R163" t="s">
+      <c r="R163" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="S163" t="s">
+      <c r="S163" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="U163" s="31"/>
-      <c r="V163" t="s">
+      <c r="U163" s="30"/>
+      <c r="V163" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="W163" t="s">
+      <c r="W163" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X163" t="s">
+      <c r="X163" s="35" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="164" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P164" s="27"/>
+    <row r="164" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P164" s="31"/>
       <c r="Q164" t="s">
         <v>370</v>
       </c>
@@ -6100,7 +6114,7 @@
       <c r="S164" t="s">
         <v>368</v>
       </c>
-      <c r="U164" s="31"/>
+      <c r="U164" s="30"/>
       <c r="V164" t="s">
         <v>258</v>
       </c>
@@ -6111,8 +6125,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="165" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P165" s="27"/>
+    <row r="165" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P165" s="31"/>
       <c r="Q165" t="s">
         <v>371</v>
       </c>
@@ -6122,19 +6136,19 @@
       <c r="S165" t="s">
         <v>369</v>
       </c>
-      <c r="U165" s="31"/>
-      <c r="V165" t="s">
+      <c r="U165" s="30"/>
+      <c r="V165" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="W165" t="s">
+      <c r="W165" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X165" t="s">
+      <c r="X165" s="35" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="166" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P166" s="27"/>
+    <row r="166" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P166" s="31"/>
       <c r="Q166" t="s">
         <v>242</v>
       </c>
@@ -6144,19 +6158,19 @@
       <c r="S166" t="s">
         <v>347</v>
       </c>
-      <c r="U166" s="31"/>
-      <c r="V166" t="s">
+      <c r="U166" s="30"/>
+      <c r="V166" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="W166" t="s">
+      <c r="W166" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X166" t="s">
+      <c r="X166" s="35" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="167" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P167" s="27"/>
+    <row r="167" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P167" s="31"/>
       <c r="Q167" t="s">
         <v>147</v>
       </c>
@@ -6166,19 +6180,19 @@
       <c r="S167" t="s">
         <v>361</v>
       </c>
-      <c r="U167" s="31"/>
-      <c r="V167" t="s">
+      <c r="U167" s="30"/>
+      <c r="V167" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="W167" t="s">
+      <c r="W167" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X167" t="s">
+      <c r="X167" s="35" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="168" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P168" s="27"/>
+    <row r="168" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P168" s="31"/>
       <c r="Q168" t="s">
         <v>365</v>
       </c>
@@ -6188,7 +6202,7 @@
       <c r="S168" t="s">
         <v>364</v>
       </c>
-      <c r="U168" s="31"/>
+      <c r="U168" s="30"/>
       <c r="V168" t="s">
         <v>262</v>
       </c>
@@ -6199,8 +6213,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="169" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P169" s="27"/>
+    <row r="169" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P169" s="31"/>
       <c r="Q169" t="s">
         <v>366</v>
       </c>
@@ -6210,19 +6224,19 @@
       <c r="S169" t="s">
         <v>363</v>
       </c>
-      <c r="U169" s="31"/>
-      <c r="V169" t="s">
+      <c r="U169" s="30"/>
+      <c r="V169" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="W169" t="s">
+      <c r="W169" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X169" t="s">
+      <c r="X169" s="35" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="170" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P170" s="27"/>
+    <row r="170" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P170" s="31"/>
       <c r="Q170" t="s">
         <v>486</v>
       </c>
@@ -6232,19 +6246,19 @@
       <c r="S170" t="s">
         <v>367</v>
       </c>
-      <c r="U170" s="31"/>
-      <c r="V170" t="s">
+      <c r="U170" s="30"/>
+      <c r="V170" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="W170" t="s">
+      <c r="W170" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X170" t="s">
+      <c r="X170" s="35" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="171" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P171" s="27"/>
+    <row r="171" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P171" s="31"/>
       <c r="Q171" t="s">
         <v>272</v>
       </c>
@@ -6254,29 +6268,29 @@
       <c r="S171" t="s">
         <v>487</v>
       </c>
-      <c r="U171" s="31"/>
-      <c r="V171" t="s">
+      <c r="U171" s="30"/>
+      <c r="V171" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="W171" t="s">
+      <c r="W171" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X171" t="s">
+      <c r="X171" s="35" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="172" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P172" s="27"/>
-      <c r="Q172" t="s">
+    <row r="172" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P172" s="31"/>
+      <c r="Q172" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="R172" t="s">
+      <c r="R172" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="S172" t="s">
+      <c r="S172" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="U172" s="31"/>
+      <c r="U172" s="30"/>
       <c r="V172" t="s">
         <v>266</v>
       </c>
@@ -6287,30 +6301,30 @@
         <v>391</v>
       </c>
     </row>
-    <row r="173" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P173" s="27"/>
-      <c r="Q173" t="s">
+    <row r="173" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P173" s="31"/>
+      <c r="Q173" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="R173" t="s">
+      <c r="R173" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="S173" t="s">
+      <c r="S173" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="U173" s="31"/>
-      <c r="V173" t="s">
+      <c r="U173" s="30"/>
+      <c r="V173" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="W173" t="s">
+      <c r="W173" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X173" t="s">
+      <c r="X173" s="35" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="174" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P174" s="27"/>
+    <row r="174" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P174" s="31"/>
       <c r="Q174" t="s">
         <v>23</v>
       </c>
@@ -6320,18 +6334,18 @@
       <c r="S174" t="s">
         <v>345</v>
       </c>
-      <c r="U174" s="31"/>
-      <c r="V174" t="s">
+      <c r="U174" s="30"/>
+      <c r="V174" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="W174" t="s">
+      <c r="W174" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X174" t="s">
+      <c r="X174" s="35" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="175" spans="16:24" x14ac:dyDescent="0.4">
+    <row r="175" spans="16:24" x14ac:dyDescent="0.45">
       <c r="P175" s="9" t="s">
         <v>457</v>
       </c>
@@ -6344,19 +6358,19 @@
       <c r="S175" t="s">
         <v>461</v>
       </c>
-      <c r="U175" s="31"/>
-      <c r="V175" t="s">
+      <c r="U175" s="30"/>
+      <c r="V175" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="W175" t="s">
+      <c r="W175" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X175" t="s">
+      <c r="X175" s="35" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="176" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P176" s="30" t="s">
+    <row r="176" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P176" s="26" t="s">
         <v>168</v>
       </c>
       <c r="Q176" t="s">
@@ -6368,7 +6382,7 @@
       <c r="S176" t="s">
         <v>314</v>
       </c>
-      <c r="U176" s="31"/>
+      <c r="U176" s="30"/>
       <c r="V176" t="s">
         <v>279</v>
       </c>
@@ -6379,8 +6393,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="177" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P177" s="30"/>
+    <row r="177" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P177" s="26"/>
       <c r="Q177" t="s">
         <v>211</v>
       </c>
@@ -6390,7 +6404,7 @@
       <c r="S177" t="s">
         <v>315</v>
       </c>
-      <c r="U177" s="31"/>
+      <c r="U177" s="30"/>
       <c r="V177" t="s">
         <v>280</v>
       </c>
@@ -6401,8 +6415,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="178" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P178" s="26" t="s">
+    <row r="178" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P178" s="27" t="s">
         <v>191</v>
       </c>
       <c r="Q178" t="s">
@@ -6414,7 +6428,7 @@
       <c r="S178" t="s">
         <v>311</v>
       </c>
-      <c r="U178" s="31"/>
+      <c r="U178" s="30"/>
       <c r="V178" t="s">
         <v>281</v>
       </c>
@@ -6425,8 +6439,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="179" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P179" s="26"/>
+    <row r="179" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P179" s="27"/>
       <c r="Q179" t="s">
         <v>251</v>
       </c>
@@ -6436,7 +6450,7 @@
       <c r="S179" t="s">
         <v>356</v>
       </c>
-      <c r="U179" s="31"/>
+      <c r="U179" s="30"/>
       <c r="V179" t="s">
         <v>282</v>
       </c>
@@ -6447,8 +6461,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="180" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P180" s="31" t="s">
+    <row r="180" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P180" s="30" t="s">
         <v>192</v>
       </c>
       <c r="Q180" t="s">
@@ -6460,7 +6474,7 @@
       <c r="S180" t="s">
         <v>316</v>
       </c>
-      <c r="U180" s="31"/>
+      <c r="U180" s="30"/>
       <c r="V180" t="s">
         <v>283</v>
       </c>
@@ -6471,18 +6485,18 @@
         <v>399</v>
       </c>
     </row>
-    <row r="181" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P181" s="31"/>
-      <c r="Q181" t="s">
+    <row r="181" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P181" s="30"/>
+      <c r="Q181" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="R181" t="s">
+      <c r="R181" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S181" t="s">
+      <c r="S181" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="U181" s="31"/>
+      <c r="U181" s="30"/>
       <c r="V181" t="s">
         <v>284</v>
       </c>
@@ -6493,18 +6507,18 @@
         <v>400</v>
       </c>
     </row>
-    <row r="182" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P182" s="31"/>
-      <c r="Q182" t="s">
+    <row r="182" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P182" s="30"/>
+      <c r="Q182" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="R182" t="s">
+      <c r="R182" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S182" t="s">
+      <c r="S182" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="U182" s="31"/>
+      <c r="U182" s="30"/>
       <c r="V182" t="s">
         <v>278</v>
       </c>
@@ -6515,8 +6529,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="183" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P183" s="31"/>
+    <row r="183" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P183" s="30"/>
       <c r="Q183" t="s">
         <v>213</v>
       </c>
@@ -6526,7 +6540,7 @@
       <c r="S183" t="s">
         <v>319</v>
       </c>
-      <c r="U183" s="31"/>
+      <c r="U183" s="30"/>
       <c r="V183" t="s">
         <v>455</v>
       </c>
@@ -6537,15 +6551,15 @@
         <v>456</v>
       </c>
     </row>
-    <row r="184" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P184" s="31"/>
-      <c r="Q184" t="s">
+    <row r="184" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P184" s="30"/>
+      <c r="Q184" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="R184" t="s">
+      <c r="R184" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="S184" t="s">
+      <c r="S184" s="35" t="s">
         <v>320</v>
       </c>
       <c r="U184" s="19"/>
@@ -6553,26 +6567,26 @@
       <c r="W184" s="19"/>
       <c r="X184" s="19"/>
     </row>
-    <row r="185" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P185" s="31"/>
-      <c r="Q185" t="s">
+    <row r="185" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P185" s="30"/>
+      <c r="Q185" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="R185" t="s">
+      <c r="R185" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="S185" t="s">
+      <c r="S185" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="U185" s="28" t="s">
+      <c r="U185" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="V185" s="28"/>
-      <c r="W185" s="28"/>
-      <c r="X185" s="28"/>
-    </row>
-    <row r="186" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P186" s="31"/>
+      <c r="V185" s="29"/>
+      <c r="W185" s="29"/>
+      <c r="X185" s="29"/>
+    </row>
+    <row r="186" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P186" s="30"/>
       <c r="Q186" t="s">
         <v>216</v>
       </c>
@@ -6582,7 +6596,7 @@
       <c r="S186" t="s">
         <v>323</v>
       </c>
-      <c r="U186" s="27" t="s">
+      <c r="U186" s="31" t="s">
         <v>172</v>
       </c>
       <c r="V186" t="s">
@@ -6595,18 +6609,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="187" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P187" s="31"/>
-      <c r="Q187" t="s">
+    <row r="187" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P187" s="30"/>
+      <c r="Q187" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="R187" t="s">
+      <c r="R187" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S187" t="s">
+      <c r="S187" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="U187" s="27"/>
+      <c r="U187" s="31"/>
       <c r="V187" t="s">
         <v>47</v>
       </c>
@@ -6617,18 +6631,18 @@
         <v>182</v>
       </c>
     </row>
-    <row r="188" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P188" s="31"/>
-      <c r="Q188" t="s">
+    <row r="188" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P188" s="30"/>
+      <c r="Q188" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="R188" t="s">
+      <c r="R188" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S188" t="s">
+      <c r="S188" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="U188" s="27"/>
+      <c r="U188" s="31"/>
       <c r="V188" s="3" t="s">
         <v>444</v>
       </c>
@@ -6639,8 +6653,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="189" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P189" s="31"/>
+    <row r="189" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P189" s="30"/>
       <c r="Q189" t="s">
         <v>230</v>
       </c>
@@ -6650,7 +6664,7 @@
       <c r="S189" t="s">
         <v>334</v>
       </c>
-      <c r="U189" s="27"/>
+      <c r="U189" s="31"/>
       <c r="V189" t="s">
         <v>445</v>
       </c>
@@ -6661,18 +6675,18 @@
         <v>376</v>
       </c>
     </row>
-    <row r="190" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P190" s="31"/>
-      <c r="Q190" t="s">
+    <row r="190" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P190" s="30"/>
+      <c r="Q190" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="R190" t="s">
+      <c r="R190" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="S190" t="s">
+      <c r="S190" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="U190" s="27"/>
+      <c r="U190" s="31"/>
       <c r="V190" t="s">
         <v>205</v>
       </c>
@@ -6683,18 +6697,18 @@
         <v>310</v>
       </c>
     </row>
-    <row r="191" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P191" s="31"/>
-      <c r="Q191" t="s">
+    <row r="191" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P191" s="30"/>
+      <c r="Q191" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="R191" t="s">
+      <c r="R191" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="S191" t="s">
+      <c r="S191" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="U191" s="27"/>
+      <c r="U191" s="31"/>
       <c r="V191" t="s">
         <v>207</v>
       </c>
@@ -6705,30 +6719,30 @@
         <v>304</v>
       </c>
     </row>
-    <row r="192" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P192" s="31"/>
-      <c r="Q192" t="s">
+    <row r="192" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P192" s="30"/>
+      <c r="Q192" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="R192" t="s">
+      <c r="R192" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="S192" t="s">
+      <c r="S192" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="U192" s="27"/>
-      <c r="V192" t="s">
+      <c r="U192" s="31"/>
+      <c r="V192" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="W192" t="s">
+      <c r="W192" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X192" t="s">
+      <c r="X192" s="35" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="193" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P193" s="31"/>
+    <row r="193" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P193" s="30"/>
       <c r="Q193" t="s">
         <v>233</v>
       </c>
@@ -6738,29 +6752,29 @@
       <c r="S193" t="s">
         <v>338</v>
       </c>
-      <c r="U193" s="27"/>
-      <c r="V193" t="s">
+      <c r="U193" s="31"/>
+      <c r="V193" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="W193" t="s">
+      <c r="W193" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X193" t="s">
+      <c r="X193" s="35" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="194" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P194" s="31"/>
-      <c r="Q194" t="s">
+    <row r="194" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P194" s="30"/>
+      <c r="Q194" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="R194" t="s">
+      <c r="R194" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S194" t="s">
+      <c r="S194" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="U194" s="27"/>
+      <c r="U194" s="31"/>
       <c r="V194" t="s">
         <v>206</v>
       </c>
@@ -6771,31 +6785,31 @@
         <v>479</v>
       </c>
     </row>
-    <row r="195" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P195" s="31"/>
-      <c r="Q195" t="s">
+    <row r="195" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P195" s="30"/>
+      <c r="Q195" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="R195" t="s">
+      <c r="R195" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S195" t="s">
+      <c r="S195" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="U195" s="27"/>
-    </row>
-    <row r="196" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P196" s="31"/>
-      <c r="Q196" t="s">
+      <c r="U195" s="31"/>
+    </row>
+    <row r="196" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P196" s="30"/>
+      <c r="Q196" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="R196" t="s">
+      <c r="R196" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S196" t="s">
+      <c r="S196" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="U196" s="27"/>
+      <c r="U196" s="31"/>
       <c r="V196" t="s">
         <v>432</v>
       </c>
@@ -6803,8 +6817,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="197" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P197" s="31"/>
+    <row r="197" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P197" s="30"/>
       <c r="Q197" t="s">
         <v>22</v>
       </c>
@@ -6814,7 +6828,7 @@
       <c r="S197" t="s">
         <v>343</v>
       </c>
-      <c r="U197" s="27"/>
+      <c r="U197" s="31"/>
       <c r="V197" t="s">
         <v>23</v>
       </c>
@@ -6825,8 +6839,8 @@
         <v>345</v>
       </c>
     </row>
-    <row r="198" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P198" s="31"/>
+    <row r="198" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P198" s="30"/>
       <c r="Q198" t="s">
         <v>21</v>
       </c>
@@ -6836,7 +6850,7 @@
       <c r="S198" t="s">
         <v>344</v>
       </c>
-      <c r="U198" s="30" t="s">
+      <c r="U198" s="26" t="s">
         <v>168</v>
       </c>
       <c r="V198" t="s">
@@ -6849,18 +6863,18 @@
         <v>383</v>
       </c>
     </row>
-    <row r="199" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P199" s="31"/>
-      <c r="Q199" t="s">
+    <row r="199" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P199" s="30"/>
+      <c r="Q199" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="R199" t="s">
+      <c r="R199" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="S199" t="s">
+      <c r="S199" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="U199" s="30"/>
+      <c r="U199" s="26"/>
       <c r="V199" t="s">
         <v>429</v>
       </c>
@@ -6871,7 +6885,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="200" spans="16:24" x14ac:dyDescent="0.4">
+    <row r="200" spans="16:24" x14ac:dyDescent="0.45">
       <c r="U200" s="7" t="s">
         <v>191</v>
       </c>
@@ -6885,14 +6899,14 @@
         <v>311</v>
       </c>
     </row>
-    <row r="201" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P201" s="28" t="s">
+    <row r="201" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P201" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="Q201" s="28"/>
-      <c r="R201" s="28"/>
-      <c r="S201" s="28"/>
-      <c r="U201" s="31" t="s">
+      <c r="Q201" s="29"/>
+      <c r="R201" s="29"/>
+      <c r="S201" s="29"/>
+      <c r="U201" s="30" t="s">
         <v>192</v>
       </c>
       <c r="V201" t="s">
@@ -6905,8 +6919,8 @@
         <v>378</v>
       </c>
     </row>
-    <row r="202" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P202" s="27" t="s">
+    <row r="202" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P202" s="31" t="s">
         <v>172</v>
       </c>
       <c r="Q202" t="s">
@@ -6918,19 +6932,19 @@
       <c r="S202" t="s">
         <v>181</v>
       </c>
-      <c r="U202" s="31"/>
-      <c r="V202" t="s">
+      <c r="U202" s="30"/>
+      <c r="V202" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="W202" t="s">
+      <c r="W202" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X202" t="s">
+      <c r="X202" s="35" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="203" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P203" s="27"/>
+    <row r="203" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P203" s="31"/>
       <c r="Q203" t="s">
         <v>47</v>
       </c>
@@ -6940,19 +6954,19 @@
       <c r="S203" t="s">
         <v>182</v>
       </c>
-      <c r="U203" s="31"/>
-      <c r="V203" t="s">
+      <c r="U203" s="30"/>
+      <c r="V203" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="W203" t="s">
+      <c r="W203" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X203" t="s">
+      <c r="X203" s="35" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="204" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P204" s="27"/>
+    <row r="204" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P204" s="31"/>
       <c r="Q204" t="s">
         <v>205</v>
       </c>
@@ -6962,19 +6976,19 @@
       <c r="S204" t="s">
         <v>310</v>
       </c>
-      <c r="U204" s="31"/>
-      <c r="V204" t="s">
+      <c r="U204" s="30"/>
+      <c r="V204" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="W204" t="s">
+      <c r="W204" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X204" t="s">
+      <c r="X204" s="35" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="205" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P205" s="27"/>
+    <row r="205" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P205" s="31"/>
       <c r="Q205" t="s">
         <v>206</v>
       </c>
@@ -6984,7 +6998,7 @@
       <c r="S205" t="s">
         <v>309</v>
       </c>
-      <c r="U205" s="31"/>
+      <c r="U205" s="30"/>
       <c r="V205" t="s">
         <v>258</v>
       </c>
@@ -6995,8 +7009,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="206" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P206" s="27"/>
+    <row r="206" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P206" s="31"/>
       <c r="Q206" t="s">
         <v>207</v>
       </c>
@@ -7006,63 +7020,63 @@
       <c r="S206" t="s">
         <v>304</v>
       </c>
-      <c r="U206" s="31"/>
-      <c r="V206" t="s">
+      <c r="U206" s="30"/>
+      <c r="V206" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="W206" t="s">
+      <c r="W206" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X206" t="s">
+      <c r="X206" s="35" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="207" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P207" s="27"/>
-      <c r="Q207" t="s">
+    <row r="207" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P207" s="31"/>
+      <c r="Q207" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="R207" t="s">
+      <c r="R207" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="S207" t="s">
+      <c r="S207" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="U207" s="31"/>
-      <c r="V207" t="s">
+      <c r="U207" s="30"/>
+      <c r="V207" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="W207" t="s">
+      <c r="W207" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X207" t="s">
+      <c r="X207" s="35" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="208" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P208" s="27"/>
-      <c r="Q208" t="s">
+    <row r="208" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P208" s="31"/>
+      <c r="Q208" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="R208" t="s">
+      <c r="R208" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="S208" t="s">
+      <c r="S208" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="U208" s="31"/>
-      <c r="V208" t="s">
+      <c r="U208" s="30"/>
+      <c r="V208" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="W208" t="s">
+      <c r="W208" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X208" t="s">
+      <c r="X208" s="35" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="209" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P209" s="27"/>
+    <row r="209" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P209" s="31"/>
       <c r="Q209" t="s">
         <v>372</v>
       </c>
@@ -7072,7 +7086,7 @@
       <c r="S209" t="s">
         <v>374</v>
       </c>
-      <c r="U209" s="31"/>
+      <c r="U209" s="30"/>
       <c r="V209" t="s">
         <v>262</v>
       </c>
@@ -7083,8 +7097,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="210" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P210" s="27"/>
+    <row r="210" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P210" s="31"/>
       <c r="Q210" t="s">
         <v>275</v>
       </c>
@@ -7094,19 +7108,19 @@
       <c r="S210" t="s">
         <v>492</v>
       </c>
-      <c r="U210" s="31"/>
-      <c r="V210" t="s">
+      <c r="U210" s="30"/>
+      <c r="V210" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="W210" t="s">
+      <c r="W210" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X210" t="s">
+      <c r="X210" s="35" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="211" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P211" s="27"/>
+    <row r="211" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P211" s="31"/>
       <c r="Q211" t="s">
         <v>147</v>
       </c>
@@ -7116,19 +7130,19 @@
       <c r="S211" t="s">
         <v>346</v>
       </c>
-      <c r="U211" s="31"/>
-      <c r="V211" t="s">
+      <c r="U211" s="30"/>
+      <c r="V211" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="W211" t="s">
+      <c r="W211" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X211" t="s">
+      <c r="X211" s="35" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="212" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P212" s="27"/>
+    <row r="212" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P212" s="31"/>
       <c r="Q212" t="s">
         <v>251</v>
       </c>
@@ -7138,26 +7152,26 @@
       <c r="S212" t="s">
         <v>356</v>
       </c>
-      <c r="U212" s="31"/>
-      <c r="V212" t="s">
+      <c r="U212" s="30"/>
+      <c r="V212" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="W212" t="s">
+      <c r="W212" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X212" t="s">
+      <c r="X212" s="35" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="213" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P213" s="27"/>
+    <row r="213" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P213" s="31"/>
       <c r="Q213" t="s">
         <v>272</v>
       </c>
       <c r="R213" t="s">
         <v>238</v>
       </c>
-      <c r="U213" s="31"/>
+      <c r="U213" s="30"/>
       <c r="V213" t="s">
         <v>266</v>
       </c>
@@ -7168,8 +7182,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="214" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P214" s="27"/>
+    <row r="214" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P214" s="31"/>
       <c r="Q214" t="s">
         <v>493</v>
       </c>
@@ -7179,63 +7193,63 @@
       <c r="S214" t="s">
         <v>494</v>
       </c>
-      <c r="U214" s="31"/>
-      <c r="V214" t="s">
+      <c r="U214" s="30"/>
+      <c r="V214" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="W214" t="s">
+      <c r="W214" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X214" t="s">
+      <c r="X214" s="35" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="215" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P215" s="27"/>
-      <c r="Q215" t="s">
+    <row r="215" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P215" s="31"/>
+      <c r="Q215" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="R215" t="s">
+      <c r="R215" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="S215" t="s">
+      <c r="S215" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="U215" s="31"/>
-      <c r="V215" t="s">
+      <c r="U215" s="30"/>
+      <c r="V215" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="W215" t="s">
+      <c r="W215" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X215" t="s">
+      <c r="X215" s="35" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="216" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P216" s="27"/>
-      <c r="Q216" t="s">
+    <row r="216" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P216" s="31"/>
+      <c r="Q216" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="R216" t="s">
+      <c r="R216" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="S216" t="s">
+      <c r="S216" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="U216" s="31"/>
-      <c r="V216" t="s">
+      <c r="U216" s="30"/>
+      <c r="V216" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="W216" t="s">
+      <c r="W216" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X216" t="s">
+      <c r="X216" s="35" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="217" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P217" s="27"/>
+    <row r="217" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P217" s="31"/>
       <c r="Q217" t="s">
         <v>274</v>
       </c>
@@ -7245,7 +7259,7 @@
       <c r="S217" t="s">
         <v>360</v>
       </c>
-      <c r="U217" s="31"/>
+      <c r="U217" s="30"/>
       <c r="V217" t="s">
         <v>279</v>
       </c>
@@ -7256,8 +7270,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="218" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P218" s="27"/>
+    <row r="218" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P218" s="31"/>
       <c r="Q218" t="s">
         <v>23</v>
       </c>
@@ -7267,7 +7281,7 @@
       <c r="S218" t="s">
         <v>345</v>
       </c>
-      <c r="U218" s="31"/>
+      <c r="U218" s="30"/>
       <c r="V218" t="s">
         <v>280</v>
       </c>
@@ -7278,7 +7292,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="219" spans="16:24" x14ac:dyDescent="0.4">
+    <row r="219" spans="16:24" x14ac:dyDescent="0.45">
       <c r="P219" s="20" t="s">
         <v>457</v>
       </c>
@@ -7291,7 +7305,7 @@
       <c r="S219" t="s">
         <v>461</v>
       </c>
-      <c r="U219" s="31"/>
+      <c r="U219" s="30"/>
       <c r="V219" t="s">
         <v>281</v>
       </c>
@@ -7302,8 +7316,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="220" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P220" s="30" t="s">
+    <row r="220" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P220" s="26" t="s">
         <v>168</v>
       </c>
       <c r="Q220" t="s">
@@ -7315,7 +7329,7 @@
       <c r="S220" t="s">
         <v>314</v>
       </c>
-      <c r="U220" s="31"/>
+      <c r="U220" s="30"/>
       <c r="V220" t="s">
         <v>282</v>
       </c>
@@ -7326,8 +7340,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="221" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P221" s="30"/>
+    <row r="221" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P221" s="26"/>
       <c r="Q221" t="s">
         <v>211</v>
       </c>
@@ -7337,7 +7351,7 @@
       <c r="S221" t="s">
         <v>315</v>
       </c>
-      <c r="U221" s="31"/>
+      <c r="U221" s="30"/>
       <c r="V221" t="s">
         <v>283</v>
       </c>
@@ -7348,7 +7362,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="222" spans="16:24" x14ac:dyDescent="0.4">
+    <row r="222" spans="16:24" x14ac:dyDescent="0.45">
       <c r="P222" s="7" t="s">
         <v>191</v>
       </c>
@@ -7361,7 +7375,7 @@
       <c r="S222" t="s">
         <v>311</v>
       </c>
-      <c r="U222" s="31"/>
+      <c r="U222" s="30"/>
       <c r="V222" t="s">
         <v>284</v>
       </c>
@@ -7372,8 +7386,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="223" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P223" s="31" t="s">
+    <row r="223" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P223" s="30" t="s">
         <v>192</v>
       </c>
       <c r="Q223" t="s">
@@ -7385,7 +7399,7 @@
       <c r="S223" t="s">
         <v>316</v>
       </c>
-      <c r="U223" s="31"/>
+      <c r="U223" s="30"/>
       <c r="V223" t="s">
         <v>278</v>
       </c>
@@ -7396,18 +7410,18 @@
         <v>401</v>
       </c>
     </row>
-    <row r="224" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P224" s="31"/>
-      <c r="Q224" t="s">
+    <row r="224" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P224" s="30"/>
+      <c r="Q224" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="R224" t="s">
+      <c r="R224" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S224" t="s">
+      <c r="S224" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="U224" s="31"/>
+      <c r="U224" s="30"/>
       <c r="V224" t="s">
         <v>455</v>
       </c>
@@ -7418,15 +7432,15 @@
         <v>456</v>
       </c>
     </row>
-    <row r="225" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P225" s="31"/>
-      <c r="Q225" t="s">
+    <row r="225" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P225" s="30"/>
+      <c r="Q225" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="R225" t="s">
+      <c r="R225" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="S225" t="s">
+      <c r="S225" s="35" t="s">
         <v>318</v>
       </c>
       <c r="U225" s="19"/>
@@ -7434,8 +7448,8 @@
       <c r="W225" s="19"/>
       <c r="X225" s="19"/>
     </row>
-    <row r="226" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P226" s="31"/>
+    <row r="226" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P226" s="30"/>
       <c r="Q226" t="s">
         <v>213</v>
       </c>
@@ -7445,25 +7459,25 @@
       <c r="S226" t="s">
         <v>319</v>
       </c>
-      <c r="U226" s="29" t="s">
+      <c r="U226" s="28" t="s">
         <v>476</v>
       </c>
-      <c r="V226" s="29"/>
-      <c r="W226" s="29"/>
-      <c r="X226" s="29"/>
-    </row>
-    <row r="227" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P227" s="31"/>
-      <c r="Q227" t="s">
+      <c r="V226" s="28"/>
+      <c r="W226" s="28"/>
+      <c r="X226" s="28"/>
+    </row>
+    <row r="227" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P227" s="30"/>
+      <c r="Q227" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="R227" t="s">
+      <c r="R227" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="S227" t="s">
+      <c r="S227" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="U227" s="27" t="s">
+      <c r="U227" s="31" t="s">
         <v>172</v>
       </c>
       <c r="V227" t="s">
@@ -7476,18 +7490,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="228" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P228" s="31"/>
-      <c r="Q228" t="s">
+    <row r="228" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P228" s="30"/>
+      <c r="Q228" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="R228" t="s">
+      <c r="R228" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="S228" t="s">
+      <c r="S228" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="U228" s="27"/>
+      <c r="U228" s="31"/>
       <c r="V228" t="s">
         <v>47</v>
       </c>
@@ -7498,8 +7512,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="229" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P229" s="31"/>
+    <row r="229" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P229" s="30"/>
       <c r="Q229" t="s">
         <v>216</v>
       </c>
@@ -7509,7 +7523,7 @@
       <c r="S229" t="s">
         <v>323</v>
       </c>
-      <c r="U229" s="27"/>
+      <c r="U229" s="31"/>
       <c r="V229" s="3" t="s">
         <v>444</v>
       </c>
@@ -7520,18 +7534,18 @@
         <v>375</v>
       </c>
     </row>
-    <row r="230" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P230" s="31"/>
-      <c r="Q230" t="s">
+    <row r="230" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P230" s="30"/>
+      <c r="Q230" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="R230" t="s">
+      <c r="R230" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S230" t="s">
+      <c r="S230" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="U230" s="27"/>
+      <c r="U230" s="31"/>
       <c r="V230" t="s">
         <v>445</v>
       </c>
@@ -7542,18 +7556,18 @@
         <v>376</v>
       </c>
     </row>
-    <row r="231" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P231" s="31"/>
-      <c r="Q231" t="s">
+    <row r="231" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P231" s="30"/>
+      <c r="Q231" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="R231" t="s">
+      <c r="R231" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S231" t="s">
+      <c r="S231" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="U231" s="27"/>
+      <c r="U231" s="31"/>
       <c r="V231" t="s">
         <v>205</v>
       </c>
@@ -7564,8 +7578,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="232" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P232" s="31"/>
+    <row r="232" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P232" s="30"/>
       <c r="Q232" t="s">
         <v>230</v>
       </c>
@@ -7575,7 +7589,7 @@
       <c r="S232" t="s">
         <v>334</v>
       </c>
-      <c r="U232" s="27"/>
+      <c r="U232" s="31"/>
       <c r="V232" t="s">
         <v>207</v>
       </c>
@@ -7586,62 +7600,62 @@
         <v>304</v>
       </c>
     </row>
-    <row r="233" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P233" s="31"/>
-      <c r="Q233" t="s">
+    <row r="233" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P233" s="30"/>
+      <c r="Q233" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="R233" t="s">
+      <c r="R233" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="S233" t="s">
+      <c r="S233" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="U233" s="27"/>
-      <c r="V233" t="s">
+      <c r="U233" s="31"/>
+      <c r="V233" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="W233" t="s">
+      <c r="W233" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X233" t="s">
+      <c r="X233" s="35" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="234" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P234" s="31"/>
-      <c r="Q234" t="s">
+    <row r="234" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P234" s="30"/>
+      <c r="Q234" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="R234" t="s">
+      <c r="R234" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="S234" t="s">
+      <c r="S234" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="U234" s="27"/>
-      <c r="V234" t="s">
+      <c r="U234" s="31"/>
+      <c r="V234" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="W234" t="s">
+      <c r="W234" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="X234" t="s">
+      <c r="X234" s="35" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="235" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P235" s="31"/>
-      <c r="Q235" t="s">
+    <row r="235" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P235" s="30"/>
+      <c r="Q235" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="R235" t="s">
+      <c r="R235" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="S235" t="s">
+      <c r="S235" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="U235" s="27"/>
+      <c r="U235" s="31"/>
       <c r="V235" t="s">
         <v>206</v>
       </c>
@@ -7652,8 +7666,8 @@
         <v>479</v>
       </c>
     </row>
-    <row r="236" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P236" s="31"/>
+    <row r="236" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P236" s="30"/>
       <c r="Q236" t="s">
         <v>233</v>
       </c>
@@ -7663,7 +7677,7 @@
       <c r="S236" t="s">
         <v>338</v>
       </c>
-      <c r="U236" s="27"/>
+      <c r="U236" s="31"/>
       <c r="V236" t="s">
         <v>199</v>
       </c>
@@ -7674,18 +7688,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="237" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P237" s="31"/>
-      <c r="Q237" t="s">
+    <row r="237" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P237" s="30"/>
+      <c r="Q237" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="R237" t="s">
+      <c r="R237" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S237" t="s">
+      <c r="S237" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="U237" s="27"/>
+      <c r="U237" s="31"/>
       <c r="V237" t="s">
         <v>220</v>
       </c>
@@ -7696,18 +7710,18 @@
         <v>434</v>
       </c>
     </row>
-    <row r="238" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P238" s="31"/>
-      <c r="Q238" t="s">
+    <row r="238" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P238" s="30"/>
+      <c r="Q238" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="R238" t="s">
+      <c r="R238" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S238" t="s">
+      <c r="S238" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="U238" s="27"/>
+      <c r="U238" s="31"/>
       <c r="V238" t="s">
         <v>432</v>
       </c>
@@ -7715,18 +7729,18 @@
         <v>253</v>
       </c>
     </row>
-    <row r="239" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P239" s="31"/>
-      <c r="Q239" t="s">
+    <row r="239" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P239" s="30"/>
+      <c r="Q239" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="R239" t="s">
+      <c r="R239" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="S239" t="s">
+      <c r="S239" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="U239" s="30" t="s">
+      <c r="U239" s="26" t="s">
         <v>168</v>
       </c>
       <c r="V239" t="s">
@@ -7739,8 +7753,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="240" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P240" s="31"/>
+    <row r="240" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P240" s="30"/>
       <c r="Q240" t="s">
         <v>22</v>
       </c>
@@ -7750,7 +7764,7 @@
       <c r="S240" t="s">
         <v>343</v>
       </c>
-      <c r="U240" s="30"/>
+      <c r="U240" s="26"/>
       <c r="V240" t="s">
         <v>429</v>
       </c>
@@ -7761,8 +7775,8 @@
         <v>430</v>
       </c>
     </row>
-    <row r="241" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P241" s="31"/>
+    <row r="241" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P241" s="30"/>
       <c r="Q241" t="s">
         <v>21</v>
       </c>
@@ -7785,18 +7799,18 @@
         <v>311</v>
       </c>
     </row>
-    <row r="242" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="P242" s="31"/>
-      <c r="Q242" t="s">
+    <row r="242" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P242" s="30"/>
+      <c r="Q242" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="R242" t="s">
+      <c r="R242" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="S242" t="s">
+      <c r="S242" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="U242" s="31" t="s">
+      <c r="U242" s="30" t="s">
         <v>192</v>
       </c>
       <c r="V242" t="s">
@@ -7809,44 +7823,44 @@
         <v>378</v>
       </c>
     </row>
-    <row r="243" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="U243" s="31"/>
-      <c r="V243" t="s">
+    <row r="243" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U243" s="30"/>
+      <c r="V243" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="W243" t="s">
+      <c r="W243" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X243" t="s">
+      <c r="X243" s="35" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="244" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="U244" s="31"/>
-      <c r="V244" t="s">
+    <row r="244" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U244" s="30"/>
+      <c r="V244" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="W244" t="s">
+      <c r="W244" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X244" t="s">
+      <c r="X244" s="35" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="245" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="U245" s="31"/>
-      <c r="V245" t="s">
+    <row r="245" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U245" s="30"/>
+      <c r="V245" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="W245" t="s">
+      <c r="W245" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X245" t="s">
+      <c r="X245" s="35" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="246" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="U246" s="31"/>
+    <row r="246" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U246" s="30"/>
       <c r="V246" t="s">
         <v>258</v>
       </c>
@@ -7857,44 +7871,44 @@
         <v>382</v>
       </c>
     </row>
-    <row r="247" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="U247" s="31"/>
-      <c r="V247" t="s">
+    <row r="247" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U247" s="30"/>
+      <c r="V247" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="W247" t="s">
+      <c r="W247" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X247" t="s">
+      <c r="X247" s="35" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="248" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="U248" s="31"/>
-      <c r="V248" t="s">
+    <row r="248" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U248" s="30"/>
+      <c r="V248" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="W248" t="s">
+      <c r="W248" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X248" t="s">
+      <c r="X248" s="35" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="249" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="U249" s="31"/>
-      <c r="V249" t="s">
+    <row r="249" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U249" s="30"/>
+      <c r="V249" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="W249" t="s">
+      <c r="W249" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X249" t="s">
+      <c r="X249" s="35" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="250" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="U250" s="31"/>
+    <row r="250" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U250" s="30"/>
       <c r="V250" t="s">
         <v>262</v>
       </c>
@@ -7905,44 +7919,44 @@
         <v>387</v>
       </c>
     </row>
-    <row r="251" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="U251" s="31"/>
-      <c r="V251" t="s">
+    <row r="251" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U251" s="30"/>
+      <c r="V251" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="W251" t="s">
+      <c r="W251" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X251" t="s">
+      <c r="X251" s="35" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="252" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="U252" s="31"/>
-      <c r="V252" t="s">
+    <row r="252" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U252" s="30"/>
+      <c r="V252" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="W252" t="s">
+      <c r="W252" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X252" t="s">
+      <c r="X252" s="35" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="253" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="U253" s="31"/>
-      <c r="V253" t="s">
+    <row r="253" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U253" s="30"/>
+      <c r="V253" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="W253" t="s">
+      <c r="W253" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="X253" t="s">
+      <c r="X253" s="35" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="254" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="U254" s="31"/>
+    <row r="254" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U254" s="30"/>
       <c r="V254" t="s">
         <v>266</v>
       </c>
@@ -7953,44 +7967,44 @@
         <v>391</v>
       </c>
     </row>
-    <row r="255" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="U255" s="31"/>
-      <c r="V255" t="s">
+    <row r="255" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U255" s="30"/>
+      <c r="V255" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="W255" t="s">
+      <c r="W255" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X255" t="s">
+      <c r="X255" s="35" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="256" spans="16:24" x14ac:dyDescent="0.4">
-      <c r="U256" s="31"/>
-      <c r="V256" t="s">
+    <row r="256" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U256" s="30"/>
+      <c r="V256" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="W256" t="s">
+      <c r="W256" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X256" t="s">
+      <c r="X256" s="35" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="257" spans="21:24" x14ac:dyDescent="0.4">
-      <c r="U257" s="31"/>
-      <c r="V257" t="s">
+    <row r="257" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U257" s="30"/>
+      <c r="V257" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="W257" t="s">
+      <c r="W257" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="X257" t="s">
+      <c r="X257" s="35" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="258" spans="21:24" x14ac:dyDescent="0.4">
-      <c r="U258" s="31"/>
+    <row r="258" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U258" s="30"/>
       <c r="V258" t="s">
         <v>279</v>
       </c>
@@ -8001,8 +8015,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="259" spans="21:24" x14ac:dyDescent="0.4">
-      <c r="U259" s="31"/>
+    <row r="259" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U259" s="30"/>
       <c r="V259" t="s">
         <v>280</v>
       </c>
@@ -8013,8 +8027,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="260" spans="21:24" x14ac:dyDescent="0.4">
-      <c r="U260" s="31"/>
+    <row r="260" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U260" s="30"/>
       <c r="V260" t="s">
         <v>281</v>
       </c>
@@ -8025,8 +8039,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="261" spans="21:24" x14ac:dyDescent="0.4">
-      <c r="U261" s="31"/>
+    <row r="261" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U261" s="30"/>
       <c r="V261" t="s">
         <v>282</v>
       </c>
@@ -8037,8 +8051,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="262" spans="21:24" x14ac:dyDescent="0.4">
-      <c r="U262" s="31"/>
+    <row r="262" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U262" s="30"/>
       <c r="V262" t="s">
         <v>283</v>
       </c>
@@ -8049,8 +8063,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="263" spans="21:24" x14ac:dyDescent="0.4">
-      <c r="U263" s="31"/>
+    <row r="263" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U263" s="30"/>
       <c r="V263" t="s">
         <v>284</v>
       </c>
@@ -8061,8 +8075,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="264" spans="21:24" x14ac:dyDescent="0.4">
-      <c r="U264" s="31"/>
+    <row r="264" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U264" s="30"/>
       <c r="V264" t="s">
         <v>278</v>
       </c>
@@ -8073,8 +8087,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="265" spans="21:24" x14ac:dyDescent="0.4">
-      <c r="U265" s="31"/>
+    <row r="265" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U265" s="30"/>
       <c r="V265" t="s">
         <v>455</v>
       </c>
@@ -8090,47 +8104,12 @@
     <sortCondition ref="V230:V232"/>
   </sortState>
   <mergeCells count="63">
-    <mergeCell ref="P220:P221"/>
-    <mergeCell ref="P176:P177"/>
-    <mergeCell ref="P178:P179"/>
-    <mergeCell ref="P156:S156"/>
-    <mergeCell ref="P201:S201"/>
-    <mergeCell ref="P180:P199"/>
-    <mergeCell ref="U242:U265"/>
-    <mergeCell ref="U201:U224"/>
-    <mergeCell ref="U227:U238"/>
-    <mergeCell ref="U239:U240"/>
-    <mergeCell ref="U198:U199"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K3:K8"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P13:P21"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="P3:P9"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:F11"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="P202:P218"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U82:X82"/>
-    <mergeCell ref="U55:U80"/>
-    <mergeCell ref="U52:U54"/>
-    <mergeCell ref="U39:U50"/>
-    <mergeCell ref="P45:P65"/>
-    <mergeCell ref="P68:P86"/>
-    <mergeCell ref="P67:S67"/>
-    <mergeCell ref="P114:P131"/>
-    <mergeCell ref="P136:P154"/>
-    <mergeCell ref="P92:P111"/>
+    <mergeCell ref="U106:U108"/>
+    <mergeCell ref="U83:U104"/>
+    <mergeCell ref="U185:X185"/>
+    <mergeCell ref="U136:X136"/>
+    <mergeCell ref="U137:U154"/>
+    <mergeCell ref="U157:U159"/>
     <mergeCell ref="U186:U197"/>
     <mergeCell ref="P41:P43"/>
     <mergeCell ref="U226:X226"/>
@@ -8147,12 +8126,47 @@
     <mergeCell ref="U155:U156"/>
     <mergeCell ref="P223:P242"/>
     <mergeCell ref="U109:U134"/>
-    <mergeCell ref="U106:U108"/>
-    <mergeCell ref="U83:U104"/>
-    <mergeCell ref="U185:X185"/>
-    <mergeCell ref="U136:X136"/>
-    <mergeCell ref="U137:U154"/>
-    <mergeCell ref="U157:U159"/>
+    <mergeCell ref="P45:P65"/>
+    <mergeCell ref="P68:P86"/>
+    <mergeCell ref="P67:S67"/>
+    <mergeCell ref="P114:P131"/>
+    <mergeCell ref="P136:P154"/>
+    <mergeCell ref="P92:P111"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U82:X82"/>
+    <mergeCell ref="U55:U80"/>
+    <mergeCell ref="U52:U54"/>
+    <mergeCell ref="U39:U50"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:F11"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P13:P21"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P3:P9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="U242:U265"/>
+    <mergeCell ref="U201:U224"/>
+    <mergeCell ref="U227:U238"/>
+    <mergeCell ref="U239:U240"/>
+    <mergeCell ref="U198:U199"/>
+    <mergeCell ref="P220:P221"/>
+    <mergeCell ref="P176:P177"/>
+    <mergeCell ref="P178:P179"/>
+    <mergeCell ref="P156:S156"/>
+    <mergeCell ref="P201:S201"/>
+    <mergeCell ref="P180:P199"/>
+    <mergeCell ref="P202:P218"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8167,18 +8181,18 @@
       <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>441</v>
       </c>
@@ -8189,7 +8203,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8200,7 +8214,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -8212,7 +8226,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <f t="shared" ref="A5:A56" si="0">A4+1</f>
         <v>3</v>
@@ -8224,7 +8238,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8236,7 +8250,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8248,7 +8262,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8260,7 +8274,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8272,7 +8286,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8284,7 +8298,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8296,7 +8310,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8308,7 +8322,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8320,7 +8334,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8332,7 +8346,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <f>A14+1</f>
         <v>13</v>
@@ -8344,7 +8358,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <f>A15+1</f>
         <v>14</v>
@@ -8356,7 +8370,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <f>A16+1</f>
         <v>15</v>
@@ -8368,7 +8382,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <f>A17+1</f>
         <v>16</v>
@@ -8380,7 +8394,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <f>A18+1</f>
         <v>17</v>
@@ -8392,7 +8406,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8404,7 +8418,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8416,7 +8430,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8428,7 +8442,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8440,7 +8454,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8452,7 +8466,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8464,7 +8478,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <f>A25+1</f>
         <v>24</v>
@@ -8476,7 +8490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <f t="shared" ref="A27:A53" si="1">A26+1</f>
         <v>25</v>
@@ -8488,7 +8502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -8500,7 +8514,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -8512,7 +8526,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -8524,7 +8538,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -8536,7 +8550,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -8548,7 +8562,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -8560,7 +8574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -8572,7 +8586,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -8584,7 +8598,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <f>A35+1</f>
         <v>34</v>
@@ -8596,7 +8610,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <f>A36+1</f>
         <v>35</v>
@@ -8608,7 +8622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -8620,7 +8634,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -8632,7 +8646,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -8644,7 +8658,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -8656,7 +8670,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -8668,7 +8682,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -8680,7 +8694,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -8692,7 +8706,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -8704,7 +8718,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -8716,7 +8730,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -8728,7 +8742,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -8740,7 +8754,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <f>A48+1</f>
         <v>47</v>
@@ -8752,7 +8766,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <f>A49+1</f>
         <v>48</v>
@@ -8764,7 +8778,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -8776,7 +8790,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -8788,7 +8802,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -8800,7 +8814,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -8812,7 +8826,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -8824,7 +8838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -8836,7 +8850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <f>A56+1</f>
         <v>55</v>
@@ -8848,7 +8862,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <f t="shared" ref="A58:A131" si="2">A57+1</f>
         <v>56</v>
@@ -8860,7 +8874,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -8872,7 +8886,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -8884,7 +8898,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -8896,7 +8910,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -8908,7 +8922,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -8920,7 +8934,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -8932,7 +8946,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -8944,7 +8958,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -8956,7 +8970,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -8968,7 +8982,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -8980,7 +8994,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -8992,7 +9006,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -9004,7 +9018,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -9016,7 +9030,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -9028,7 +9042,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -9040,7 +9054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -9052,7 +9066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -9064,7 +9078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -9076,7 +9090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -9088,7 +9102,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -9100,7 +9114,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -9112,7 +9126,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -9124,7 +9138,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -9136,7 +9150,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -9148,7 +9162,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -9160,7 +9174,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -9172,7 +9186,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -9184,7 +9198,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -9196,7 +9210,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -9208,7 +9222,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -9220,7 +9234,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -9232,7 +9246,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -9244,7 +9258,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -9256,7 +9270,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <f>A91+1</f>
         <v>90</v>
@@ -9268,7 +9282,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <f t="shared" ref="A93:A99" si="3">A92+1</f>
         <v>91</v>
@@ -9280,7 +9294,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -9292,7 +9306,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -9304,7 +9318,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -9316,7 +9330,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -9328,7 +9342,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -9340,7 +9354,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -9352,7 +9366,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <f>A99+1</f>
         <v>98</v>
@@ -9364,7 +9378,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -9376,7 +9390,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -9388,7 +9402,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -9400,7 +9414,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -9412,7 +9426,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -9424,7 +9438,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -9436,7 +9450,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -9448,7 +9462,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108">
         <f>A107+1</f>
         <v>106</v>
@@ -9460,7 +9474,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109">
         <f>A108+1</f>
         <v>107</v>
@@ -9472,7 +9486,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110">
         <f>A109+1</f>
         <v>108</v>
@@ -9484,7 +9498,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111">
         <f>A110+1</f>
         <v>109</v>
@@ -9496,7 +9510,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112">
         <f>A111+1</f>
         <v>110</v>
@@ -9508,7 +9522,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -9520,7 +9534,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -9532,7 +9546,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -9544,7 +9558,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -9556,7 +9570,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -9568,7 +9582,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -9580,7 +9594,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -9592,7 +9606,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -9604,7 +9618,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -9616,7 +9630,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -9628,7 +9642,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -9640,7 +9654,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -9652,7 +9666,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -9664,7 +9678,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -9676,7 +9690,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -9688,7 +9702,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -9700,7 +9714,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -9712,7 +9726,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -9724,7 +9738,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -9736,7 +9750,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132">
         <f t="shared" ref="A132:A162" si="4">A131+1</f>
         <v>130</v>
@@ -9748,7 +9762,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133">
         <f t="shared" si="4"/>
         <v>131</v>
@@ -9760,7 +9774,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134">
         <f t="shared" si="4"/>
         <v>132</v>
@@ -9772,7 +9786,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135">
         <f t="shared" si="4"/>
         <v>133</v>
@@ -9784,7 +9798,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136">
         <f t="shared" si="4"/>
         <v>134</v>
@@ -9796,7 +9810,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137">
         <f t="shared" si="4"/>
         <v>135</v>
@@ -9808,7 +9822,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138">
         <f t="shared" si="4"/>
         <v>136</v>
@@ -9820,7 +9834,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139">
         <f t="shared" si="4"/>
         <v>137</v>
@@ -9832,7 +9846,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -9844,7 +9858,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141">
         <f t="shared" si="4"/>
         <v>139</v>
@@ -9856,7 +9870,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142">
         <f t="shared" si="4"/>
         <v>140</v>
@@ -9868,7 +9882,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143">
         <f t="shared" si="4"/>
         <v>141</v>
@@ -9880,7 +9894,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144">
         <f t="shared" si="4"/>
         <v>142</v>
@@ -9892,7 +9906,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145">
         <f t="shared" si="4"/>
         <v>143</v>
@@ -9904,7 +9918,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146">
         <f t="shared" si="4"/>
         <v>144</v>
@@ -9916,7 +9930,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147">
         <f t="shared" si="4"/>
         <v>145</v>
@@ -9928,7 +9942,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148">
         <f t="shared" si="4"/>
         <v>146</v>
@@ -9940,7 +9954,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149">
         <f t="shared" si="4"/>
         <v>147</v>
@@ -9952,7 +9966,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150">
         <f t="shared" si="4"/>
         <v>148</v>
@@ -9964,7 +9978,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151">
         <f t="shared" si="4"/>
         <v>149</v>
@@ -9976,7 +9990,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152">
         <f t="shared" si="4"/>
         <v>150</v>
@@ -9988,7 +10002,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153">
         <f>A152+1</f>
         <v>151</v>
@@ -10000,7 +10014,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154">
         <f t="shared" si="4"/>
         <v>152</v>
@@ -10012,7 +10026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155">
         <f t="shared" si="4"/>
         <v>153</v>
@@ -10024,7 +10038,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156">
         <f t="shared" si="4"/>
         <v>154</v>
@@ -10036,7 +10050,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157">
         <f t="shared" si="4"/>
         <v>155</v>
@@ -10048,7 +10062,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158">
         <f t="shared" si="4"/>
         <v>156</v>
@@ -10060,7 +10074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159">
         <f t="shared" si="4"/>
         <v>157</v>
@@ -10072,7 +10086,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160">
         <f t="shared" si="4"/>
         <v>158</v>
@@ -10084,7 +10098,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161">
         <f t="shared" si="4"/>
         <v>159</v>
@@ -10096,7 +10110,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162">
         <f t="shared" si="4"/>
         <v>160</v>
@@ -10126,63 +10140,63 @@
       <selection pane="topRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="4.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.53515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="16.15234375" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="8.3828125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.3046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="7.53515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="8.3828125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.3046875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.69140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="16" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.84375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.15234375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.3828125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="8" bestFit="1" customWidth="1"/>
     <col min="43" max="46" width="13" bestFit="1" customWidth="1"/>
-    <col min="47" max="50" width="13.15234375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18.15234375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.3828125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18.53515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="17.15234375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.3828125" bestFit="1" customWidth="1"/>
+    <col min="47" max="50" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="16" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.53515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.3046875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.53125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="15" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.3828125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.3828125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="19.15234375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="17" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="15.3828125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="15.53515625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.84375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.15234375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.53125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
         <v>167</v>
       </c>
@@ -10220,7 +10234,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>148</v>
       </c>
@@ -10261,10 +10275,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>167</v>
       </c>
@@ -10293,7 +10307,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -10325,7 +10339,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
         <v>167</v>
@@ -10343,7 +10357,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -10363,10 +10377,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
       <c r="B10" s="5" t="s">
         <v>167</v>
@@ -10390,7 +10404,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -10416,7 +10430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
       <c r="B12" s="5" t="s">
         <v>167</v>
@@ -10443,7 +10457,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -10472,10 +10486,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="6"/>
       <c r="B15" s="5" t="s">
         <v>167</v>
@@ -10553,7 +10567,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -10634,7 +10648,7 @@
       </c>
       <c r="AI16" s="3"/>
     </row>
-    <row r="17" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
       <c r="B17" s="5" t="s">
         <v>167</v>
@@ -10772,7 +10786,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -10912,7 +10926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="6"/>
       <c r="B19" s="5" t="s">
         <v>167</v>
@@ -11065,7 +11079,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -11220,7 +11234,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6"/>
       <c r="B21" s="5" t="s">
         <v>167</v>
@@ -11346,7 +11360,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -11474,7 +11488,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="6"/>
       <c r="B23" s="5" t="s">
         <v>167</v>
@@ -11627,7 +11641,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>140</v>
       </c>
@@ -11788,7 +11802,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="6"/>
       <c r="B25" s="5" t="s">
         <v>167</v>
@@ -11926,7 +11940,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>141</v>
       </c>
@@ -12066,13 +12080,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
     </row>
-    <row r="28" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="6"/>
       <c r="B28" s="5" t="s">
         <v>167</v>
@@ -12183,7 +12197,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -12296,7 +12310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="6"/>
       <c r="B30" s="5" t="s">
         <v>167</v>
@@ -12440,7 +12454,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -12586,7 +12600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="6"/>
       <c r="B32" s="5" t="s">
         <v>167</v>
@@ -12691,7 +12705,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -12798,7 +12812,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6"/>
       <c r="B34" s="5" t="s">
         <v>167</v>
@@ -12939,7 +12953,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -13082,7 +13096,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="6"/>
       <c r="B36" s="5" t="s">
         <v>167</v>
@@ -13199,7 +13213,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
@@ -13318,7 +13332,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="6"/>
       <c r="B38" s="5" t="s">
         <v>167</v>
@@ -13438,7 +13452,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>121</v>
       </c>
@@ -13560,19 +13574,19 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:67" x14ac:dyDescent="0.45">
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:67" x14ac:dyDescent="0.45">
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:67" x14ac:dyDescent="0.45">
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:67" x14ac:dyDescent="0.45">
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:67" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:67" x14ac:dyDescent="0.45">
       <c r="E45" s="3"/>
     </row>
   </sheetData>

--- a/support_docs/OpenDSS components and attributes.xlsx
+++ b/support_docs/OpenDSS components and attributes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sk8er\Documents\git\RISE-power-water-ss-1phase\support_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brandon.t.gorman\Documents\git\RISE-power-water-ss-1phase\support_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3049" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="521">
   <si>
     <t>REGCONTROL</t>
   </si>
@@ -1760,22 +1760,23 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1787,7 +1788,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2111,91 +2111,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O227" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W239" sqref="W239"/>
+    <sheetView tabSelected="1" topLeftCell="K7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.53125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="44.53125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="F1" s="33" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="F1" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="K1" s="32" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="K1" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="P1" s="32" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="P1" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="U1" s="32" t="s">
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="U1" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A2" s="34" t="s">
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="F2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="F2" s="30" t="s">
         <v>477</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="K2" s="28" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="K2" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="P2" s="28" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="P2" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
       <c r="U2" s="29" t="s">
         <v>471</v>
       </c>
@@ -2203,7 +2203,7 @@
       <c r="W2" s="29"/>
       <c r="X2" s="29"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>436</v>
       </c>
@@ -2216,7 +2216,7 @@
       <c r="D3" t="s">
         <v>181</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="28" t="s">
         <v>172</v>
       </c>
       <c r="G3" t="s">
@@ -2228,7 +2228,7 @@
       <c r="I3" t="s">
         <v>181</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="28" t="s">
         <v>172</v>
       </c>
       <c r="L3" t="s">
@@ -2240,7 +2240,7 @@
       <c r="N3" t="s">
         <v>181</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="P3" s="28" t="s">
         <v>172</v>
       </c>
       <c r="Q3" t="s">
@@ -2252,7 +2252,7 @@
       <c r="S3" t="s">
         <v>181</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="28" t="s">
         <v>172</v>
       </c>
       <c r="V3" t="s">
@@ -2265,7 +2265,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>436</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="D4" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="28"/>
       <c r="G4" t="s">
         <v>47</v>
       </c>
@@ -2288,7 +2288,7 @@
       <c r="I4" t="s">
         <v>182</v>
       </c>
-      <c r="K4" s="31"/>
+      <c r="K4" s="28"/>
       <c r="L4" t="s">
         <v>47</v>
       </c>
@@ -2298,7 +2298,7 @@
       <c r="N4" t="s">
         <v>182</v>
       </c>
-      <c r="P4" s="31"/>
+      <c r="P4" s="28"/>
       <c r="Q4" t="s">
         <v>47</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="S4" t="s">
         <v>182</v>
       </c>
-      <c r="U4" s="31"/>
+      <c r="U4" s="28"/>
       <c r="V4" t="s">
         <v>47</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>436</v>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="D5" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="31"/>
+      <c r="F5" s="28"/>
       <c r="G5" t="s">
         <v>196</v>
       </c>
@@ -2342,7 +2342,7 @@
       <c r="I5" t="s">
         <v>296</v>
       </c>
-      <c r="K5" s="31"/>
+      <c r="K5" s="28"/>
       <c r="L5" t="s">
         <v>184</v>
       </c>
@@ -2352,7 +2352,7 @@
       <c r="N5" t="s">
         <v>184</v>
       </c>
-      <c r="P5" s="31"/>
+      <c r="P5" s="28"/>
       <c r="Q5" t="s">
         <v>205</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="S5" t="s">
         <v>310</v>
       </c>
-      <c r="U5" s="31"/>
+      <c r="U5" s="28"/>
       <c r="V5" s="3" t="s">
         <v>444</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>436</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="D6" t="s">
         <v>173</v>
       </c>
-      <c r="F6" s="31"/>
+      <c r="F6" s="28"/>
       <c r="G6" t="s">
         <v>175</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="I6" t="s">
         <v>193</v>
       </c>
-      <c r="K6" s="31"/>
+      <c r="K6" s="28"/>
       <c r="L6" t="s">
         <v>435</v>
       </c>
@@ -2406,7 +2406,7 @@
       <c r="N6" t="s">
         <v>183</v>
       </c>
-      <c r="P6" s="31"/>
+      <c r="P6" s="28"/>
       <c r="Q6" t="s">
         <v>206</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="S6" t="s">
         <v>309</v>
       </c>
-      <c r="U6" s="31"/>
+      <c r="U6" s="28"/>
       <c r="V6" t="s">
         <v>445</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>436</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="D7" t="s">
         <v>173</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="28"/>
       <c r="G7" t="s">
         <v>198</v>
       </c>
@@ -2450,7 +2450,7 @@
       <c r="I7" t="s">
         <v>300</v>
       </c>
-      <c r="K7" s="31"/>
+      <c r="K7" s="28"/>
       <c r="L7" t="s">
         <v>199</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="N7" t="s">
         <v>188</v>
       </c>
-      <c r="P7" s="31"/>
+      <c r="P7" s="28"/>
       <c r="Q7" t="s">
         <v>207</v>
       </c>
@@ -2470,7 +2470,7 @@
       <c r="S7" t="s">
         <v>304</v>
       </c>
-      <c r="U7" s="31"/>
+      <c r="U7" s="28"/>
       <c r="V7" t="s">
         <v>205</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>436</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="D8" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="28"/>
       <c r="G8" t="s">
         <v>197</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="I8" t="s">
         <v>298</v>
       </c>
-      <c r="K8" s="31"/>
+      <c r="K8" s="28"/>
       <c r="L8" t="s">
         <v>200</v>
       </c>
@@ -2514,17 +2514,17 @@
       <c r="N8" t="s">
         <v>186</v>
       </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="35" t="s">
+      <c r="P8" s="28"/>
+      <c r="Q8" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="R8" s="35" t="s">
+      <c r="R8" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="S8" s="35" t="s">
+      <c r="S8" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="U8" s="31"/>
+      <c r="U8" s="28"/>
       <c r="V8" t="s">
         <v>207</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>436</v>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="D9" t="s">
         <v>173</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="28"/>
       <c r="G9" t="s">
         <v>220</v>
       </c>
@@ -2570,28 +2570,28 @@
       <c r="N9" t="s">
         <v>430</v>
       </c>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="35" t="s">
+      <c r="P9" s="28"/>
+      <c r="Q9" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="R9" s="35" t="s">
+      <c r="R9" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="S9" s="35" t="s">
+      <c r="S9" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="U9" s="31"/>
-      <c r="V9" s="35" t="s">
+      <c r="U9" s="28"/>
+      <c r="V9" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="W9" s="35" t="s">
+      <c r="W9" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X9" s="35" t="s">
+      <c r="X9" s="26" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>436</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="D10" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="28"/>
       <c r="G10" t="s">
         <v>299</v>
       </c>
@@ -2621,7 +2621,7 @@
       <c r="N10" t="s">
         <v>303</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="P10" s="31" t="s">
         <v>190</v>
       </c>
       <c r="Q10" s="3" t="s">
@@ -2633,18 +2633,18 @@
       <c r="S10" t="s">
         <v>314</v>
       </c>
-      <c r="U10" s="31"/>
-      <c r="V10" s="35" t="s">
+      <c r="U10" s="28"/>
+      <c r="V10" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="W10" s="35" t="s">
+      <c r="W10" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X10" s="35" t="s">
+      <c r="X10" s="26" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>436</v>
       </c>
@@ -2657,7 +2657,7 @@
       <c r="D11" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="28"/>
       <c r="G11" t="s">
         <v>221</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="I11" t="s">
         <v>178</v>
       </c>
-      <c r="P11" s="26"/>
+      <c r="P11" s="31"/>
       <c r="Q11" s="3" t="s">
         <v>211</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>436</v>
       </c>
@@ -2703,12 +2703,12 @@
       <c r="D12" t="s">
         <v>173</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
       <c r="P12" s="7" t="s">
         <v>191</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>436</v>
       </c>
@@ -2747,13 +2747,13 @@
       <c r="D13" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="K13" s="31" t="s">
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="K13" s="28" t="s">
         <v>172</v>
       </c>
       <c r="L13" t="s">
@@ -2765,7 +2765,7 @@
       <c r="N13" t="s">
         <v>181</v>
       </c>
-      <c r="P13" s="30" t="s">
+      <c r="P13" s="32" t="s">
         <v>192</v>
       </c>
       <c r="Q13" t="s">
@@ -2777,7 +2777,7 @@
       <c r="S13" t="s">
         <v>316</v>
       </c>
-      <c r="U13" s="30" t="s">
+      <c r="U13" s="32" t="s">
         <v>192</v>
       </c>
       <c r="V13" t="s">
@@ -2790,7 +2790,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>436</v>
       </c>
@@ -2803,7 +2803,7 @@
       <c r="D14" t="s">
         <v>173</v>
       </c>
-      <c r="K14" s="31"/>
+      <c r="K14" s="28"/>
       <c r="L14" t="s">
         <v>47</v>
       </c>
@@ -2813,29 +2813,29 @@
       <c r="N14" t="s">
         <v>182</v>
       </c>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="35" t="s">
+      <c r="P14" s="32"/>
+      <c r="Q14" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="R14" s="35" t="s">
+      <c r="R14" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S14" s="35" t="s">
+      <c r="S14" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="U14" s="30"/>
-      <c r="V14" s="35" t="s">
+      <c r="U14" s="32"/>
+      <c r="V14" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="W14" s="35" t="s">
+      <c r="W14" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X14" s="35" t="s">
+      <c r="X14" s="26" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="K15" s="31"/>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K15" s="28"/>
       <c r="L15" t="s">
         <v>29</v>
       </c>
@@ -2845,29 +2845,29 @@
       <c r="N15" t="s">
         <v>489</v>
       </c>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="35" t="s">
+      <c r="P15" s="32"/>
+      <c r="Q15" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="R15" s="35" t="s">
+      <c r="R15" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S15" s="35" t="s">
+      <c r="S15" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="U15" s="30"/>
-      <c r="V15" s="35" t="s">
+      <c r="U15" s="32"/>
+      <c r="V15" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="W15" s="35" t="s">
+      <c r="W15" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X15" s="35" t="s">
+      <c r="X15" s="26" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="K16" s="31"/>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K16" s="28"/>
       <c r="L16" t="s">
         <v>199</v>
       </c>
@@ -2877,7 +2877,7 @@
       <c r="N16" t="s">
         <v>188</v>
       </c>
-      <c r="P16" s="30"/>
+      <c r="P16" s="32"/>
       <c r="Q16" t="s">
         <v>213</v>
       </c>
@@ -2887,39 +2887,33 @@
       <c r="S16" t="s">
         <v>319</v>
       </c>
-      <c r="U16" s="30"/>
-      <c r="V16" s="35" t="s">
+      <c r="U16" s="32"/>
+      <c r="V16" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="W16" s="35" t="s">
+      <c r="W16" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X16" s="35" t="s">
+      <c r="X16" s="26" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="11:24" x14ac:dyDescent="0.45">
-      <c r="K17" s="31"/>
+    <row r="17" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K17" s="28"/>
       <c r="L17" t="s">
-        <v>203</v>
-      </c>
-      <c r="M17" t="s">
-        <v>301</v>
-      </c>
-      <c r="N17" t="s">
-        <v>186</v>
-      </c>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="R17" s="35" t="s">
+      <c r="R17" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="S17" s="35" t="s">
+      <c r="S17" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="U17" s="30"/>
+      <c r="U17" s="32"/>
       <c r="V17" t="s">
         <v>258</v>
       </c>
@@ -2930,10 +2924,10 @@
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="11:24" x14ac:dyDescent="0.45">
-      <c r="K18" s="31"/>
+    <row r="18" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K18" s="28"/>
       <c r="L18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s">
         <v>301</v>
@@ -2941,39 +2935,39 @@
       <c r="N18" t="s">
         <v>186</v>
       </c>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="35" t="s">
+      <c r="P18" s="32"/>
+      <c r="Q18" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="R18" s="35" t="s">
+      <c r="R18" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="S18" s="35" t="s">
+      <c r="S18" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="U18" s="30"/>
-      <c r="V18" s="35" t="s">
+      <c r="U18" s="32"/>
+      <c r="V18" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="W18" s="35" t="s">
+      <c r="W18" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X18" s="35" t="s">
+      <c r="X18" s="26" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="19" spans="11:24" x14ac:dyDescent="0.45">
-      <c r="K19" s="31"/>
+    <row r="19" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K19" s="28"/>
       <c r="L19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s">
         <v>301</v>
       </c>
       <c r="N19" t="s">
-        <v>187</v>
-      </c>
-      <c r="P19" s="30"/>
+        <v>186</v>
+      </c>
+      <c r="P19" s="32"/>
       <c r="Q19" t="s">
         <v>216</v>
       </c>
@@ -2983,21 +2977,21 @@
       <c r="S19" t="s">
         <v>323</v>
       </c>
-      <c r="U19" s="30"/>
-      <c r="V19" s="35" t="s">
+      <c r="U19" s="32"/>
+      <c r="V19" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="W19" s="35" t="s">
+      <c r="W19" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X19" s="35" t="s">
+      <c r="X19" s="26" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="11:24" x14ac:dyDescent="0.45">
-      <c r="K20" s="31"/>
+    <row r="20" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K20" s="28"/>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s">
         <v>301</v>
@@ -3005,51 +2999,49 @@
       <c r="N20" t="s">
         <v>187</v>
       </c>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="35" t="s">
+      <c r="P20" s="32"/>
+      <c r="Q20" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="R20" s="35" t="s">
+      <c r="R20" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S20" s="35" t="s">
+      <c r="S20" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="U20" s="30"/>
-      <c r="V20" s="35" t="s">
+      <c r="U20" s="32"/>
+      <c r="V20" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="W20" s="35" t="s">
+      <c r="W20" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X20" s="35" t="s">
+      <c r="X20" s="26" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="21" spans="11:24" x14ac:dyDescent="0.45">
-      <c r="K21" s="25" t="s">
-        <v>168</v>
-      </c>
+    <row r="21" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K21" s="28"/>
       <c r="L21" t="s">
-        <v>429</v>
+        <v>202</v>
       </c>
       <c r="M21" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="N21" t="s">
-        <v>430</v>
-      </c>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="R21" s="35" t="s">
+      <c r="R21" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S21" s="35" t="s">
+      <c r="S21" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="U21" s="30"/>
+      <c r="U21" s="32"/>
       <c r="V21" t="s">
         <v>262</v>
       </c>
@@ -3060,38 +3052,50 @@
         <v>387</v>
       </c>
     </row>
-    <row r="22" spans="11:24" x14ac:dyDescent="0.45">
-      <c r="U22" s="30"/>
-      <c r="V22" s="35" t="s">
+    <row r="22" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K22" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" t="s">
+        <v>429</v>
+      </c>
+      <c r="M22" t="s">
+        <v>312</v>
+      </c>
+      <c r="N22" t="s">
+        <v>430</v>
+      </c>
+      <c r="U22" s="32"/>
+      <c r="V22" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="W22" s="35" t="s">
+      <c r="W22" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X22" s="35" t="s">
+      <c r="X22" s="26" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="23" spans="11:24" x14ac:dyDescent="0.45">
-      <c r="P23" s="28" t="s">
+    <row r="23" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="P23" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="35" t="s">
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="W23" s="35" t="s">
+      <c r="W23" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X23" s="35" t="s">
+      <c r="X23" s="26" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="24" spans="11:24" x14ac:dyDescent="0.45">
-      <c r="P24" s="31" t="s">
+    <row r="24" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="P24" s="28" t="s">
         <v>172</v>
       </c>
       <c r="Q24" t="s">
@@ -3103,19 +3107,19 @@
       <c r="S24" t="s">
         <v>181</v>
       </c>
-      <c r="U24" s="30"/>
-      <c r="V24" s="35" t="s">
+      <c r="U24" s="32"/>
+      <c r="V24" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="W24" s="35" t="s">
+      <c r="W24" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X24" s="35" t="s">
+      <c r="X24" s="26" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="25" spans="11:24" x14ac:dyDescent="0.45">
-      <c r="P25" s="31"/>
+    <row r="25" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="P25" s="28"/>
       <c r="Q25" t="s">
         <v>47</v>
       </c>
@@ -3125,7 +3129,7 @@
       <c r="S25" t="s">
         <v>182</v>
       </c>
-      <c r="U25" s="30"/>
+      <c r="U25" s="32"/>
       <c r="V25" t="s">
         <v>266</v>
       </c>
@@ -3136,8 +3140,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="26" spans="11:24" x14ac:dyDescent="0.45">
-      <c r="P26" s="31"/>
+    <row r="26" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="P26" s="28"/>
       <c r="Q26" t="s">
         <v>205</v>
       </c>
@@ -3147,19 +3151,19 @@
       <c r="S26" t="s">
         <v>310</v>
       </c>
-      <c r="U26" s="30"/>
-      <c r="V26" s="35" t="s">
+      <c r="U26" s="32"/>
+      <c r="V26" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="W26" s="35" t="s">
+      <c r="W26" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X26" s="35" t="s">
+      <c r="X26" s="26" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="27" spans="11:24" x14ac:dyDescent="0.45">
-      <c r="P27" s="31"/>
+    <row r="27" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="P27" s="28"/>
       <c r="Q27" t="s">
         <v>206</v>
       </c>
@@ -3169,19 +3173,19 @@
       <c r="S27" t="s">
         <v>309</v>
       </c>
-      <c r="U27" s="30"/>
-      <c r="V27" s="35" t="s">
+      <c r="U27" s="32"/>
+      <c r="V27" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="W27" s="35" t="s">
+      <c r="W27" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X27" s="35" t="s">
+      <c r="X27" s="26" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="28" spans="11:24" x14ac:dyDescent="0.45">
-      <c r="P28" s="31"/>
+    <row r="28" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="P28" s="28"/>
       <c r="Q28" t="s">
         <v>207</v>
       </c>
@@ -3191,29 +3195,29 @@
       <c r="S28" t="s">
         <v>304</v>
       </c>
-      <c r="U28" s="30"/>
-      <c r="V28" s="35" t="s">
+      <c r="U28" s="32"/>
+      <c r="V28" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="W28" s="35" t="s">
+      <c r="W28" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X28" s="35" t="s">
+      <c r="X28" s="26" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="29" spans="11:24" x14ac:dyDescent="0.45">
-      <c r="P29" s="31"/>
-      <c r="Q29" s="35" t="s">
+    <row r="29" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="P29" s="28"/>
+      <c r="Q29" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="R29" s="35" t="s">
+      <c r="R29" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="S29" s="35" t="s">
+      <c r="S29" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="U29" s="30"/>
+      <c r="U29" s="32"/>
       <c r="V29" t="s">
         <v>279</v>
       </c>
@@ -3224,18 +3228,18 @@
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="11:24" x14ac:dyDescent="0.45">
-      <c r="P30" s="31"/>
-      <c r="Q30" s="35" t="s">
+    <row r="30" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="P30" s="28"/>
+      <c r="Q30" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="R30" s="35" t="s">
+      <c r="R30" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="S30" s="35" t="s">
+      <c r="S30" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="U30" s="30"/>
+      <c r="U30" s="32"/>
       <c r="V30" t="s">
         <v>280</v>
       </c>
@@ -3246,8 +3250,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="31" spans="11:24" x14ac:dyDescent="0.45">
-      <c r="P31" s="31"/>
+    <row r="31" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="P31" s="28"/>
       <c r="Q31" t="s">
         <v>243</v>
       </c>
@@ -3257,7 +3261,7 @@
       <c r="S31" t="s">
         <v>333</v>
       </c>
-      <c r="U31" s="30"/>
+      <c r="U31" s="32"/>
       <c r="V31" t="s">
         <v>281</v>
       </c>
@@ -3268,8 +3272,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="32" spans="11:24" x14ac:dyDescent="0.45">
-      <c r="P32" s="31"/>
+    <row r="32" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="P32" s="28"/>
       <c r="Q32" t="s">
         <v>222</v>
       </c>
@@ -3279,7 +3283,7 @@
       <c r="S32" t="s">
         <v>328</v>
       </c>
-      <c r="U32" s="30"/>
+      <c r="U32" s="32"/>
       <c r="V32" t="s">
         <v>282</v>
       </c>
@@ -3290,8 +3294,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="33" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P33" s="31"/>
+    <row r="33" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P33" s="28"/>
       <c r="Q33" t="s">
         <v>220</v>
       </c>
@@ -3301,7 +3305,7 @@
       <c r="S33" t="s">
         <v>326</v>
       </c>
-      <c r="U33" s="30"/>
+      <c r="U33" s="32"/>
       <c r="V33" t="s">
         <v>283</v>
       </c>
@@ -3312,18 +3316,18 @@
         <v>399</v>
       </c>
     </row>
-    <row r="34" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P34" s="31"/>
-      <c r="Q34" s="35" t="s">
+    <row r="34" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P34" s="28"/>
+      <c r="Q34" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="R34" s="35" t="s">
+      <c r="R34" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="S34" s="35" t="s">
+      <c r="S34" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="U34" s="30"/>
+      <c r="U34" s="32"/>
       <c r="V34" t="s">
         <v>284</v>
       </c>
@@ -3334,18 +3338,18 @@
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P35" s="31"/>
-      <c r="Q35" s="35" t="s">
+    <row r="35" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P35" s="28"/>
+      <c r="Q35" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="R35" s="35" t="s">
+      <c r="R35" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="S35" s="35" t="s">
+      <c r="S35" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="U35" s="30"/>
+      <c r="U35" s="32"/>
       <c r="V35" s="3" t="s">
         <v>278</v>
       </c>
@@ -3356,15 +3360,15 @@
         <v>401</v>
       </c>
     </row>
-    <row r="36" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P36" s="31"/>
-      <c r="Q36" s="35" t="s">
+    <row r="36" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P36" s="28"/>
+      <c r="Q36" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="R36" s="35" t="s">
+      <c r="R36" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="S36" s="35" t="s">
+      <c r="S36" s="26" t="s">
         <v>350</v>
       </c>
       <c r="U36" s="24"/>
@@ -3372,15 +3376,15 @@
       <c r="W36" s="24"/>
       <c r="X36" s="24"/>
     </row>
-    <row r="37" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P37" s="31"/>
-      <c r="Q37" s="35" t="s">
+    <row r="37" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P37" s="28"/>
+      <c r="Q37" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="R37" s="35" t="s">
+      <c r="R37" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="S37" s="35" t="s">
+      <c r="S37" s="26" t="s">
         <v>349</v>
       </c>
       <c r="U37" s="24"/>
@@ -3388,8 +3392,8 @@
       <c r="W37" s="24"/>
       <c r="X37" s="24"/>
     </row>
-    <row r="38" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P38" s="31"/>
+    <row r="38" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P38" s="28"/>
       <c r="Q38" s="23" t="s">
         <v>229</v>
       </c>
@@ -3406,8 +3410,8 @@
       <c r="W38" s="29"/>
       <c r="X38" s="29"/>
     </row>
-    <row r="39" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P39" s="31"/>
+    <row r="39" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P39" s="28"/>
       <c r="Q39" t="s">
         <v>223</v>
       </c>
@@ -3417,7 +3421,7 @@
       <c r="S39" t="s">
         <v>329</v>
       </c>
-      <c r="U39" s="31" t="s">
+      <c r="U39" s="28" t="s">
         <v>172</v>
       </c>
       <c r="V39" t="s">
@@ -3430,8 +3434,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P40" s="31"/>
+    <row r="40" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P40" s="28"/>
       <c r="Q40" t="s">
         <v>221</v>
       </c>
@@ -3441,7 +3445,7 @@
       <c r="S40" t="s">
         <v>327</v>
       </c>
-      <c r="U40" s="31"/>
+      <c r="U40" s="28"/>
       <c r="V40" t="s">
         <v>47</v>
       </c>
@@ -3452,8 +3456,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P41" s="26" t="s">
+    <row r="41" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P41" s="31" t="s">
         <v>168</v>
       </c>
       <c r="Q41" s="3" t="s">
@@ -3465,7 +3469,7 @@
       <c r="S41" t="s">
         <v>314</v>
       </c>
-      <c r="U41" s="31"/>
+      <c r="U41" s="28"/>
       <c r="V41" s="3" t="s">
         <v>444</v>
       </c>
@@ -3476,8 +3480,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P42" s="26"/>
+    <row r="42" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P42" s="31"/>
       <c r="Q42" s="3" t="s">
         <v>211</v>
       </c>
@@ -3487,7 +3491,7 @@
       <c r="S42" t="s">
         <v>315</v>
       </c>
-      <c r="U42" s="31"/>
+      <c r="U42" s="28"/>
       <c r="V42" t="s">
         <v>445</v>
       </c>
@@ -3498,8 +3502,8 @@
         <v>376</v>
       </c>
     </row>
-    <row r="43" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P43" s="26"/>
+    <row r="43" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P43" s="31"/>
       <c r="Q43" t="s">
         <v>228</v>
       </c>
@@ -3509,7 +3513,7 @@
       <c r="S43" t="s">
         <v>193</v>
       </c>
-      <c r="U43" s="31"/>
+      <c r="U43" s="28"/>
       <c r="V43" t="s">
         <v>512</v>
       </c>
@@ -3520,7 +3524,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="44" spans="16:24" x14ac:dyDescent="0.45">
+    <row r="44" spans="16:24" x14ac:dyDescent="0.25">
       <c r="P44" s="22" t="s">
         <v>191</v>
       </c>
@@ -3533,19 +3537,19 @@
       <c r="S44" t="s">
         <v>311</v>
       </c>
-      <c r="U44" s="31"/>
-      <c r="V44" s="35" t="s">
+      <c r="U44" s="28"/>
+      <c r="V44" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="W44" s="35" t="s">
+      <c r="W44" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X44" s="35" t="s">
+      <c r="X44" s="26" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="45" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P45" s="30" t="s">
+    <row r="45" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P45" s="32" t="s">
         <v>192</v>
       </c>
       <c r="Q45" t="s">
@@ -3557,29 +3561,29 @@
       <c r="S45" t="s">
         <v>316</v>
       </c>
-      <c r="U45" s="31"/>
-      <c r="V45" s="35" t="s">
+      <c r="U45" s="28"/>
+      <c r="V45" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="W45" s="35" t="s">
+      <c r="W45" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X45" s="35" t="s">
+      <c r="X45" s="26" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="46" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P46" s="30"/>
-      <c r="Q46" s="35" t="s">
+    <row r="46" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P46" s="32"/>
+      <c r="Q46" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="R46" s="35" t="s">
+      <c r="R46" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S46" s="35" t="s">
+      <c r="S46" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="U46" s="31"/>
+      <c r="U46" s="28"/>
       <c r="V46" t="s">
         <v>207</v>
       </c>
@@ -3590,30 +3594,30 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P47" s="30"/>
-      <c r="Q47" s="35" t="s">
+    <row r="47" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P47" s="32"/>
+      <c r="Q47" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="R47" s="35" t="s">
+      <c r="R47" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S47" s="35" t="s">
+      <c r="S47" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="U47" s="31"/>
-      <c r="V47" s="35" t="s">
+      <c r="U47" s="28"/>
+      <c r="V47" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="W47" s="35" t="s">
+      <c r="W47" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X47" s="35" t="s">
+      <c r="X47" s="26" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P48" s="30"/>
+    <row r="48" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P48" s="32"/>
       <c r="Q48" t="s">
         <v>213</v>
       </c>
@@ -3623,45 +3627,45 @@
       <c r="S48" t="s">
         <v>319</v>
       </c>
-      <c r="U48" s="31"/>
-      <c r="V48" s="35" t="s">
+      <c r="U48" s="28"/>
+      <c r="V48" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="W48" s="35" t="s">
+      <c r="W48" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X48" s="35" t="s">
+      <c r="X48" s="26" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="49" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P49" s="30"/>
-      <c r="Q49" s="35" t="s">
+    <row r="49" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P49" s="32"/>
+      <c r="Q49" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="R49" s="35" t="s">
+      <c r="R49" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="S49" s="35" t="s">
+      <c r="S49" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="U49" s="31"/>
+      <c r="U49" s="28"/>
       <c r="V49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P50" s="30"/>
-      <c r="Q50" s="35" t="s">
+    <row r="50" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P50" s="32"/>
+      <c r="Q50" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="R50" s="35" t="s">
+      <c r="R50" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="S50" s="35" t="s">
+      <c r="S50" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="U50" s="31"/>
+      <c r="U50" s="28"/>
       <c r="V50" t="s">
         <v>276</v>
       </c>
@@ -3672,8 +3676,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="51" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P51" s="30"/>
+    <row r="51" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P51" s="32"/>
       <c r="Q51" t="s">
         <v>216</v>
       </c>
@@ -3696,15 +3700,15 @@
         <v>383</v>
       </c>
     </row>
-    <row r="52" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P52" s="30"/>
-      <c r="Q52" s="35" t="s">
+    <row r="52" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P52" s="32"/>
+      <c r="Q52" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="R52" s="35" t="s">
+      <c r="R52" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S52" s="35" t="s">
+      <c r="S52" s="26" t="s">
         <v>324</v>
       </c>
       <c r="U52" s="27" t="s">
@@ -3720,30 +3724,30 @@
         <v>517</v>
       </c>
     </row>
-    <row r="53" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P53" s="30"/>
-      <c r="Q53" s="35" t="s">
+    <row r="53" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P53" s="32"/>
+      <c r="Q53" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="R53" s="35" t="s">
+      <c r="R53" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S53" s="35" t="s">
+      <c r="S53" s="26" t="s">
         <v>325</v>
       </c>
       <c r="U53" s="27"/>
-      <c r="V53" s="35" t="s">
+      <c r="V53" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="W53" s="35" t="s">
+      <c r="W53" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X53" s="35" t="s">
+      <c r="X53" s="26" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="54" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P54" s="30"/>
+    <row r="54" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P54" s="32"/>
       <c r="Q54" t="s">
         <v>230</v>
       </c>
@@ -3754,28 +3758,28 @@
         <v>334</v>
       </c>
       <c r="U54" s="27"/>
-      <c r="V54" s="35" t="s">
+      <c r="V54" s="26" t="s">
         <v>520</v>
       </c>
-      <c r="W54" s="35" t="s">
+      <c r="W54" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X54" s="35" t="s">
+      <c r="X54" s="26" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="55" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P55" s="30"/>
-      <c r="Q55" s="35" t="s">
+    <row r="55" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P55" s="32"/>
+      <c r="Q55" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="R55" s="35" t="s">
+      <c r="R55" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="S55" s="35" t="s">
+      <c r="S55" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="U55" s="30" t="s">
+      <c r="U55" s="32" t="s">
         <v>191</v>
       </c>
       <c r="V55" t="s">
@@ -3788,52 +3792,52 @@
         <v>378</v>
       </c>
     </row>
-    <row r="56" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P56" s="30"/>
-      <c r="Q56" s="35" t="s">
+    <row r="56" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P56" s="32"/>
+      <c r="Q56" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="R56" s="35" t="s">
+      <c r="R56" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="S56" s="35" t="s">
+      <c r="S56" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="U56" s="30"/>
-      <c r="V56" s="35" t="s">
+      <c r="U56" s="32"/>
+      <c r="V56" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="W56" s="35" t="s">
+      <c r="W56" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X56" s="35" t="s">
+      <c r="X56" s="26" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="57" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P57" s="30"/>
-      <c r="Q57" s="35" t="s">
+    <row r="57" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P57" s="32"/>
+      <c r="Q57" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="R57" s="35" t="s">
+      <c r="R57" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="S57" s="35" t="s">
+      <c r="S57" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="U57" s="30"/>
-      <c r="V57" s="35" t="s">
+      <c r="U57" s="32"/>
+      <c r="V57" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="W57" s="35" t="s">
+      <c r="W57" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X57" s="35" t="s">
+      <c r="X57" s="26" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="58" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P58" s="30"/>
+    <row r="58" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P58" s="32"/>
       <c r="Q58" t="s">
         <v>233</v>
       </c>
@@ -3843,29 +3847,29 @@
       <c r="S58" t="s">
         <v>338</v>
       </c>
-      <c r="U58" s="30"/>
-      <c r="V58" s="35" t="s">
+      <c r="U58" s="32"/>
+      <c r="V58" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="W58" s="35" t="s">
+      <c r="W58" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X58" s="35" t="s">
+      <c r="X58" s="26" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="59" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P59" s="30"/>
-      <c r="Q59" s="35" t="s">
+    <row r="59" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P59" s="32"/>
+      <c r="Q59" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="R59" s="35" t="s">
+      <c r="R59" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S59" s="35" t="s">
+      <c r="S59" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="U59" s="30"/>
+      <c r="U59" s="32"/>
       <c r="V59" t="s">
         <v>258</v>
       </c>
@@ -3876,52 +3880,52 @@
         <v>382</v>
       </c>
     </row>
-    <row r="60" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P60" s="30"/>
-      <c r="Q60" s="35" t="s">
+    <row r="60" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P60" s="32"/>
+      <c r="Q60" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="R60" s="35" t="s">
+      <c r="R60" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S60" s="35" t="s">
+      <c r="S60" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="U60" s="30"/>
-      <c r="V60" s="35" t="s">
+      <c r="U60" s="32"/>
+      <c r="V60" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="W60" s="35" t="s">
+      <c r="W60" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X60" s="35" t="s">
+      <c r="X60" s="26" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="61" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P61" s="30"/>
-      <c r="Q61" s="35" t="s">
+    <row r="61" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P61" s="32"/>
+      <c r="Q61" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="R61" s="35" t="s">
+      <c r="R61" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S61" s="35" t="s">
+      <c r="S61" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="U61" s="30"/>
-      <c r="V61" s="35" t="s">
+      <c r="U61" s="32"/>
+      <c r="V61" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="W61" s="35" t="s">
+      <c r="W61" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X61" s="35" t="s">
+      <c r="X61" s="26" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="62" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P62" s="30"/>
+    <row r="62" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P62" s="32"/>
       <c r="Q62" t="s">
         <v>22</v>
       </c>
@@ -3931,19 +3935,19 @@
       <c r="S62" t="s">
         <v>343</v>
       </c>
-      <c r="U62" s="30"/>
-      <c r="V62" s="35" t="s">
+      <c r="U62" s="32"/>
+      <c r="V62" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="W62" s="35" t="s">
+      <c r="W62" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X62" s="35" t="s">
+      <c r="X62" s="26" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P63" s="30"/>
+    <row r="63" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P63" s="32"/>
       <c r="Q63" t="s">
         <v>21</v>
       </c>
@@ -3953,7 +3957,7 @@
       <c r="S63" t="s">
         <v>344</v>
       </c>
-      <c r="U63" s="30"/>
+      <c r="U63" s="32"/>
       <c r="V63" t="s">
         <v>262</v>
       </c>
@@ -3964,8 +3968,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="64" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P64" s="30"/>
+    <row r="64" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P64" s="32"/>
       <c r="Q64" t="s">
         <v>241</v>
       </c>
@@ -3975,59 +3979,59 @@
       <c r="S64" t="s">
         <v>193</v>
       </c>
-      <c r="U64" s="30"/>
-      <c r="V64" s="35" t="s">
+      <c r="U64" s="32"/>
+      <c r="V64" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="W64" s="35" t="s">
+      <c r="W64" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X64" s="35" t="s">
+      <c r="X64" s="26" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P65" s="30"/>
-      <c r="Q65" s="35" t="s">
+    <row r="65" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P65" s="32"/>
+      <c r="Q65" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="R65" s="35" t="s">
+      <c r="R65" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="S65" s="35" t="s">
+      <c r="S65" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="U65" s="30"/>
-      <c r="V65" s="35" t="s">
+      <c r="U65" s="32"/>
+      <c r="V65" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="W65" s="35" t="s">
+      <c r="W65" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X65" s="35" t="s">
+      <c r="X65" s="26" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="U66" s="30"/>
-      <c r="V66" s="35" t="s">
+    <row r="66" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="U66" s="32"/>
+      <c r="V66" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="W66" s="35" t="s">
+      <c r="W66" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X66" s="35" t="s">
+      <c r="X66" s="26" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="67" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P67" s="28" t="s">
+    <row r="67" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P67" s="30" t="s">
         <v>467</v>
       </c>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="28"/>
-      <c r="S67" s="28"/>
-      <c r="U67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="U67" s="32"/>
       <c r="V67" t="s">
         <v>266</v>
       </c>
@@ -4038,8 +4042,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="68" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P68" s="31" t="s">
+    <row r="68" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P68" s="28" t="s">
         <v>172</v>
       </c>
       <c r="Q68" t="s">
@@ -4051,19 +4055,19 @@
       <c r="S68" t="s">
         <v>181</v>
       </c>
-      <c r="U68" s="30"/>
-      <c r="V68" s="35" t="s">
+      <c r="U68" s="32"/>
+      <c r="V68" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="W68" s="35" t="s">
+      <c r="W68" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X68" s="35" t="s">
+      <c r="X68" s="26" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="69" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P69" s="31"/>
+    <row r="69" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P69" s="28"/>
       <c r="Q69" t="s">
         <v>47</v>
       </c>
@@ -4073,19 +4077,19 @@
       <c r="S69" t="s">
         <v>182</v>
       </c>
-      <c r="U69" s="30"/>
-      <c r="V69" s="35" t="s">
+      <c r="U69" s="32"/>
+      <c r="V69" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="W69" s="35" t="s">
+      <c r="W69" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X69" s="35" t="s">
+      <c r="X69" s="26" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="70" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P70" s="31"/>
+    <row r="70" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P70" s="28"/>
       <c r="Q70" t="s">
         <v>205</v>
       </c>
@@ -4095,19 +4099,19 @@
       <c r="S70" t="s">
         <v>310</v>
       </c>
-      <c r="U70" s="30"/>
-      <c r="V70" s="35" t="s">
+      <c r="U70" s="32"/>
+      <c r="V70" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="W70" s="35" t="s">
+      <c r="W70" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X70" s="35" t="s">
+      <c r="X70" s="26" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="71" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P71" s="31"/>
+    <row r="71" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P71" s="28"/>
       <c r="Q71" t="s">
         <v>206</v>
       </c>
@@ -4117,7 +4121,7 @@
       <c r="S71" t="s">
         <v>482</v>
       </c>
-      <c r="U71" s="30"/>
+      <c r="U71" s="32"/>
       <c r="V71" t="s">
         <v>449</v>
       </c>
@@ -4128,8 +4132,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="72" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P72" s="31"/>
+    <row r="72" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P72" s="28"/>
       <c r="Q72" t="s">
         <v>207</v>
       </c>
@@ -4139,51 +4143,51 @@
       <c r="S72" t="s">
         <v>304</v>
       </c>
-      <c r="U72" s="30"/>
-      <c r="V72" s="35" t="s">
+      <c r="U72" s="32"/>
+      <c r="V72" s="26" t="s">
         <v>450</v>
       </c>
-      <c r="W72" s="35" t="s">
+      <c r="W72" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="X72" s="35" t="s">
+      <c r="X72" s="26" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="73" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P73" s="31"/>
-      <c r="Q73" s="35" t="s">
+    <row r="73" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P73" s="28"/>
+      <c r="Q73" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="R73" s="35" t="s">
+      <c r="R73" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="S73" s="35" t="s">
+      <c r="S73" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="U73" s="30"/>
-      <c r="V73" s="35" t="s">
+      <c r="U73" s="32"/>
+      <c r="V73" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="W73" s="35" t="s">
+      <c r="W73" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="X73" s="35" t="s">
+      <c r="X73" s="26" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="74" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P74" s="31"/>
-      <c r="Q74" s="35" t="s">
+    <row r="74" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P74" s="28"/>
+      <c r="Q74" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="R74" s="35" t="s">
+      <c r="R74" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="S74" s="35" t="s">
+      <c r="S74" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="U74" s="30"/>
+      <c r="U74" s="32"/>
       <c r="V74" t="s">
         <v>279</v>
       </c>
@@ -4194,8 +4198,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="75" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P75" s="31"/>
+    <row r="75" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P75" s="28"/>
       <c r="Q75" t="s">
         <v>239</v>
       </c>
@@ -4205,7 +4209,7 @@
       <c r="S75" t="s">
         <v>348</v>
       </c>
-      <c r="U75" s="30"/>
+      <c r="U75" s="32"/>
       <c r="V75" t="s">
         <v>280</v>
       </c>
@@ -4216,8 +4220,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="76" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P76" s="31"/>
+    <row r="76" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P76" s="28"/>
       <c r="Q76" t="s">
         <v>242</v>
       </c>
@@ -4227,7 +4231,7 @@
       <c r="S76" t="s">
         <v>347</v>
       </c>
-      <c r="U76" s="30"/>
+      <c r="U76" s="32"/>
       <c r="V76" t="s">
         <v>281</v>
       </c>
@@ -4238,8 +4242,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="77" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P77" s="31"/>
+    <row r="77" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P77" s="28"/>
       <c r="Q77" t="s">
         <v>147</v>
       </c>
@@ -4249,7 +4253,7 @@
       <c r="S77" t="s">
         <v>346</v>
       </c>
-      <c r="U77" s="30"/>
+      <c r="U77" s="32"/>
       <c r="V77" t="s">
         <v>282</v>
       </c>
@@ -4260,8 +4264,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="78" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P78" s="31"/>
+    <row r="78" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P78" s="28"/>
       <c r="Q78" t="s">
         <v>246</v>
       </c>
@@ -4271,7 +4275,7 @@
       <c r="S78" t="s">
         <v>351</v>
       </c>
-      <c r="U78" s="30"/>
+      <c r="U78" s="32"/>
       <c r="V78" t="s">
         <v>283</v>
       </c>
@@ -4282,8 +4286,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="79" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P79" s="31"/>
+    <row r="79" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P79" s="28"/>
       <c r="Q79" t="s">
         <v>272</v>
       </c>
@@ -4293,7 +4297,7 @@
       <c r="S79" t="s">
         <v>483</v>
       </c>
-      <c r="U79" s="30"/>
+      <c r="U79" s="32"/>
       <c r="V79" t="s">
         <v>284</v>
       </c>
@@ -4304,18 +4308,18 @@
         <v>400</v>
       </c>
     </row>
-    <row r="80" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P80" s="31"/>
-      <c r="Q80" s="35" t="s">
+    <row r="80" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P80" s="28"/>
+      <c r="Q80" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="R80" s="35" t="s">
+      <c r="R80" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="S80" s="35" t="s">
+      <c r="S80" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="U80" s="30"/>
+      <c r="U80" s="32"/>
       <c r="V80" t="s">
         <v>278</v>
       </c>
@@ -4326,20 +4330,20 @@
         <v>401</v>
       </c>
     </row>
-    <row r="81" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P81" s="31"/>
-      <c r="Q81" s="35" t="s">
+    <row r="81" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P81" s="28"/>
+      <c r="Q81" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="R81" s="35" t="s">
+      <c r="R81" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="S81" s="35" t="s">
+      <c r="S81" s="26" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="82" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P82" s="31"/>
+    <row r="82" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P82" s="28"/>
       <c r="Q82" t="s">
         <v>247</v>
       </c>
@@ -4356,8 +4360,8 @@
       <c r="W82" s="29"/>
       <c r="X82" s="29"/>
     </row>
-    <row r="83" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P83" s="31"/>
+    <row r="83" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P83" s="28"/>
       <c r="Q83" t="s">
         <v>353</v>
       </c>
@@ -4367,7 +4371,7 @@
       <c r="S83" t="s">
         <v>355</v>
       </c>
-      <c r="U83" s="31" t="s">
+      <c r="U83" s="28" t="s">
         <v>172</v>
       </c>
       <c r="V83" t="s">
@@ -4380,9 +4384,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P84" s="31"/>
-      <c r="U84" s="31"/>
+    <row r="84" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P84" s="28"/>
+      <c r="U84" s="28"/>
       <c r="V84" t="s">
         <v>47</v>
       </c>
@@ -4393,9 +4397,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P85" s="31"/>
-      <c r="U85" s="31"/>
+    <row r="85" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P85" s="28"/>
+      <c r="U85" s="28"/>
       <c r="V85" s="3" t="s">
         <v>444</v>
       </c>
@@ -4406,8 +4410,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="86" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P86" s="31"/>
+    <row r="86" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P86" s="28"/>
       <c r="Q86" t="s">
         <v>23</v>
       </c>
@@ -4417,7 +4421,7 @@
       <c r="S86" t="s">
         <v>345</v>
       </c>
-      <c r="U86" s="31"/>
+      <c r="U86" s="28"/>
       <c r="V86" t="s">
         <v>445</v>
       </c>
@@ -4428,8 +4432,8 @@
         <v>376</v>
       </c>
     </row>
-    <row r="87" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P87" s="26" t="s">
+    <row r="87" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P87" s="31" t="s">
         <v>190</v>
       </c>
       <c r="Q87" t="s">
@@ -4441,7 +4445,7 @@
       <c r="S87" t="s">
         <v>314</v>
       </c>
-      <c r="U87" s="31"/>
+      <c r="U87" s="28"/>
       <c r="V87" t="s">
         <v>512</v>
       </c>
@@ -4452,8 +4456,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P88" s="26"/>
+    <row r="88" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P88" s="31"/>
       <c r="Q88" t="s">
         <v>211</v>
       </c>
@@ -4463,18 +4467,18 @@
       <c r="S88" t="s">
         <v>315</v>
       </c>
-      <c r="U88" s="31"/>
-      <c r="V88" s="35" t="s">
+      <c r="U88" s="28"/>
+      <c r="V88" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="W88" s="35" t="s">
+      <c r="W88" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X88" s="35" t="s">
+      <c r="X88" s="26" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="89" spans="16:24" x14ac:dyDescent="0.45">
+    <row r="89" spans="16:24" x14ac:dyDescent="0.25">
       <c r="P89" s="27" t="s">
         <v>191</v>
       </c>
@@ -4487,18 +4491,18 @@
       <c r="S89" t="s">
         <v>311</v>
       </c>
-      <c r="U89" s="31"/>
-      <c r="V89" s="35" t="s">
+      <c r="U89" s="28"/>
+      <c r="V89" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="W89" s="35" t="s">
+      <c r="W89" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X89" s="35" t="s">
+      <c r="X89" s="26" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="90" spans="16:24" x14ac:dyDescent="0.45">
+    <row r="90" spans="16:24" x14ac:dyDescent="0.25">
       <c r="P90" s="27"/>
       <c r="Q90" t="s">
         <v>252</v>
@@ -4509,7 +4513,7 @@
       <c r="S90" t="s">
         <v>357</v>
       </c>
-      <c r="U90" s="31"/>
+      <c r="U90" s="28"/>
       <c r="V90" t="s">
         <v>207</v>
       </c>
@@ -4520,7 +4524,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="91" spans="16:24" x14ac:dyDescent="0.45">
+    <row r="91" spans="16:24" x14ac:dyDescent="0.25">
       <c r="P91" s="27"/>
       <c r="Q91" t="s">
         <v>251</v>
@@ -4531,19 +4535,19 @@
       <c r="S91" t="s">
         <v>356</v>
       </c>
-      <c r="U91" s="31"/>
-      <c r="V91" s="35" t="s">
+      <c r="U91" s="28"/>
+      <c r="V91" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="W91" s="35" t="s">
+      <c r="W91" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X91" s="35" t="s">
+      <c r="X91" s="26" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="92" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P92" s="30" t="s">
+    <row r="92" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P92" s="32" t="s">
         <v>192</v>
       </c>
       <c r="Q92" t="s">
@@ -4555,45 +4559,45 @@
       <c r="S92" t="s">
         <v>316</v>
       </c>
-      <c r="U92" s="31"/>
-      <c r="V92" s="35" t="s">
+      <c r="U92" s="28"/>
+      <c r="V92" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="W92" s="35" t="s">
+      <c r="W92" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X92" s="35" t="s">
+      <c r="X92" s="26" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="93" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P93" s="30"/>
-      <c r="Q93" s="35" t="s">
+    <row r="93" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P93" s="32"/>
+      <c r="Q93" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="R93" s="35" t="s">
+      <c r="R93" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S93" s="35" t="s">
+      <c r="S93" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="U93" s="31"/>
+      <c r="U93" s="28"/>
       <c r="V93" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P94" s="30"/>
-      <c r="Q94" s="35" t="s">
+    <row r="94" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P94" s="32"/>
+      <c r="Q94" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="R94" s="35" t="s">
+      <c r="R94" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S94" s="35" t="s">
+      <c r="S94" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="U94" s="31"/>
+      <c r="U94" s="28"/>
       <c r="V94" t="s">
         <v>27</v>
       </c>
@@ -4604,8 +4608,8 @@
         <v>403</v>
       </c>
     </row>
-    <row r="95" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P95" s="30"/>
+    <row r="95" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P95" s="32"/>
       <c r="Q95" t="s">
         <v>213</v>
       </c>
@@ -4615,7 +4619,7 @@
       <c r="S95" t="s">
         <v>319</v>
       </c>
-      <c r="U95" s="31"/>
+      <c r="U95" s="28"/>
       <c r="V95" t="s">
         <v>26</v>
       </c>
@@ -4626,18 +4630,18 @@
         <v>402</v>
       </c>
     </row>
-    <row r="96" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P96" s="30"/>
-      <c r="Q96" s="35" t="s">
+    <row r="96" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P96" s="32"/>
+      <c r="Q96" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="R96" s="35" t="s">
+      <c r="R96" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="S96" s="35" t="s">
+      <c r="S96" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="U96" s="31"/>
+      <c r="U96" s="28"/>
       <c r="V96" t="s">
         <v>28</v>
       </c>
@@ -4648,18 +4652,18 @@
         <v>417</v>
       </c>
     </row>
-    <row r="97" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P97" s="30"/>
-      <c r="Q97" s="35" t="s">
+    <row r="97" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P97" s="32"/>
+      <c r="Q97" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="R97" s="35" t="s">
+      <c r="R97" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="S97" s="35" t="s">
+      <c r="S97" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="U97" s="31"/>
+      <c r="U97" s="28"/>
       <c r="V97" t="s">
         <v>404</v>
       </c>
@@ -4670,8 +4674,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="98" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P98" s="30"/>
+    <row r="98" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P98" s="32"/>
       <c r="Q98" t="s">
         <v>216</v>
       </c>
@@ -4681,7 +4685,7 @@
       <c r="S98" t="s">
         <v>323</v>
       </c>
-      <c r="U98" s="31"/>
+      <c r="U98" s="28"/>
       <c r="V98" t="s">
         <v>405</v>
       </c>
@@ -4692,18 +4696,18 @@
         <v>413</v>
       </c>
     </row>
-    <row r="99" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P99" s="30"/>
-      <c r="Q99" s="35" t="s">
+    <row r="99" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P99" s="32"/>
+      <c r="Q99" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="R99" s="35" t="s">
+      <c r="R99" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S99" s="35" t="s">
+      <c r="S99" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="U99" s="31"/>
+      <c r="U99" s="28"/>
       <c r="V99" t="s">
         <v>406</v>
       </c>
@@ -4714,18 +4718,18 @@
         <v>414</v>
       </c>
     </row>
-    <row r="100" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P100" s="30"/>
-      <c r="Q100" s="35" t="s">
+    <row r="100" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P100" s="32"/>
+      <c r="Q100" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="R100" s="35" t="s">
+      <c r="R100" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S100" s="35" t="s">
+      <c r="S100" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="U100" s="31"/>
+      <c r="U100" s="28"/>
       <c r="V100" t="s">
         <v>407</v>
       </c>
@@ -4736,8 +4740,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="101" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P101" s="30"/>
+    <row r="101" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P101" s="32"/>
       <c r="Q101" t="s">
         <v>230</v>
       </c>
@@ -4747,7 +4751,7 @@
       <c r="S101" t="s">
         <v>334</v>
       </c>
-      <c r="U101" s="31"/>
+      <c r="U101" s="28"/>
       <c r="V101" t="s">
         <v>408</v>
       </c>
@@ -4758,18 +4762,18 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P102" s="30"/>
-      <c r="Q102" s="35" t="s">
+    <row r="102" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P102" s="32"/>
+      <c r="Q102" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="R102" s="35" t="s">
+      <c r="R102" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="S102" s="35" t="s">
+      <c r="S102" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="U102" s="31"/>
+      <c r="U102" s="28"/>
       <c r="V102" t="s">
         <v>409</v>
       </c>
@@ -4780,18 +4784,18 @@
         <v>413</v>
       </c>
     </row>
-    <row r="103" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P103" s="30"/>
-      <c r="Q103" s="35" t="s">
+    <row r="103" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P103" s="32"/>
+      <c r="Q103" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="R103" s="35" t="s">
+      <c r="R103" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="S103" s="35" t="s">
+      <c r="S103" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="U103" s="31"/>
+      <c r="U103" s="28"/>
       <c r="V103" t="s">
         <v>410</v>
       </c>
@@ -4802,18 +4806,18 @@
         <v>414</v>
       </c>
     </row>
-    <row r="104" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P104" s="30"/>
-      <c r="Q104" s="35" t="s">
+    <row r="104" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P104" s="32"/>
+      <c r="Q104" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="R104" s="35" t="s">
+      <c r="R104" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="S104" s="35" t="s">
+      <c r="S104" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="U104" s="31"/>
+      <c r="U104" s="28"/>
       <c r="V104" t="s">
         <v>411</v>
       </c>
@@ -4824,8 +4828,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="105" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P105" s="30"/>
+    <row r="105" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P105" s="32"/>
       <c r="Q105" t="s">
         <v>233</v>
       </c>
@@ -4848,15 +4852,15 @@
         <v>383</v>
       </c>
     </row>
-    <row r="106" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P106" s="30"/>
-      <c r="Q106" s="35" t="s">
+    <row r="106" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P106" s="32"/>
+      <c r="Q106" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="R106" s="35" t="s">
+      <c r="R106" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S106" s="35" t="s">
+      <c r="S106" s="26" t="s">
         <v>339</v>
       </c>
       <c r="U106" s="27" t="s">
@@ -4872,52 +4876,52 @@
         <v>517</v>
       </c>
     </row>
-    <row r="107" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P107" s="30"/>
-      <c r="Q107" s="35" t="s">
+    <row r="107" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P107" s="32"/>
+      <c r="Q107" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="R107" s="35" t="s">
+      <c r="R107" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S107" s="35" t="s">
+      <c r="S107" s="26" t="s">
         <v>340</v>
       </c>
       <c r="U107" s="27"/>
-      <c r="V107" s="35" t="s">
+      <c r="V107" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="W107" s="35" t="s">
+      <c r="W107" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X107" s="35" t="s">
+      <c r="X107" s="26" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="108" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P108" s="30"/>
-      <c r="Q108" s="35" t="s">
+    <row r="108" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P108" s="32"/>
+      <c r="Q108" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="R108" s="35" t="s">
+      <c r="R108" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S108" s="35" t="s">
+      <c r="S108" s="26" t="s">
         <v>341</v>
       </c>
       <c r="U108" s="27"/>
-      <c r="V108" s="35" t="s">
+      <c r="V108" s="26" t="s">
         <v>520</v>
       </c>
-      <c r="W108" s="35" t="s">
+      <c r="W108" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X108" s="35" t="s">
+      <c r="X108" s="26" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="109" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P109" s="30"/>
+    <row r="109" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P109" s="32"/>
       <c r="Q109" t="s">
         <v>22</v>
       </c>
@@ -4927,7 +4931,7 @@
       <c r="S109" t="s">
         <v>343</v>
       </c>
-      <c r="U109" s="30" t="s">
+      <c r="U109" s="32" t="s">
         <v>192</v>
       </c>
       <c r="V109" t="s">
@@ -4940,8 +4944,8 @@
         <v>378</v>
       </c>
     </row>
-    <row r="110" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P110" s="30"/>
+    <row r="110" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P110" s="32"/>
       <c r="Q110" t="s">
         <v>21</v>
       </c>
@@ -4951,59 +4955,59 @@
       <c r="S110" t="s">
         <v>344</v>
       </c>
-      <c r="U110" s="30"/>
-      <c r="V110" s="35" t="s">
+      <c r="U110" s="32"/>
+      <c r="V110" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="W110" s="35" t="s">
+      <c r="W110" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X110" s="35" t="s">
+      <c r="X110" s="26" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="111" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P111" s="30"/>
-      <c r="Q111" s="35" t="s">
+    <row r="111" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P111" s="32"/>
+      <c r="Q111" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="R111" s="35" t="s">
+      <c r="R111" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="S111" s="35" t="s">
+      <c r="S111" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="U111" s="30"/>
-      <c r="V111" s="35" t="s">
+      <c r="U111" s="32"/>
+      <c r="V111" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="W111" s="35" t="s">
+      <c r="W111" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X111" s="35" t="s">
+      <c r="X111" s="26" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="112" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="U112" s="30"/>
-      <c r="V112" s="35" t="s">
+    <row r="112" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="U112" s="32"/>
+      <c r="V112" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="W112" s="35" t="s">
+      <c r="W112" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X112" s="35" t="s">
+      <c r="X112" s="26" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="113" spans="16:24" x14ac:dyDescent="0.45">
+    <row r="113" spans="16:24" x14ac:dyDescent="0.25">
       <c r="P113" s="29" t="s">
         <v>468</v>
       </c>
       <c r="Q113" s="29"/>
       <c r="R113" s="29"/>
       <c r="S113" s="29"/>
-      <c r="U113" s="30"/>
+      <c r="U113" s="32"/>
       <c r="V113" t="s">
         <v>258</v>
       </c>
@@ -5014,8 +5018,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="114" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P114" s="31" t="s">
+    <row r="114" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P114" s="28" t="s">
         <v>172</v>
       </c>
       <c r="Q114" t="s">
@@ -5027,19 +5031,19 @@
       <c r="S114" t="s">
         <v>181</v>
       </c>
-      <c r="U114" s="30"/>
-      <c r="V114" s="35" t="s">
+      <c r="U114" s="32"/>
+      <c r="V114" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="W114" s="35" t="s">
+      <c r="W114" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X114" s="35" t="s">
+      <c r="X114" s="26" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="115" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P115" s="31"/>
+    <row r="115" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P115" s="28"/>
       <c r="Q115" t="s">
         <v>47</v>
       </c>
@@ -5049,19 +5053,19 @@
       <c r="S115" t="s">
         <v>182</v>
       </c>
-      <c r="U115" s="30"/>
-      <c r="V115" s="35" t="s">
+      <c r="U115" s="32"/>
+      <c r="V115" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="W115" s="35" t="s">
+      <c r="W115" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X115" s="35" t="s">
+      <c r="X115" s="26" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="116" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P116" s="31"/>
+    <row r="116" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P116" s="28"/>
       <c r="Q116" t="s">
         <v>205</v>
       </c>
@@ -5071,19 +5075,19 @@
       <c r="S116" t="s">
         <v>310</v>
       </c>
-      <c r="U116" s="30"/>
-      <c r="V116" s="35" t="s">
+      <c r="U116" s="32"/>
+      <c r="V116" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="W116" s="35" t="s">
+      <c r="W116" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X116" s="35" t="s">
+      <c r="X116" s="26" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="117" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P117" s="31"/>
+    <row r="117" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P117" s="28"/>
       <c r="Q117" t="s">
         <v>206</v>
       </c>
@@ -5093,7 +5097,7 @@
       <c r="S117" t="s">
         <v>485</v>
       </c>
-      <c r="U117" s="30"/>
+      <c r="U117" s="32"/>
       <c r="V117" t="s">
         <v>262</v>
       </c>
@@ -5104,8 +5108,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="118" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P118" s="31"/>
+    <row r="118" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P118" s="28"/>
       <c r="Q118" t="s">
         <v>207</v>
       </c>
@@ -5115,63 +5119,63 @@
       <c r="S118" t="s">
         <v>304</v>
       </c>
-      <c r="U118" s="30"/>
-      <c r="V118" s="35" t="s">
+      <c r="U118" s="32"/>
+      <c r="V118" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="W118" s="35" t="s">
+      <c r="W118" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X118" s="35" t="s">
+      <c r="X118" s="26" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="119" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P119" s="31"/>
-      <c r="Q119" s="35" t="s">
+    <row r="119" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P119" s="28"/>
+      <c r="Q119" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="R119" s="35" t="s">
+      <c r="R119" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="S119" s="35" t="s">
+      <c r="S119" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="U119" s="30"/>
-      <c r="V119" s="35" t="s">
+      <c r="U119" s="32"/>
+      <c r="V119" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="W119" s="35" t="s">
+      <c r="W119" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X119" s="35" t="s">
+      <c r="X119" s="26" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="120" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P120" s="31"/>
-      <c r="Q120" s="35" t="s">
+    <row r="120" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P120" s="28"/>
+      <c r="Q120" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="R120" s="35" t="s">
+      <c r="R120" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="S120" s="35" t="s">
+      <c r="S120" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="U120" s="30"/>
-      <c r="V120" s="35" t="s">
+      <c r="U120" s="32"/>
+      <c r="V120" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="W120" s="35" t="s">
+      <c r="W120" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X120" s="35" t="s">
+      <c r="X120" s="26" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P121" s="31"/>
+    <row r="121" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P121" s="28"/>
       <c r="Q121" t="s">
         <v>271</v>
       </c>
@@ -5181,7 +5185,7 @@
       <c r="S121" t="s">
         <v>359</v>
       </c>
-      <c r="U121" s="30"/>
+      <c r="U121" s="32"/>
       <c r="V121" t="s">
         <v>266</v>
       </c>
@@ -5192,8 +5196,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="122" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P122" s="31"/>
+    <row r="122" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P122" s="28"/>
       <c r="Q122" t="s">
         <v>147</v>
       </c>
@@ -5203,19 +5207,19 @@
       <c r="S122" t="s">
         <v>358</v>
       </c>
-      <c r="U122" s="30"/>
-      <c r="V122" s="35" t="s">
+      <c r="U122" s="32"/>
+      <c r="V122" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="W122" s="35" t="s">
+      <c r="W122" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X122" s="35" t="s">
+      <c r="X122" s="26" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="123" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P123" s="31"/>
+    <row r="123" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P123" s="28"/>
       <c r="Q123" t="s">
         <v>251</v>
       </c>
@@ -5225,19 +5229,19 @@
       <c r="S123" t="s">
         <v>356</v>
       </c>
-      <c r="U123" s="30"/>
-      <c r="V123" s="35" t="s">
+      <c r="U123" s="32"/>
+      <c r="V123" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="W123" s="35" t="s">
+      <c r="W123" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X123" s="35" t="s">
+      <c r="X123" s="26" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="124" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P124" s="31"/>
+    <row r="124" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P124" s="28"/>
       <c r="Q124" t="s">
         <v>23</v>
       </c>
@@ -5247,29 +5251,29 @@
       <c r="S124" t="s">
         <v>345</v>
       </c>
-      <c r="U124" s="30"/>
-      <c r="V124" s="35" t="s">
+      <c r="U124" s="32"/>
+      <c r="V124" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="W124" s="35" t="s">
+      <c r="W124" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X124" s="35" t="s">
+      <c r="X124" s="26" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="125" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P125" s="31"/>
-      <c r="Q125" s="35" t="s">
+    <row r="125" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P125" s="28"/>
+      <c r="Q125" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="R125" s="35" t="s">
+      <c r="R125" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S125" s="35" t="s">
+      <c r="S125" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="U125" s="30"/>
+      <c r="U125" s="32"/>
       <c r="V125" t="s">
         <v>449</v>
       </c>
@@ -5280,62 +5284,62 @@
         <v>452</v>
       </c>
     </row>
-    <row r="126" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P126" s="31"/>
-      <c r="Q126" s="35" t="s">
+    <row r="126" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P126" s="28"/>
+      <c r="Q126" s="26" t="s">
         <v>497</v>
       </c>
-      <c r="R126" s="35" t="s">
+      <c r="R126" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S126" s="35" t="s">
+      <c r="S126" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="U126" s="30"/>
-      <c r="V126" s="35" t="s">
+      <c r="U126" s="32"/>
+      <c r="V126" s="26" t="s">
         <v>450</v>
       </c>
-      <c r="W126" s="35" t="s">
+      <c r="W126" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="X126" s="35" t="s">
+      <c r="X126" s="26" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="127" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P127" s="31"/>
-      <c r="Q127" s="35" t="s">
+    <row r="127" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P127" s="28"/>
+      <c r="Q127" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="R127" s="35" t="s">
+      <c r="R127" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S127" s="35" t="s">
+      <c r="S127" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="U127" s="30"/>
-      <c r="V127" s="35" t="s">
+      <c r="U127" s="32"/>
+      <c r="V127" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="W127" s="35" t="s">
+      <c r="W127" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="X127" s="35" t="s">
+      <c r="X127" s="26" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="128" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P128" s="31"/>
-      <c r="Q128" s="35" t="s">
+    <row r="128" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P128" s="28"/>
+      <c r="Q128" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="R128" s="35" t="s">
+      <c r="R128" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S128" s="35" t="s">
+      <c r="S128" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="U128" s="30"/>
+      <c r="U128" s="32"/>
       <c r="V128" t="s">
         <v>279</v>
       </c>
@@ -5346,18 +5350,18 @@
         <v>395</v>
       </c>
     </row>
-    <row r="129" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P129" s="31"/>
-      <c r="Q129" s="35" t="s">
+    <row r="129" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P129" s="28"/>
+      <c r="Q129" s="26" t="s">
         <v>498</v>
       </c>
-      <c r="R129" s="35" t="s">
+      <c r="R129" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S129" s="35" t="s">
+      <c r="S129" s="26" t="s">
         <v>504</v>
       </c>
-      <c r="U129" s="30"/>
+      <c r="U129" s="32"/>
       <c r="V129" t="s">
         <v>280</v>
       </c>
@@ -5368,18 +5372,18 @@
         <v>396</v>
       </c>
     </row>
-    <row r="130" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P130" s="31"/>
-      <c r="Q130" s="35" t="s">
+    <row r="130" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P130" s="28"/>
+      <c r="Q130" s="26" t="s">
         <v>499</v>
       </c>
-      <c r="R130" s="35" t="s">
+      <c r="R130" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S130" s="35" t="s">
+      <c r="S130" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="U130" s="30"/>
+      <c r="U130" s="32"/>
       <c r="V130" t="s">
         <v>281</v>
       </c>
@@ -5390,18 +5394,18 @@
         <v>397</v>
       </c>
     </row>
-    <row r="131" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P131" s="31"/>
-      <c r="Q131" s="35" t="s">
+    <row r="131" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P131" s="28"/>
+      <c r="Q131" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="R131" s="35" t="s">
+      <c r="R131" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S131" s="35" t="s">
+      <c r="S131" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="U131" s="30"/>
+      <c r="U131" s="32"/>
       <c r="V131" t="s">
         <v>282</v>
       </c>
@@ -5412,7 +5416,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="132" spans="16:24" x14ac:dyDescent="0.45">
+    <row r="132" spans="16:24" x14ac:dyDescent="0.25">
       <c r="P132" s="9" t="s">
         <v>457</v>
       </c>
@@ -5425,7 +5429,7 @@
       <c r="S132" t="s">
         <v>484</v>
       </c>
-      <c r="U132" s="30"/>
+      <c r="U132" s="32"/>
       <c r="V132" t="s">
         <v>283</v>
       </c>
@@ -5436,8 +5440,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="133" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P133" s="26" t="s">
+    <row r="133" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P133" s="31" t="s">
         <v>168</v>
       </c>
       <c r="Q133" t="s">
@@ -5449,7 +5453,7 @@
       <c r="S133" t="s">
         <v>314</v>
       </c>
-      <c r="U133" s="30"/>
+      <c r="U133" s="32"/>
       <c r="V133" t="s">
         <v>284</v>
       </c>
@@ -5460,8 +5464,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P134" s="26"/>
+    <row r="134" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P134" s="31"/>
       <c r="Q134" t="s">
         <v>211</v>
       </c>
@@ -5471,7 +5475,7 @@
       <c r="S134" t="s">
         <v>315</v>
       </c>
-      <c r="U134" s="30"/>
+      <c r="U134" s="32"/>
       <c r="V134" t="s">
         <v>278</v>
       </c>
@@ -5482,7 +5486,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="135" spans="16:24" x14ac:dyDescent="0.45">
+    <row r="135" spans="16:24" x14ac:dyDescent="0.25">
       <c r="P135" s="7" t="s">
         <v>191</v>
       </c>
@@ -5496,8 +5500,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="136" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P136" s="30" t="s">
+    <row r="136" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P136" s="32" t="s">
         <v>192</v>
       </c>
       <c r="Q136" t="s">
@@ -5509,25 +5513,25 @@
       <c r="S136" t="s">
         <v>316</v>
       </c>
-      <c r="U136" s="28" t="s">
+      <c r="U136" s="30" t="s">
         <v>474</v>
       </c>
-      <c r="V136" s="28"/>
-      <c r="W136" s="28"/>
-      <c r="X136" s="28"/>
-    </row>
-    <row r="137" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P137" s="30"/>
-      <c r="Q137" s="35" t="s">
+      <c r="V136" s="30"/>
+      <c r="W136" s="30"/>
+      <c r="X136" s="30"/>
+    </row>
+    <row r="137" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P137" s="32"/>
+      <c r="Q137" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="R137" s="35" t="s">
+      <c r="R137" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S137" s="35" t="s">
+      <c r="S137" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="U137" s="31" t="s">
+      <c r="U137" s="28" t="s">
         <v>172</v>
       </c>
       <c r="V137" t="s">
@@ -5540,18 +5544,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="138" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P138" s="30"/>
-      <c r="Q138" s="35" t="s">
+    <row r="138" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P138" s="32"/>
+      <c r="Q138" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="R138" s="35" t="s">
+      <c r="R138" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S138" s="35" t="s">
+      <c r="S138" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="U138" s="31"/>
+      <c r="U138" s="28"/>
       <c r="V138" t="s">
         <v>47</v>
       </c>
@@ -5562,8 +5566,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="139" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P139" s="30"/>
+    <row r="139" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P139" s="32"/>
       <c r="Q139" t="s">
         <v>213</v>
       </c>
@@ -5573,7 +5577,7 @@
       <c r="S139" t="s">
         <v>319</v>
       </c>
-      <c r="U139" s="31"/>
+      <c r="U139" s="28"/>
       <c r="V139" s="3" t="s">
         <v>444</v>
       </c>
@@ -5584,18 +5588,18 @@
         <v>375</v>
       </c>
     </row>
-    <row r="140" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P140" s="30"/>
-      <c r="Q140" s="35" t="s">
+    <row r="140" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P140" s="32"/>
+      <c r="Q140" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="R140" s="35" t="s">
+      <c r="R140" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="S140" s="35" t="s">
+      <c r="S140" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="U140" s="31"/>
+      <c r="U140" s="28"/>
       <c r="V140" t="s">
         <v>445</v>
       </c>
@@ -5606,18 +5610,18 @@
         <v>376</v>
       </c>
     </row>
-    <row r="141" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P141" s="30"/>
-      <c r="Q141" s="35" t="s">
+    <row r="141" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P141" s="32"/>
+      <c r="Q141" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="R141" s="35" t="s">
+      <c r="R141" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="S141" s="35" t="s">
+      <c r="S141" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="U141" s="31"/>
+      <c r="U141" s="28"/>
       <c r="V141" t="s">
         <v>205</v>
       </c>
@@ -5628,8 +5632,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="142" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P142" s="30"/>
+    <row r="142" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P142" s="32"/>
       <c r="Q142" t="s">
         <v>216</v>
       </c>
@@ -5639,7 +5643,7 @@
       <c r="S142" t="s">
         <v>323</v>
       </c>
-      <c r="U142" s="31"/>
+      <c r="U142" s="28"/>
       <c r="V142" t="s">
         <v>207</v>
       </c>
@@ -5650,52 +5654,52 @@
         <v>304</v>
       </c>
     </row>
-    <row r="143" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P143" s="30"/>
-      <c r="Q143" s="35" t="s">
+    <row r="143" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P143" s="32"/>
+      <c r="Q143" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="R143" s="35" t="s">
+      <c r="R143" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S143" s="35" t="s">
+      <c r="S143" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="U143" s="31"/>
-      <c r="V143" s="35" t="s">
+      <c r="U143" s="28"/>
+      <c r="V143" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="W143" s="35" t="s">
+      <c r="W143" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X143" s="35" t="s">
+      <c r="X143" s="26" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="144" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P144" s="30"/>
-      <c r="Q144" s="35" t="s">
+    <row r="144" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P144" s="32"/>
+      <c r="Q144" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="R144" s="35" t="s">
+      <c r="R144" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S144" s="35" t="s">
+      <c r="S144" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="U144" s="31"/>
-      <c r="V144" s="35" t="s">
+      <c r="U144" s="28"/>
+      <c r="V144" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="W144" s="35" t="s">
+      <c r="W144" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X144" s="35" t="s">
+      <c r="X144" s="26" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="145" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P145" s="30"/>
+    <row r="145" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P145" s="32"/>
       <c r="Q145" t="s">
         <v>230</v>
       </c>
@@ -5705,7 +5709,7 @@
       <c r="S145" t="s">
         <v>334</v>
       </c>
-      <c r="U145" s="31"/>
+      <c r="U145" s="28"/>
       <c r="V145" t="s">
         <v>292</v>
       </c>
@@ -5716,18 +5720,18 @@
         <v>425</v>
       </c>
     </row>
-    <row r="146" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P146" s="30"/>
-      <c r="Q146" s="35" t="s">
+    <row r="146" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P146" s="32"/>
+      <c r="Q146" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="R146" s="35" t="s">
+      <c r="R146" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="S146" s="35" t="s">
+      <c r="S146" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="U146" s="31"/>
+      <c r="U146" s="28"/>
       <c r="V146" t="s">
         <v>293</v>
       </c>
@@ -5738,18 +5742,18 @@
         <v>426</v>
       </c>
     </row>
-    <row r="147" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P147" s="30"/>
-      <c r="Q147" s="35" t="s">
+    <row r="147" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P147" s="32"/>
+      <c r="Q147" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="R147" s="35" t="s">
+      <c r="R147" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="S147" s="35" t="s">
+      <c r="S147" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="U147" s="31"/>
+      <c r="U147" s="28"/>
       <c r="V147" t="s">
         <v>220</v>
       </c>
@@ -5760,18 +5764,18 @@
         <v>423</v>
       </c>
     </row>
-    <row r="148" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P148" s="30"/>
-      <c r="Q148" s="35" t="s">
+    <row r="148" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P148" s="32"/>
+      <c r="Q148" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="R148" s="35" t="s">
+      <c r="R148" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="S148" s="35" t="s">
+      <c r="S148" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="U148" s="31"/>
+      <c r="U148" s="28"/>
       <c r="V148" t="s">
         <v>272</v>
       </c>
@@ -5779,8 +5783,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="149" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P149" s="30"/>
+    <row r="149" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P149" s="32"/>
       <c r="Q149" t="s">
         <v>233</v>
       </c>
@@ -5790,7 +5794,7 @@
       <c r="S149" t="s">
         <v>338</v>
       </c>
-      <c r="U149" s="31"/>
+      <c r="U149" s="28"/>
       <c r="V149" t="s">
         <v>291</v>
       </c>
@@ -5801,18 +5805,18 @@
         <v>422</v>
       </c>
     </row>
-    <row r="150" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P150" s="30"/>
-      <c r="Q150" s="35" t="s">
+    <row r="150" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P150" s="32"/>
+      <c r="Q150" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="R150" s="35" t="s">
+      <c r="R150" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S150" s="35" t="s">
+      <c r="S150" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="U150" s="31"/>
+      <c r="U150" s="28"/>
       <c r="V150" t="s">
         <v>490</v>
       </c>
@@ -5823,18 +5827,18 @@
         <v>480</v>
       </c>
     </row>
-    <row r="151" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P151" s="30"/>
-      <c r="Q151" s="35" t="s">
+    <row r="151" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P151" s="32"/>
+      <c r="Q151" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="R151" s="35" t="s">
+      <c r="R151" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S151" s="35" t="s">
+      <c r="S151" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="U151" s="31"/>
+      <c r="U151" s="28"/>
       <c r="V151" t="s">
         <v>418</v>
       </c>
@@ -5845,18 +5849,18 @@
         <v>420</v>
       </c>
     </row>
-    <row r="152" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P152" s="30"/>
-      <c r="Q152" s="35" t="s">
+    <row r="152" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P152" s="32"/>
+      <c r="Q152" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="R152" s="35" t="s">
+      <c r="R152" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S152" s="35" t="s">
+      <c r="S152" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="U152" s="31"/>
+      <c r="U152" s="28"/>
       <c r="V152" t="s">
         <v>491</v>
       </c>
@@ -5867,8 +5871,8 @@
         <v>481</v>
       </c>
     </row>
-    <row r="153" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P153" s="30"/>
+    <row r="153" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P153" s="32"/>
       <c r="Q153" t="s">
         <v>22</v>
       </c>
@@ -5878,7 +5882,7 @@
       <c r="S153" t="s">
         <v>343</v>
       </c>
-      <c r="U153" s="31"/>
+      <c r="U153" s="28"/>
       <c r="V153" t="s">
         <v>419</v>
       </c>
@@ -5889,8 +5893,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="154" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P154" s="30"/>
+    <row r="154" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P154" s="32"/>
       <c r="Q154" t="s">
         <v>21</v>
       </c>
@@ -5900,7 +5904,7 @@
       <c r="S154" t="s">
         <v>344</v>
       </c>
-      <c r="U154" s="31"/>
+      <c r="U154" s="28"/>
       <c r="V154" t="s">
         <v>221</v>
       </c>
@@ -5911,8 +5915,8 @@
         <v>424</v>
       </c>
     </row>
-    <row r="155" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="U155" s="26" t="s">
+    <row r="155" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="U155" s="31" t="s">
         <v>168</v>
       </c>
       <c r="V155" t="s">
@@ -5925,14 +5929,14 @@
         <v>383</v>
       </c>
     </row>
-    <row r="156" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P156" s="28" t="s">
+    <row r="156" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P156" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="Q156" s="28"/>
-      <c r="R156" s="28"/>
-      <c r="S156" s="28"/>
-      <c r="U156" s="26"/>
+      <c r="Q156" s="30"/>
+      <c r="R156" s="30"/>
+      <c r="S156" s="30"/>
+      <c r="U156" s="31"/>
       <c r="V156" t="s">
         <v>429</v>
       </c>
@@ -5943,8 +5947,8 @@
         <v>431</v>
       </c>
     </row>
-    <row r="157" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P157" s="31" t="s">
+    <row r="157" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P157" s="28" t="s">
         <v>172</v>
       </c>
       <c r="Q157" t="s">
@@ -5969,8 +5973,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P158" s="31"/>
+    <row r="158" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P158" s="28"/>
       <c r="Q158" t="s">
         <v>47</v>
       </c>
@@ -5991,8 +5995,8 @@
         <v>427</v>
       </c>
     </row>
-    <row r="159" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P159" s="31"/>
+    <row r="159" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P159" s="28"/>
       <c r="Q159" t="s">
         <v>205</v>
       </c>
@@ -6013,8 +6017,8 @@
         <v>428</v>
       </c>
     </row>
-    <row r="160" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P160" s="31"/>
+    <row r="160" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P160" s="28"/>
       <c r="Q160" t="s">
         <v>206</v>
       </c>
@@ -6024,7 +6028,7 @@
       <c r="S160" t="s">
         <v>482</v>
       </c>
-      <c r="U160" s="30" t="s">
+      <c r="U160" s="32" t="s">
         <v>192</v>
       </c>
       <c r="V160" t="s">
@@ -6037,8 +6041,8 @@
         <v>378</v>
       </c>
     </row>
-    <row r="161" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P161" s="31"/>
+    <row r="161" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P161" s="28"/>
       <c r="Q161" t="s">
         <v>207</v>
       </c>
@@ -6048,63 +6052,63 @@
       <c r="S161" t="s">
         <v>304</v>
       </c>
-      <c r="U161" s="30"/>
-      <c r="V161" s="35" t="s">
+      <c r="U161" s="32"/>
+      <c r="V161" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="W161" s="35" t="s">
+      <c r="W161" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X161" s="35" t="s">
+      <c r="X161" s="26" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="162" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P162" s="31"/>
-      <c r="Q162" s="35" t="s">
+    <row r="162" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P162" s="28"/>
+      <c r="Q162" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="R162" s="35" t="s">
+      <c r="R162" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="S162" s="35" t="s">
+      <c r="S162" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="U162" s="30"/>
-      <c r="V162" s="35" t="s">
+      <c r="U162" s="32"/>
+      <c r="V162" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="W162" s="35" t="s">
+      <c r="W162" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X162" s="35" t="s">
+      <c r="X162" s="26" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="163" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P163" s="31"/>
-      <c r="Q163" s="35" t="s">
+    <row r="163" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P163" s="28"/>
+      <c r="Q163" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="R163" s="35" t="s">
+      <c r="R163" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="S163" s="35" t="s">
+      <c r="S163" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="U163" s="30"/>
-      <c r="V163" s="35" t="s">
+      <c r="U163" s="32"/>
+      <c r="V163" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="W163" s="35" t="s">
+      <c r="W163" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X163" s="35" t="s">
+      <c r="X163" s="26" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="164" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P164" s="31"/>
+    <row r="164" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P164" s="28"/>
       <c r="Q164" t="s">
         <v>370</v>
       </c>
@@ -6114,7 +6118,7 @@
       <c r="S164" t="s">
         <v>368</v>
       </c>
-      <c r="U164" s="30"/>
+      <c r="U164" s="32"/>
       <c r="V164" t="s">
         <v>258</v>
       </c>
@@ -6125,8 +6129,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="165" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P165" s="31"/>
+    <row r="165" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P165" s="28"/>
       <c r="Q165" t="s">
         <v>371</v>
       </c>
@@ -6136,19 +6140,19 @@
       <c r="S165" t="s">
         <v>369</v>
       </c>
-      <c r="U165" s="30"/>
-      <c r="V165" s="35" t="s">
+      <c r="U165" s="32"/>
+      <c r="V165" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="W165" s="35" t="s">
+      <c r="W165" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X165" s="35" t="s">
+      <c r="X165" s="26" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="166" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P166" s="31"/>
+    <row r="166" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P166" s="28"/>
       <c r="Q166" t="s">
         <v>242</v>
       </c>
@@ -6158,19 +6162,19 @@
       <c r="S166" t="s">
         <v>347</v>
       </c>
-      <c r="U166" s="30"/>
-      <c r="V166" s="35" t="s">
+      <c r="U166" s="32"/>
+      <c r="V166" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="W166" s="35" t="s">
+      <c r="W166" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X166" s="35" t="s">
+      <c r="X166" s="26" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="167" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P167" s="31"/>
+    <row r="167" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P167" s="28"/>
       <c r="Q167" t="s">
         <v>147</v>
       </c>
@@ -6180,19 +6184,19 @@
       <c r="S167" t="s">
         <v>361</v>
       </c>
-      <c r="U167" s="30"/>
-      <c r="V167" s="35" t="s">
+      <c r="U167" s="32"/>
+      <c r="V167" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="W167" s="35" t="s">
+      <c r="W167" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X167" s="35" t="s">
+      <c r="X167" s="26" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="168" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P168" s="31"/>
+    <row r="168" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P168" s="28"/>
       <c r="Q168" t="s">
         <v>365</v>
       </c>
@@ -6202,7 +6206,7 @@
       <c r="S168" t="s">
         <v>364</v>
       </c>
-      <c r="U168" s="30"/>
+      <c r="U168" s="32"/>
       <c r="V168" t="s">
         <v>262</v>
       </c>
@@ -6213,8 +6217,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="169" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P169" s="31"/>
+    <row r="169" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P169" s="28"/>
       <c r="Q169" t="s">
         <v>366</v>
       </c>
@@ -6224,19 +6228,19 @@
       <c r="S169" t="s">
         <v>363</v>
       </c>
-      <c r="U169" s="30"/>
-      <c r="V169" s="35" t="s">
+      <c r="U169" s="32"/>
+      <c r="V169" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="W169" s="35" t="s">
+      <c r="W169" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X169" s="35" t="s">
+      <c r="X169" s="26" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="170" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P170" s="31"/>
+    <row r="170" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P170" s="28"/>
       <c r="Q170" t="s">
         <v>486</v>
       </c>
@@ -6246,19 +6250,19 @@
       <c r="S170" t="s">
         <v>367</v>
       </c>
-      <c r="U170" s="30"/>
-      <c r="V170" s="35" t="s">
+      <c r="U170" s="32"/>
+      <c r="V170" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="W170" s="35" t="s">
+      <c r="W170" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X170" s="35" t="s">
+      <c r="X170" s="26" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="171" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P171" s="31"/>
+    <row r="171" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P171" s="28"/>
       <c r="Q171" t="s">
         <v>272</v>
       </c>
@@ -6268,29 +6272,29 @@
       <c r="S171" t="s">
         <v>487</v>
       </c>
-      <c r="U171" s="30"/>
-      <c r="V171" s="35" t="s">
+      <c r="U171" s="32"/>
+      <c r="V171" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="W171" s="35" t="s">
+      <c r="W171" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X171" s="35" t="s">
+      <c r="X171" s="26" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="172" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P172" s="31"/>
-      <c r="Q172" s="35" t="s">
+    <row r="172" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P172" s="28"/>
+      <c r="Q172" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="R172" s="35" t="s">
+      <c r="R172" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="S172" s="35" t="s">
+      <c r="S172" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="U172" s="30"/>
+      <c r="U172" s="32"/>
       <c r="V172" t="s">
         <v>266</v>
       </c>
@@ -6301,30 +6305,30 @@
         <v>391</v>
       </c>
     </row>
-    <row r="173" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P173" s="31"/>
-      <c r="Q173" s="35" t="s">
+    <row r="173" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P173" s="28"/>
+      <c r="Q173" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="R173" s="35" t="s">
+      <c r="R173" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="S173" s="35" t="s">
+      <c r="S173" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="U173" s="30"/>
-      <c r="V173" s="35" t="s">
+      <c r="U173" s="32"/>
+      <c r="V173" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="W173" s="35" t="s">
+      <c r="W173" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X173" s="35" t="s">
+      <c r="X173" s="26" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="174" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P174" s="31"/>
+    <row r="174" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P174" s="28"/>
       <c r="Q174" t="s">
         <v>23</v>
       </c>
@@ -6334,18 +6338,18 @@
       <c r="S174" t="s">
         <v>345</v>
       </c>
-      <c r="U174" s="30"/>
-      <c r="V174" s="35" t="s">
+      <c r="U174" s="32"/>
+      <c r="V174" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="W174" s="35" t="s">
+      <c r="W174" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X174" s="35" t="s">
+      <c r="X174" s="26" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="175" spans="16:24" x14ac:dyDescent="0.45">
+    <row r="175" spans="16:24" x14ac:dyDescent="0.25">
       <c r="P175" s="9" t="s">
         <v>457</v>
       </c>
@@ -6358,19 +6362,19 @@
       <c r="S175" t="s">
         <v>461</v>
       </c>
-      <c r="U175" s="30"/>
-      <c r="V175" s="35" t="s">
+      <c r="U175" s="32"/>
+      <c r="V175" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="W175" s="35" t="s">
+      <c r="W175" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X175" s="35" t="s">
+      <c r="X175" s="26" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="176" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P176" s="26" t="s">
+    <row r="176" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P176" s="31" t="s">
         <v>168</v>
       </c>
       <c r="Q176" t="s">
@@ -6382,7 +6386,7 @@
       <c r="S176" t="s">
         <v>314</v>
       </c>
-      <c r="U176" s="30"/>
+      <c r="U176" s="32"/>
       <c r="V176" t="s">
         <v>279</v>
       </c>
@@ -6393,8 +6397,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="177" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P177" s="26"/>
+    <row r="177" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P177" s="31"/>
       <c r="Q177" t="s">
         <v>211</v>
       </c>
@@ -6404,7 +6408,7 @@
       <c r="S177" t="s">
         <v>315</v>
       </c>
-      <c r="U177" s="30"/>
+      <c r="U177" s="32"/>
       <c r="V177" t="s">
         <v>280</v>
       </c>
@@ -6415,7 +6419,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="178" spans="16:24" x14ac:dyDescent="0.45">
+    <row r="178" spans="16:24" x14ac:dyDescent="0.25">
       <c r="P178" s="27" t="s">
         <v>191</v>
       </c>
@@ -6428,7 +6432,7 @@
       <c r="S178" t="s">
         <v>311</v>
       </c>
-      <c r="U178" s="30"/>
+      <c r="U178" s="32"/>
       <c r="V178" t="s">
         <v>281</v>
       </c>
@@ -6439,7 +6443,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="179" spans="16:24" x14ac:dyDescent="0.45">
+    <row r="179" spans="16:24" x14ac:dyDescent="0.25">
       <c r="P179" s="27"/>
       <c r="Q179" t="s">
         <v>251</v>
@@ -6450,7 +6454,7 @@
       <c r="S179" t="s">
         <v>356</v>
       </c>
-      <c r="U179" s="30"/>
+      <c r="U179" s="32"/>
       <c r="V179" t="s">
         <v>282</v>
       </c>
@@ -6461,8 +6465,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="180" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P180" s="30" t="s">
+    <row r="180" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P180" s="32" t="s">
         <v>192</v>
       </c>
       <c r="Q180" t="s">
@@ -6474,7 +6478,7 @@
       <c r="S180" t="s">
         <v>316</v>
       </c>
-      <c r="U180" s="30"/>
+      <c r="U180" s="32"/>
       <c r="V180" t="s">
         <v>283</v>
       </c>
@@ -6485,18 +6489,18 @@
         <v>399</v>
       </c>
     </row>
-    <row r="181" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P181" s="30"/>
-      <c r="Q181" s="35" t="s">
+    <row r="181" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P181" s="32"/>
+      <c r="Q181" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="R181" s="35" t="s">
+      <c r="R181" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S181" s="35" t="s">
+      <c r="S181" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="U181" s="30"/>
+      <c r="U181" s="32"/>
       <c r="V181" t="s">
         <v>284</v>
       </c>
@@ -6507,18 +6511,18 @@
         <v>400</v>
       </c>
     </row>
-    <row r="182" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P182" s="30"/>
-      <c r="Q182" s="35" t="s">
+    <row r="182" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P182" s="32"/>
+      <c r="Q182" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="R182" s="35" t="s">
+      <c r="R182" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S182" s="35" t="s">
+      <c r="S182" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="U182" s="30"/>
+      <c r="U182" s="32"/>
       <c r="V182" t="s">
         <v>278</v>
       </c>
@@ -6529,8 +6533,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="183" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P183" s="30"/>
+    <row r="183" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P183" s="32"/>
       <c r="Q183" t="s">
         <v>213</v>
       </c>
@@ -6540,7 +6544,7 @@
       <c r="S183" t="s">
         <v>319</v>
       </c>
-      <c r="U183" s="30"/>
+      <c r="U183" s="32"/>
       <c r="V183" t="s">
         <v>455</v>
       </c>
@@ -6551,15 +6555,15 @@
         <v>456</v>
       </c>
     </row>
-    <row r="184" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P184" s="30"/>
-      <c r="Q184" s="35" t="s">
+    <row r="184" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P184" s="32"/>
+      <c r="Q184" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="R184" s="35" t="s">
+      <c r="R184" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="S184" s="35" t="s">
+      <c r="S184" s="26" t="s">
         <v>320</v>
       </c>
       <c r="U184" s="19"/>
@@ -6567,15 +6571,15 @@
       <c r="W184" s="19"/>
       <c r="X184" s="19"/>
     </row>
-    <row r="185" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P185" s="30"/>
-      <c r="Q185" s="35" t="s">
+    <row r="185" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P185" s="32"/>
+      <c r="Q185" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="R185" s="35" t="s">
+      <c r="R185" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="S185" s="35" t="s">
+      <c r="S185" s="26" t="s">
         <v>321</v>
       </c>
       <c r="U185" s="29" t="s">
@@ -6585,8 +6589,8 @@
       <c r="W185" s="29"/>
       <c r="X185" s="29"/>
     </row>
-    <row r="186" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P186" s="30"/>
+    <row r="186" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P186" s="32"/>
       <c r="Q186" t="s">
         <v>216</v>
       </c>
@@ -6596,7 +6600,7 @@
       <c r="S186" t="s">
         <v>323</v>
       </c>
-      <c r="U186" s="31" t="s">
+      <c r="U186" s="28" t="s">
         <v>172</v>
       </c>
       <c r="V186" t="s">
@@ -6609,18 +6613,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="187" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P187" s="30"/>
-      <c r="Q187" s="35" t="s">
+    <row r="187" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P187" s="32"/>
+      <c r="Q187" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="R187" s="35" t="s">
+      <c r="R187" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S187" s="35" t="s">
+      <c r="S187" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="U187" s="31"/>
+      <c r="U187" s="28"/>
       <c r="V187" t="s">
         <v>47</v>
       </c>
@@ -6631,18 +6635,18 @@
         <v>182</v>
       </c>
     </row>
-    <row r="188" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P188" s="30"/>
-      <c r="Q188" s="35" t="s">
+    <row r="188" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P188" s="32"/>
+      <c r="Q188" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="R188" s="35" t="s">
+      <c r="R188" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S188" s="35" t="s">
+      <c r="S188" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="U188" s="31"/>
+      <c r="U188" s="28"/>
       <c r="V188" s="3" t="s">
         <v>444</v>
       </c>
@@ -6653,8 +6657,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="189" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P189" s="30"/>
+    <row r="189" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P189" s="32"/>
       <c r="Q189" t="s">
         <v>230</v>
       </c>
@@ -6664,7 +6668,7 @@
       <c r="S189" t="s">
         <v>334</v>
       </c>
-      <c r="U189" s="31"/>
+      <c r="U189" s="28"/>
       <c r="V189" t="s">
         <v>445</v>
       </c>
@@ -6675,18 +6679,18 @@
         <v>376</v>
       </c>
     </row>
-    <row r="190" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P190" s="30"/>
-      <c r="Q190" s="35" t="s">
+    <row r="190" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P190" s="32"/>
+      <c r="Q190" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="R190" s="35" t="s">
+      <c r="R190" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="S190" s="35" t="s">
+      <c r="S190" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="U190" s="31"/>
+      <c r="U190" s="28"/>
       <c r="V190" t="s">
         <v>205</v>
       </c>
@@ -6697,18 +6701,18 @@
         <v>310</v>
       </c>
     </row>
-    <row r="191" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P191" s="30"/>
-      <c r="Q191" s="35" t="s">
+    <row r="191" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P191" s="32"/>
+      <c r="Q191" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="R191" s="35" t="s">
+      <c r="R191" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="S191" s="35" t="s">
+      <c r="S191" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="U191" s="31"/>
+      <c r="U191" s="28"/>
       <c r="V191" t="s">
         <v>207</v>
       </c>
@@ -6719,30 +6723,30 @@
         <v>304</v>
       </c>
     </row>
-    <row r="192" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P192" s="30"/>
-      <c r="Q192" s="35" t="s">
+    <row r="192" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P192" s="32"/>
+      <c r="Q192" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="R192" s="35" t="s">
+      <c r="R192" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="S192" s="35" t="s">
+      <c r="S192" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="U192" s="31"/>
-      <c r="V192" s="35" t="s">
+      <c r="U192" s="28"/>
+      <c r="V192" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="W192" s="35" t="s">
+      <c r="W192" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X192" s="35" t="s">
+      <c r="X192" s="26" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="193" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P193" s="30"/>
+    <row r="193" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P193" s="32"/>
       <c r="Q193" t="s">
         <v>233</v>
       </c>
@@ -6752,29 +6756,29 @@
       <c r="S193" t="s">
         <v>338</v>
       </c>
-      <c r="U193" s="31"/>
-      <c r="V193" s="35" t="s">
+      <c r="U193" s="28"/>
+      <c r="V193" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="W193" s="35" t="s">
+      <c r="W193" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X193" s="35" t="s">
+      <c r="X193" s="26" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="194" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P194" s="30"/>
-      <c r="Q194" s="35" t="s">
+    <row r="194" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P194" s="32"/>
+      <c r="Q194" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="R194" s="35" t="s">
+      <c r="R194" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S194" s="35" t="s">
+      <c r="S194" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="U194" s="31"/>
+      <c r="U194" s="28"/>
       <c r="V194" t="s">
         <v>206</v>
       </c>
@@ -6785,31 +6789,31 @@
         <v>479</v>
       </c>
     </row>
-    <row r="195" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P195" s="30"/>
-      <c r="Q195" s="35" t="s">
+    <row r="195" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P195" s="32"/>
+      <c r="Q195" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="R195" s="35" t="s">
+      <c r="R195" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S195" s="35" t="s">
+      <c r="S195" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="U195" s="31"/>
-    </row>
-    <row r="196" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P196" s="30"/>
-      <c r="Q196" s="35" t="s">
+      <c r="U195" s="28"/>
+    </row>
+    <row r="196" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P196" s="32"/>
+      <c r="Q196" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="R196" s="35" t="s">
+      <c r="R196" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S196" s="35" t="s">
+      <c r="S196" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="U196" s="31"/>
+      <c r="U196" s="28"/>
       <c r="V196" t="s">
         <v>432</v>
       </c>
@@ -6817,8 +6821,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="197" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P197" s="30"/>
+    <row r="197" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P197" s="32"/>
       <c r="Q197" t="s">
         <v>22</v>
       </c>
@@ -6828,7 +6832,7 @@
       <c r="S197" t="s">
         <v>343</v>
       </c>
-      <c r="U197" s="31"/>
+      <c r="U197" s="28"/>
       <c r="V197" t="s">
         <v>23</v>
       </c>
@@ -6839,8 +6843,8 @@
         <v>345</v>
       </c>
     </row>
-    <row r="198" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P198" s="30"/>
+    <row r="198" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P198" s="32"/>
       <c r="Q198" t="s">
         <v>21</v>
       </c>
@@ -6850,7 +6854,7 @@
       <c r="S198" t="s">
         <v>344</v>
       </c>
-      <c r="U198" s="26" t="s">
+      <c r="U198" s="31" t="s">
         <v>168</v>
       </c>
       <c r="V198" t="s">
@@ -6863,18 +6867,18 @@
         <v>383</v>
       </c>
     </row>
-    <row r="199" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P199" s="30"/>
-      <c r="Q199" s="35" t="s">
+    <row r="199" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P199" s="32"/>
+      <c r="Q199" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="R199" s="35" t="s">
+      <c r="R199" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="S199" s="35" t="s">
+      <c r="S199" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="U199" s="26"/>
+      <c r="U199" s="31"/>
       <c r="V199" t="s">
         <v>429</v>
       </c>
@@ -6885,7 +6889,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="200" spans="16:24" x14ac:dyDescent="0.45">
+    <row r="200" spans="16:24" x14ac:dyDescent="0.25">
       <c r="U200" s="7" t="s">
         <v>191</v>
       </c>
@@ -6899,14 +6903,14 @@
         <v>311</v>
       </c>
     </row>
-    <row r="201" spans="16:24" x14ac:dyDescent="0.45">
+    <row r="201" spans="16:24" x14ac:dyDescent="0.25">
       <c r="P201" s="29" t="s">
         <v>470</v>
       </c>
       <c r="Q201" s="29"/>
       <c r="R201" s="29"/>
       <c r="S201" s="29"/>
-      <c r="U201" s="30" t="s">
+      <c r="U201" s="32" t="s">
         <v>192</v>
       </c>
       <c r="V201" t="s">
@@ -6919,8 +6923,8 @@
         <v>378</v>
       </c>
     </row>
-    <row r="202" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P202" s="31" t="s">
+    <row r="202" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P202" s="28" t="s">
         <v>172</v>
       </c>
       <c r="Q202" t="s">
@@ -6932,19 +6936,19 @@
       <c r="S202" t="s">
         <v>181</v>
       </c>
-      <c r="U202" s="30"/>
-      <c r="V202" s="35" t="s">
+      <c r="U202" s="32"/>
+      <c r="V202" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="W202" s="35" t="s">
+      <c r="W202" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X202" s="35" t="s">
+      <c r="X202" s="26" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="203" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P203" s="31"/>
+    <row r="203" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P203" s="28"/>
       <c r="Q203" t="s">
         <v>47</v>
       </c>
@@ -6954,19 +6958,19 @@
       <c r="S203" t="s">
         <v>182</v>
       </c>
-      <c r="U203" s="30"/>
-      <c r="V203" s="35" t="s">
+      <c r="U203" s="32"/>
+      <c r="V203" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="W203" s="35" t="s">
+      <c r="W203" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X203" s="35" t="s">
+      <c r="X203" s="26" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="204" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P204" s="31"/>
+    <row r="204" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P204" s="28"/>
       <c r="Q204" t="s">
         <v>205</v>
       </c>
@@ -6976,19 +6980,19 @@
       <c r="S204" t="s">
         <v>310</v>
       </c>
-      <c r="U204" s="30"/>
-      <c r="V204" s="35" t="s">
+      <c r="U204" s="32"/>
+      <c r="V204" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="W204" s="35" t="s">
+      <c r="W204" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X204" s="35" t="s">
+      <c r="X204" s="26" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="205" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P205" s="31"/>
+    <row r="205" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P205" s="28"/>
       <c r="Q205" t="s">
         <v>206</v>
       </c>
@@ -6998,7 +7002,7 @@
       <c r="S205" t="s">
         <v>309</v>
       </c>
-      <c r="U205" s="30"/>
+      <c r="U205" s="32"/>
       <c r="V205" t="s">
         <v>258</v>
       </c>
@@ -7009,8 +7013,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="206" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P206" s="31"/>
+    <row r="206" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P206" s="28"/>
       <c r="Q206" t="s">
         <v>207</v>
       </c>
@@ -7020,63 +7024,63 @@
       <c r="S206" t="s">
         <v>304</v>
       </c>
-      <c r="U206" s="30"/>
-      <c r="V206" s="35" t="s">
+      <c r="U206" s="32"/>
+      <c r="V206" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="W206" s="35" t="s">
+      <c r="W206" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X206" s="35" t="s">
+      <c r="X206" s="26" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="207" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P207" s="31"/>
-      <c r="Q207" s="35" t="s">
+    <row r="207" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P207" s="28"/>
+      <c r="Q207" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="R207" s="35" t="s">
+      <c r="R207" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="S207" s="35" t="s">
+      <c r="S207" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="U207" s="30"/>
-      <c r="V207" s="35" t="s">
+      <c r="U207" s="32"/>
+      <c r="V207" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="W207" s="35" t="s">
+      <c r="W207" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X207" s="35" t="s">
+      <c r="X207" s="26" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="208" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P208" s="31"/>
-      <c r="Q208" s="35" t="s">
+    <row r="208" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P208" s="28"/>
+      <c r="Q208" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="R208" s="35" t="s">
+      <c r="R208" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="S208" s="35" t="s">
+      <c r="S208" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="U208" s="30"/>
-      <c r="V208" s="35" t="s">
+      <c r="U208" s="32"/>
+      <c r="V208" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="W208" s="35" t="s">
+      <c r="W208" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X208" s="35" t="s">
+      <c r="X208" s="26" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="209" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P209" s="31"/>
+    <row r="209" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P209" s="28"/>
       <c r="Q209" t="s">
         <v>372</v>
       </c>
@@ -7086,7 +7090,7 @@
       <c r="S209" t="s">
         <v>374</v>
       </c>
-      <c r="U209" s="30"/>
+      <c r="U209" s="32"/>
       <c r="V209" t="s">
         <v>262</v>
       </c>
@@ -7097,8 +7101,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="210" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P210" s="31"/>
+    <row r="210" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P210" s="28"/>
       <c r="Q210" t="s">
         <v>275</v>
       </c>
@@ -7108,19 +7112,19 @@
       <c r="S210" t="s">
         <v>492</v>
       </c>
-      <c r="U210" s="30"/>
-      <c r="V210" s="35" t="s">
+      <c r="U210" s="32"/>
+      <c r="V210" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="W210" s="35" t="s">
+      <c r="W210" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X210" s="35" t="s">
+      <c r="X210" s="26" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="211" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P211" s="31"/>
+    <row r="211" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P211" s="28"/>
       <c r="Q211" t="s">
         <v>147</v>
       </c>
@@ -7130,19 +7134,19 @@
       <c r="S211" t="s">
         <v>346</v>
       </c>
-      <c r="U211" s="30"/>
-      <c r="V211" s="35" t="s">
+      <c r="U211" s="32"/>
+      <c r="V211" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="W211" s="35" t="s">
+      <c r="W211" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X211" s="35" t="s">
+      <c r="X211" s="26" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="212" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P212" s="31"/>
+    <row r="212" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P212" s="28"/>
       <c r="Q212" t="s">
         <v>251</v>
       </c>
@@ -7152,26 +7156,26 @@
       <c r="S212" t="s">
         <v>356</v>
       </c>
-      <c r="U212" s="30"/>
-      <c r="V212" s="35" t="s">
+      <c r="U212" s="32"/>
+      <c r="V212" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="W212" s="35" t="s">
+      <c r="W212" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X212" s="35" t="s">
+      <c r="X212" s="26" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="213" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P213" s="31"/>
+    <row r="213" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P213" s="28"/>
       <c r="Q213" t="s">
         <v>272</v>
       </c>
       <c r="R213" t="s">
         <v>238</v>
       </c>
-      <c r="U213" s="30"/>
+      <c r="U213" s="32"/>
       <c r="V213" t="s">
         <v>266</v>
       </c>
@@ -7182,8 +7186,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="214" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P214" s="31"/>
+    <row r="214" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P214" s="28"/>
       <c r="Q214" t="s">
         <v>493</v>
       </c>
@@ -7193,63 +7197,63 @@
       <c r="S214" t="s">
         <v>494</v>
       </c>
-      <c r="U214" s="30"/>
-      <c r="V214" s="35" t="s">
+      <c r="U214" s="32"/>
+      <c r="V214" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="W214" s="35" t="s">
+      <c r="W214" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X214" s="35" t="s">
+      <c r="X214" s="26" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="215" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P215" s="31"/>
-      <c r="Q215" s="35" t="s">
+    <row r="215" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P215" s="28"/>
+      <c r="Q215" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="R215" s="35" t="s">
+      <c r="R215" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="S215" s="35" t="s">
+      <c r="S215" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="U215" s="30"/>
-      <c r="V215" s="35" t="s">
+      <c r="U215" s="32"/>
+      <c r="V215" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="W215" s="35" t="s">
+      <c r="W215" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X215" s="35" t="s">
+      <c r="X215" s="26" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="216" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P216" s="31"/>
-      <c r="Q216" s="35" t="s">
+    <row r="216" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P216" s="28"/>
+      <c r="Q216" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="R216" s="35" t="s">
+      <c r="R216" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="S216" s="35" t="s">
+      <c r="S216" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="U216" s="30"/>
-      <c r="V216" s="35" t="s">
+      <c r="U216" s="32"/>
+      <c r="V216" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="W216" s="35" t="s">
+      <c r="W216" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X216" s="35" t="s">
+      <c r="X216" s="26" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="217" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P217" s="31"/>
+    <row r="217" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P217" s="28"/>
       <c r="Q217" t="s">
         <v>274</v>
       </c>
@@ -7259,7 +7263,7 @@
       <c r="S217" t="s">
         <v>360</v>
       </c>
-      <c r="U217" s="30"/>
+      <c r="U217" s="32"/>
       <c r="V217" t="s">
         <v>279</v>
       </c>
@@ -7270,8 +7274,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="218" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P218" s="31"/>
+    <row r="218" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P218" s="28"/>
       <c r="Q218" t="s">
         <v>23</v>
       </c>
@@ -7281,7 +7285,7 @@
       <c r="S218" t="s">
         <v>345</v>
       </c>
-      <c r="U218" s="30"/>
+      <c r="U218" s="32"/>
       <c r="V218" t="s">
         <v>280</v>
       </c>
@@ -7292,7 +7296,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="219" spans="16:24" x14ac:dyDescent="0.45">
+    <row r="219" spans="16:24" x14ac:dyDescent="0.25">
       <c r="P219" s="20" t="s">
         <v>457</v>
       </c>
@@ -7305,7 +7309,7 @@
       <c r="S219" t="s">
         <v>461</v>
       </c>
-      <c r="U219" s="30"/>
+      <c r="U219" s="32"/>
       <c r="V219" t="s">
         <v>281</v>
       </c>
@@ -7316,8 +7320,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="220" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P220" s="26" t="s">
+    <row r="220" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P220" s="31" t="s">
         <v>168</v>
       </c>
       <c r="Q220" t="s">
@@ -7329,7 +7333,7 @@
       <c r="S220" t="s">
         <v>314</v>
       </c>
-      <c r="U220" s="30"/>
+      <c r="U220" s="32"/>
       <c r="V220" t="s">
         <v>282</v>
       </c>
@@ -7340,8 +7344,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="221" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P221" s="26"/>
+    <row r="221" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P221" s="31"/>
       <c r="Q221" t="s">
         <v>211</v>
       </c>
@@ -7351,7 +7355,7 @@
       <c r="S221" t="s">
         <v>315</v>
       </c>
-      <c r="U221" s="30"/>
+      <c r="U221" s="32"/>
       <c r="V221" t="s">
         <v>283</v>
       </c>
@@ -7362,7 +7366,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="222" spans="16:24" x14ac:dyDescent="0.45">
+    <row r="222" spans="16:24" x14ac:dyDescent="0.25">
       <c r="P222" s="7" t="s">
         <v>191</v>
       </c>
@@ -7375,7 +7379,7 @@
       <c r="S222" t="s">
         <v>311</v>
       </c>
-      <c r="U222" s="30"/>
+      <c r="U222" s="32"/>
       <c r="V222" t="s">
         <v>284</v>
       </c>
@@ -7386,8 +7390,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="223" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P223" s="30" t="s">
+    <row r="223" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P223" s="32" t="s">
         <v>192</v>
       </c>
       <c r="Q223" t="s">
@@ -7399,7 +7403,7 @@
       <c r="S223" t="s">
         <v>316</v>
       </c>
-      <c r="U223" s="30"/>
+      <c r="U223" s="32"/>
       <c r="V223" t="s">
         <v>278</v>
       </c>
@@ -7410,18 +7414,18 @@
         <v>401</v>
       </c>
     </row>
-    <row r="224" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P224" s="30"/>
-      <c r="Q224" s="35" t="s">
+    <row r="224" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P224" s="32"/>
+      <c r="Q224" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="R224" s="35" t="s">
+      <c r="R224" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S224" s="35" t="s">
+      <c r="S224" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="U224" s="30"/>
+      <c r="U224" s="32"/>
       <c r="V224" t="s">
         <v>455</v>
       </c>
@@ -7432,15 +7436,15 @@
         <v>456</v>
       </c>
     </row>
-    <row r="225" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P225" s="30"/>
-      <c r="Q225" s="35" t="s">
+    <row r="225" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P225" s="32"/>
+      <c r="Q225" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="R225" s="35" t="s">
+      <c r="R225" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="S225" s="35" t="s">
+      <c r="S225" s="26" t="s">
         <v>318</v>
       </c>
       <c r="U225" s="19"/>
@@ -7448,8 +7452,8 @@
       <c r="W225" s="19"/>
       <c r="X225" s="19"/>
     </row>
-    <row r="226" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P226" s="30"/>
+    <row r="226" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P226" s="32"/>
       <c r="Q226" t="s">
         <v>213</v>
       </c>
@@ -7459,25 +7463,25 @@
       <c r="S226" t="s">
         <v>319</v>
       </c>
-      <c r="U226" s="28" t="s">
+      <c r="U226" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="V226" s="28"/>
-      <c r="W226" s="28"/>
-      <c r="X226" s="28"/>
-    </row>
-    <row r="227" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P227" s="30"/>
-      <c r="Q227" s="35" t="s">
+      <c r="V226" s="30"/>
+      <c r="W226" s="30"/>
+      <c r="X226" s="30"/>
+    </row>
+    <row r="227" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P227" s="32"/>
+      <c r="Q227" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="R227" s="35" t="s">
+      <c r="R227" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="S227" s="35" t="s">
+      <c r="S227" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="U227" s="31" t="s">
+      <c r="U227" s="28" t="s">
         <v>172</v>
       </c>
       <c r="V227" t="s">
@@ -7490,18 +7494,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="228" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P228" s="30"/>
-      <c r="Q228" s="35" t="s">
+    <row r="228" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P228" s="32"/>
+      <c r="Q228" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="R228" s="35" t="s">
+      <c r="R228" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="S228" s="35" t="s">
+      <c r="S228" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="U228" s="31"/>
+      <c r="U228" s="28"/>
       <c r="V228" t="s">
         <v>47</v>
       </c>
@@ -7512,8 +7516,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="229" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P229" s="30"/>
+    <row r="229" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P229" s="32"/>
       <c r="Q229" t="s">
         <v>216</v>
       </c>
@@ -7523,7 +7527,7 @@
       <c r="S229" t="s">
         <v>323</v>
       </c>
-      <c r="U229" s="31"/>
+      <c r="U229" s="28"/>
       <c r="V229" s="3" t="s">
         <v>444</v>
       </c>
@@ -7534,18 +7538,18 @@
         <v>375</v>
       </c>
     </row>
-    <row r="230" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P230" s="30"/>
-      <c r="Q230" s="35" t="s">
+    <row r="230" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P230" s="32"/>
+      <c r="Q230" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="R230" s="35" t="s">
+      <c r="R230" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S230" s="35" t="s">
+      <c r="S230" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="U230" s="31"/>
+      <c r="U230" s="28"/>
       <c r="V230" t="s">
         <v>445</v>
       </c>
@@ -7556,18 +7560,18 @@
         <v>376</v>
       </c>
     </row>
-    <row r="231" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P231" s="30"/>
-      <c r="Q231" s="35" t="s">
+    <row r="231" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P231" s="32"/>
+      <c r="Q231" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="R231" s="35" t="s">
+      <c r="R231" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S231" s="35" t="s">
+      <c r="S231" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="U231" s="31"/>
+      <c r="U231" s="28"/>
       <c r="V231" t="s">
         <v>205</v>
       </c>
@@ -7578,8 +7582,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="232" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P232" s="30"/>
+    <row r="232" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P232" s="32"/>
       <c r="Q232" t="s">
         <v>230</v>
       </c>
@@ -7589,7 +7593,7 @@
       <c r="S232" t="s">
         <v>334</v>
       </c>
-      <c r="U232" s="31"/>
+      <c r="U232" s="28"/>
       <c r="V232" t="s">
         <v>207</v>
       </c>
@@ -7600,62 +7604,62 @@
         <v>304</v>
       </c>
     </row>
-    <row r="233" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P233" s="30"/>
-      <c r="Q233" s="35" t="s">
+    <row r="233" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P233" s="32"/>
+      <c r="Q233" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="R233" s="35" t="s">
+      <c r="R233" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="S233" s="35" t="s">
+      <c r="S233" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="U233" s="31"/>
-      <c r="V233" s="35" t="s">
+      <c r="U233" s="28"/>
+      <c r="V233" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="W233" s="35" t="s">
+      <c r="W233" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X233" s="35" t="s">
+      <c r="X233" s="26" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="234" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P234" s="30"/>
-      <c r="Q234" s="35" t="s">
+    <row r="234" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P234" s="32"/>
+      <c r="Q234" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="R234" s="35" t="s">
+      <c r="R234" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="S234" s="35" t="s">
+      <c r="S234" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="U234" s="31"/>
-      <c r="V234" s="35" t="s">
+      <c r="U234" s="28"/>
+      <c r="V234" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="W234" s="35" t="s">
+      <c r="W234" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="X234" s="35" t="s">
+      <c r="X234" s="26" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="235" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P235" s="30"/>
-      <c r="Q235" s="35" t="s">
+    <row r="235" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P235" s="32"/>
+      <c r="Q235" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="R235" s="35" t="s">
+      <c r="R235" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="S235" s="35" t="s">
+      <c r="S235" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="U235" s="31"/>
+      <c r="U235" s="28"/>
       <c r="V235" t="s">
         <v>206</v>
       </c>
@@ -7666,8 +7670,8 @@
         <v>479</v>
       </c>
     </row>
-    <row r="236" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P236" s="30"/>
+    <row r="236" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P236" s="32"/>
       <c r="Q236" t="s">
         <v>233</v>
       </c>
@@ -7677,7 +7681,7 @@
       <c r="S236" t="s">
         <v>338</v>
       </c>
-      <c r="U236" s="31"/>
+      <c r="U236" s="28"/>
       <c r="V236" t="s">
         <v>199</v>
       </c>
@@ -7688,18 +7692,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="237" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P237" s="30"/>
-      <c r="Q237" s="35" t="s">
+    <row r="237" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P237" s="32"/>
+      <c r="Q237" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="R237" s="35" t="s">
+      <c r="R237" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S237" s="35" t="s">
+      <c r="S237" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="U237" s="31"/>
+      <c r="U237" s="28"/>
       <c r="V237" t="s">
         <v>220</v>
       </c>
@@ -7710,18 +7714,18 @@
         <v>434</v>
       </c>
     </row>
-    <row r="238" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P238" s="30"/>
-      <c r="Q238" s="35" t="s">
+    <row r="238" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P238" s="32"/>
+      <c r="Q238" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="R238" s="35" t="s">
+      <c r="R238" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S238" s="35" t="s">
+      <c r="S238" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="U238" s="31"/>
+      <c r="U238" s="28"/>
       <c r="V238" t="s">
         <v>432</v>
       </c>
@@ -7729,18 +7733,18 @@
         <v>253</v>
       </c>
     </row>
-    <row r="239" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P239" s="30"/>
-      <c r="Q239" s="35" t="s">
+    <row r="239" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P239" s="32"/>
+      <c r="Q239" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="R239" s="35" t="s">
+      <c r="R239" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="S239" s="35" t="s">
+      <c r="S239" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="U239" s="26" t="s">
+      <c r="U239" s="31" t="s">
         <v>168</v>
       </c>
       <c r="V239" t="s">
@@ -7753,8 +7757,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="240" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P240" s="30"/>
+    <row r="240" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P240" s="32"/>
       <c r="Q240" t="s">
         <v>22</v>
       </c>
@@ -7764,7 +7768,7 @@
       <c r="S240" t="s">
         <v>343</v>
       </c>
-      <c r="U240" s="26"/>
+      <c r="U240" s="31"/>
       <c r="V240" t="s">
         <v>429</v>
       </c>
@@ -7775,8 +7779,8 @@
         <v>430</v>
       </c>
     </row>
-    <row r="241" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P241" s="30"/>
+    <row r="241" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P241" s="32"/>
       <c r="Q241" t="s">
         <v>21</v>
       </c>
@@ -7799,18 +7803,18 @@
         <v>311</v>
       </c>
     </row>
-    <row r="242" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="P242" s="30"/>
-      <c r="Q242" s="35" t="s">
+    <row r="242" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P242" s="32"/>
+      <c r="Q242" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="R242" s="35" t="s">
+      <c r="R242" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="S242" s="35" t="s">
+      <c r="S242" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="U242" s="30" t="s">
+      <c r="U242" s="32" t="s">
         <v>192</v>
       </c>
       <c r="V242" t="s">
@@ -7823,44 +7827,44 @@
         <v>378</v>
       </c>
     </row>
-    <row r="243" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="U243" s="30"/>
-      <c r="V243" s="35" t="s">
+    <row r="243" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="U243" s="32"/>
+      <c r="V243" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="W243" s="35" t="s">
+      <c r="W243" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X243" s="35" t="s">
+      <c r="X243" s="26" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="244" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="U244" s="30"/>
-      <c r="V244" s="35" t="s">
+    <row r="244" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="U244" s="32"/>
+      <c r="V244" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="W244" s="35" t="s">
+      <c r="W244" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X244" s="35" t="s">
+      <c r="X244" s="26" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="245" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="U245" s="30"/>
-      <c r="V245" s="35" t="s">
+    <row r="245" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="U245" s="32"/>
+      <c r="V245" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="W245" s="35" t="s">
+      <c r="W245" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X245" s="35" t="s">
+      <c r="X245" s="26" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="246" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="U246" s="30"/>
+    <row r="246" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="U246" s="32"/>
       <c r="V246" t="s">
         <v>258</v>
       </c>
@@ -7871,44 +7875,44 @@
         <v>382</v>
       </c>
     </row>
-    <row r="247" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="U247" s="30"/>
-      <c r="V247" s="35" t="s">
+    <row r="247" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="U247" s="32"/>
+      <c r="V247" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="W247" s="35" t="s">
+      <c r="W247" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X247" s="35" t="s">
+      <c r="X247" s="26" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="248" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="U248" s="30"/>
-      <c r="V248" s="35" t="s">
+    <row r="248" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="U248" s="32"/>
+      <c r="V248" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="W248" s="35" t="s">
+      <c r="W248" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X248" s="35" t="s">
+      <c r="X248" s="26" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="249" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="U249" s="30"/>
-      <c r="V249" s="35" t="s">
+    <row r="249" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="U249" s="32"/>
+      <c r="V249" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="W249" s="35" t="s">
+      <c r="W249" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X249" s="35" t="s">
+      <c r="X249" s="26" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="250" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="U250" s="30"/>
+    <row r="250" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="U250" s="32"/>
       <c r="V250" t="s">
         <v>262</v>
       </c>
@@ -7919,44 +7923,44 @@
         <v>387</v>
       </c>
     </row>
-    <row r="251" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="U251" s="30"/>
-      <c r="V251" s="35" t="s">
+    <row r="251" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="U251" s="32"/>
+      <c r="V251" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="W251" s="35" t="s">
+      <c r="W251" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X251" s="35" t="s">
+      <c r="X251" s="26" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="252" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="U252" s="30"/>
-      <c r="V252" s="35" t="s">
+    <row r="252" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="U252" s="32"/>
+      <c r="V252" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="W252" s="35" t="s">
+      <c r="W252" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X252" s="35" t="s">
+      <c r="X252" s="26" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="253" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="U253" s="30"/>
-      <c r="V253" s="35" t="s">
+    <row r="253" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="U253" s="32"/>
+      <c r="V253" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="W253" s="35" t="s">
+      <c r="W253" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="X253" s="35" t="s">
+      <c r="X253" s="26" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="254" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="U254" s="30"/>
+    <row r="254" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="U254" s="32"/>
       <c r="V254" t="s">
         <v>266</v>
       </c>
@@ -7967,44 +7971,44 @@
         <v>391</v>
       </c>
     </row>
-    <row r="255" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="U255" s="30"/>
-      <c r="V255" s="35" t="s">
+    <row r="255" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="U255" s="32"/>
+      <c r="V255" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="W255" s="35" t="s">
+      <c r="W255" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X255" s="35" t="s">
+      <c r="X255" s="26" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="256" spans="16:24" x14ac:dyDescent="0.45">
-      <c r="U256" s="30"/>
-      <c r="V256" s="35" t="s">
+    <row r="256" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="U256" s="32"/>
+      <c r="V256" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="W256" s="35" t="s">
+      <c r="W256" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X256" s="35" t="s">
+      <c r="X256" s="26" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="257" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U257" s="30"/>
-      <c r="V257" s="35" t="s">
+    <row r="257" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U257" s="32"/>
+      <c r="V257" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="W257" s="35" t="s">
+      <c r="W257" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="X257" s="35" t="s">
+      <c r="X257" s="26" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="258" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U258" s="30"/>
+    <row r="258" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U258" s="32"/>
       <c r="V258" t="s">
         <v>279</v>
       </c>
@@ -8015,8 +8019,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="259" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U259" s="30"/>
+    <row r="259" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U259" s="32"/>
       <c r="V259" t="s">
         <v>280</v>
       </c>
@@ -8027,8 +8031,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="260" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U260" s="30"/>
+    <row r="260" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U260" s="32"/>
       <c r="V260" t="s">
         <v>281</v>
       </c>
@@ -8039,8 +8043,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="261" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U261" s="30"/>
+    <row r="261" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U261" s="32"/>
       <c r="V261" t="s">
         <v>282</v>
       </c>
@@ -8051,8 +8055,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="262" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U262" s="30"/>
+    <row r="262" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U262" s="32"/>
       <c r="V262" t="s">
         <v>283</v>
       </c>
@@ -8063,8 +8067,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="263" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U263" s="30"/>
+    <row r="263" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U263" s="32"/>
       <c r="V263" t="s">
         <v>284</v>
       </c>
@@ -8075,8 +8079,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="264" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U264" s="30"/>
+    <row r="264" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U264" s="32"/>
       <c r="V264" t="s">
         <v>278</v>
       </c>
@@ -8087,8 +8091,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="265" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U265" s="30"/>
+    <row r="265" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U265" s="32"/>
       <c r="V265" t="s">
         <v>455</v>
       </c>
@@ -8100,16 +8104,51 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="V230:X232">
-    <sortCondition ref="V230:V232"/>
+  <sortState ref="V231:X233">
+    <sortCondition ref="V231:V233"/>
   </sortState>
   <mergeCells count="63">
-    <mergeCell ref="U106:U108"/>
-    <mergeCell ref="U83:U104"/>
-    <mergeCell ref="U185:X185"/>
-    <mergeCell ref="U136:X136"/>
-    <mergeCell ref="U137:U154"/>
-    <mergeCell ref="U157:U159"/>
+    <mergeCell ref="P220:P221"/>
+    <mergeCell ref="P176:P177"/>
+    <mergeCell ref="P178:P179"/>
+    <mergeCell ref="P156:S156"/>
+    <mergeCell ref="P201:S201"/>
+    <mergeCell ref="P180:P199"/>
+    <mergeCell ref="P202:P218"/>
+    <mergeCell ref="U242:U265"/>
+    <mergeCell ref="U201:U224"/>
+    <mergeCell ref="U227:U238"/>
+    <mergeCell ref="U239:U240"/>
+    <mergeCell ref="U198:U199"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P13:P21"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P3:P9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="K13:K21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:F11"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U82:X82"/>
+    <mergeCell ref="U55:U80"/>
+    <mergeCell ref="U52:U54"/>
+    <mergeCell ref="U39:U50"/>
+    <mergeCell ref="P45:P65"/>
+    <mergeCell ref="P68:P86"/>
+    <mergeCell ref="P67:S67"/>
+    <mergeCell ref="P114:P131"/>
+    <mergeCell ref="P136:P154"/>
+    <mergeCell ref="P92:P111"/>
     <mergeCell ref="U186:U197"/>
     <mergeCell ref="P41:P43"/>
     <mergeCell ref="U226:X226"/>
@@ -8126,47 +8165,12 @@
     <mergeCell ref="U155:U156"/>
     <mergeCell ref="P223:P242"/>
     <mergeCell ref="U109:U134"/>
-    <mergeCell ref="P45:P65"/>
-    <mergeCell ref="P68:P86"/>
-    <mergeCell ref="P67:S67"/>
-    <mergeCell ref="P114:P131"/>
-    <mergeCell ref="P136:P154"/>
-    <mergeCell ref="P92:P111"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U82:X82"/>
-    <mergeCell ref="U55:U80"/>
-    <mergeCell ref="U52:U54"/>
-    <mergeCell ref="U39:U50"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:F11"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K3:K8"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P13:P21"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="P3:P9"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="U242:U265"/>
-    <mergeCell ref="U201:U224"/>
-    <mergeCell ref="U227:U238"/>
-    <mergeCell ref="U239:U240"/>
-    <mergeCell ref="U198:U199"/>
-    <mergeCell ref="P220:P221"/>
-    <mergeCell ref="P176:P177"/>
-    <mergeCell ref="P178:P179"/>
-    <mergeCell ref="P156:S156"/>
-    <mergeCell ref="P201:S201"/>
-    <mergeCell ref="P180:P199"/>
-    <mergeCell ref="P202:P218"/>
+    <mergeCell ref="U106:U108"/>
+    <mergeCell ref="U83:U104"/>
+    <mergeCell ref="U185:X185"/>
+    <mergeCell ref="U136:X136"/>
+    <mergeCell ref="U137:U154"/>
+    <mergeCell ref="U157:U159"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8181,18 +8185,18 @@
       <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>441</v>
       </c>
@@ -8203,7 +8207,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8214,7 +8218,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -8226,7 +8230,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A56" si="0">A4+1</f>
         <v>3</v>
@@ -8238,7 +8242,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8250,7 +8254,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8262,7 +8266,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8274,7 +8278,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8286,7 +8290,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8298,7 +8302,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8310,7 +8314,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8322,7 +8326,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8334,7 +8338,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8346,7 +8350,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>A14+1</f>
         <v>13</v>
@@ -8358,7 +8362,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>A15+1</f>
         <v>14</v>
@@ -8370,7 +8374,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>A16+1</f>
         <v>15</v>
@@ -8382,7 +8386,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>A17+1</f>
         <v>16</v>
@@ -8394,7 +8398,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>A18+1</f>
         <v>17</v>
@@ -8406,7 +8410,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8418,7 +8422,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8430,7 +8434,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8442,7 +8446,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8454,7 +8458,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8466,7 +8470,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8478,7 +8482,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>A25+1</f>
         <v>24</v>
@@ -8490,7 +8494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ref="A27:A53" si="1">A26+1</f>
         <v>25</v>
@@ -8502,7 +8506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -8514,7 +8518,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -8526,7 +8530,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -8538,7 +8542,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -8550,7 +8554,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -8562,7 +8566,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -8574,7 +8578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -8586,7 +8590,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -8598,7 +8602,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>A35+1</f>
         <v>34</v>
@@ -8610,7 +8614,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>A36+1</f>
         <v>35</v>
@@ -8622,7 +8626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -8634,7 +8638,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -8646,7 +8650,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -8658,7 +8662,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -8670,7 +8674,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -8682,7 +8686,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -8694,7 +8698,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -8706,7 +8710,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -8718,7 +8722,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -8730,7 +8734,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -8742,7 +8746,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -8754,7 +8758,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>A48+1</f>
         <v>47</v>
@@ -8766,7 +8770,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>A49+1</f>
         <v>48</v>
@@ -8778,7 +8782,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -8790,7 +8794,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -8802,7 +8806,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -8814,7 +8818,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -8826,7 +8830,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -8838,7 +8842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -8850,7 +8854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>A56+1</f>
         <v>55</v>
@@ -8862,7 +8866,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" ref="A58:A131" si="2">A57+1</f>
         <v>56</v>
@@ -8874,7 +8878,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -8886,7 +8890,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -8898,7 +8902,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -8910,7 +8914,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -8922,7 +8926,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -8934,7 +8938,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -8946,7 +8950,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -8958,7 +8962,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -8970,7 +8974,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -8982,7 +8986,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -8994,7 +8998,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -9006,7 +9010,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -9018,7 +9022,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -9030,7 +9034,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -9042,7 +9046,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -9054,7 +9058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -9066,7 +9070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -9078,7 +9082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -9090,7 +9094,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -9102,7 +9106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -9114,7 +9118,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -9126,7 +9130,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -9138,7 +9142,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -9150,7 +9154,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -9162,7 +9166,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -9174,7 +9178,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -9186,7 +9190,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -9198,7 +9202,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -9210,7 +9214,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -9222,7 +9226,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -9234,7 +9238,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -9246,7 +9250,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -9258,7 +9262,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -9270,7 +9274,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>A91+1</f>
         <v>90</v>
@@ -9282,7 +9286,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" ref="A93:A99" si="3">A92+1</f>
         <v>91</v>
@@ -9294,7 +9298,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -9306,7 +9310,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -9318,7 +9322,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -9330,7 +9334,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -9342,7 +9346,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -9354,7 +9358,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -9366,7 +9370,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>A99+1</f>
         <v>98</v>
@@ -9378,7 +9382,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -9390,7 +9394,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -9402,7 +9406,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -9414,7 +9418,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -9426,7 +9430,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -9438,7 +9442,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -9450,7 +9454,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -9462,7 +9466,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <f>A107+1</f>
         <v>106</v>
@@ -9474,7 +9478,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <f>A108+1</f>
         <v>107</v>
@@ -9486,7 +9490,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <f>A109+1</f>
         <v>108</v>
@@ -9498,7 +9502,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <f>A110+1</f>
         <v>109</v>
@@ -9510,7 +9514,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <f>A111+1</f>
         <v>110</v>
@@ -9522,7 +9526,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -9534,7 +9538,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -9546,7 +9550,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -9558,7 +9562,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -9570,7 +9574,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -9582,7 +9586,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -9594,7 +9598,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -9606,7 +9610,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -9618,7 +9622,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -9630,7 +9634,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -9642,7 +9646,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -9654,7 +9658,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -9666,7 +9670,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -9678,7 +9682,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -9690,7 +9694,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -9702,7 +9706,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -9714,7 +9718,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -9726,7 +9730,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -9738,7 +9742,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -9750,7 +9754,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132:A162" si="4">A131+1</f>
         <v>130</v>
@@ -9762,7 +9766,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="4"/>
         <v>131</v>
@@ -9774,7 +9778,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="4"/>
         <v>132</v>
@@ -9786,7 +9790,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="4"/>
         <v>133</v>
@@ -9798,7 +9802,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="4"/>
         <v>134</v>
@@ -9810,7 +9814,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="4"/>
         <v>135</v>
@@ -9822,7 +9826,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="4"/>
         <v>136</v>
@@ -9834,7 +9838,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="4"/>
         <v>137</v>
@@ -9846,7 +9850,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -9858,7 +9862,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="4"/>
         <v>139</v>
@@ -9870,7 +9874,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="4"/>
         <v>140</v>
@@ -9882,7 +9886,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="4"/>
         <v>141</v>
@@ -9894,7 +9898,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="4"/>
         <v>142</v>
@@ -9906,7 +9910,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="4"/>
         <v>143</v>
@@ -9918,7 +9922,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="4"/>
         <v>144</v>
@@ -9930,7 +9934,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="4"/>
         <v>145</v>
@@ -9942,7 +9946,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="4"/>
         <v>146</v>
@@ -9954,7 +9958,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="4"/>
         <v>147</v>
@@ -9966,7 +9970,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="4"/>
         <v>148</v>
@@ -9978,7 +9982,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="4"/>
         <v>149</v>
@@ -9990,7 +9994,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="4"/>
         <v>150</v>
@@ -10002,7 +10006,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <f>A152+1</f>
         <v>151</v>
@@ -10014,7 +10018,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="4"/>
         <v>152</v>
@@ -10026,7 +10030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="4"/>
         <v>153</v>
@@ -10038,7 +10042,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="4"/>
         <v>154</v>
@@ -10050,7 +10054,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="4"/>
         <v>155</v>
@@ -10062,7 +10066,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="4"/>
         <v>156</v>
@@ -10074,7 +10078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="4"/>
         <v>157</v>
@@ -10086,7 +10090,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="4"/>
         <v>158</v>
@@ -10098,7 +10102,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="4"/>
         <v>159</v>
@@ -10110,7 +10114,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="4"/>
         <v>160</v>
@@ -10140,63 +10144,63 @@
       <selection pane="topRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="16" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.1328125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="8" bestFit="1" customWidth="1"/>
     <col min="43" max="46" width="13" bestFit="1" customWidth="1"/>
-    <col min="47" max="50" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18.53125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="47" max="50" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="16" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.53125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="15" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="19.1328125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="17" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="15.53125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>167</v>
       </c>
@@ -10234,7 +10238,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>148</v>
       </c>
@@ -10275,10 +10279,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>167</v>
       </c>
@@ -10307,7 +10311,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -10339,7 +10343,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
         <v>167</v>
@@ -10357,7 +10361,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -10377,10 +10381,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="5" t="s">
         <v>167</v>
@@ -10404,7 +10408,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -10430,7 +10434,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5" t="s">
         <v>167</v>
@@ -10457,7 +10461,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -10486,10 +10490,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="5" t="s">
         <v>167</v>
@@ -10567,7 +10571,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -10648,7 +10652,7 @@
       </c>
       <c r="AI16" s="3"/>
     </row>
-    <row r="17" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="5" t="s">
         <v>167</v>
@@ -10786,7 +10790,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -10926,7 +10930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="5" t="s">
         <v>167</v>
@@ -11079,7 +11083,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -11234,7 +11238,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="5" t="s">
         <v>167</v>
@@ -11360,7 +11364,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -11488,7 +11492,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="5" t="s">
         <v>167</v>
@@ -11641,7 +11645,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>140</v>
       </c>
@@ -11802,7 +11806,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="5" t="s">
         <v>167</v>
@@ -11940,7 +11944,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>141</v>
       </c>
@@ -12080,13 +12084,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
     </row>
-    <row r="28" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="5" t="s">
         <v>167</v>
@@ -12197,7 +12201,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -12310,7 +12314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="5" t="s">
         <v>167</v>
@@ -12454,7 +12458,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -12600,7 +12604,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="5" t="s">
         <v>167</v>
@@ -12705,7 +12709,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -12812,7 +12816,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="5" t="s">
         <v>167</v>
@@ -12953,7 +12957,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -13096,7 +13100,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="5" t="s">
         <v>167</v>
@@ -13213,7 +13217,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
@@ -13332,7 +13336,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="5" t="s">
         <v>167</v>
@@ -13452,7 +13456,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>121</v>
       </c>
@@ -13574,19 +13578,19 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:67" x14ac:dyDescent="0.25">
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:67" x14ac:dyDescent="0.25">
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:67" x14ac:dyDescent="0.25">
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:67" x14ac:dyDescent="0.25">
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:67" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:67" x14ac:dyDescent="0.25">
       <c r="E45" s="3"/>
     </row>
   </sheetData>

--- a/support_docs/OpenDSS components and attributes.xlsx
+++ b/support_docs/OpenDSS components and attributes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brandon.t.gorman\Documents\git\RISE-power-water-ss-1phase\support_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sk8er\Documents\git\RISE-power-water-ss-1phase\support_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1761,22 +1761,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2111,35 +2111,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="T74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X91" sqref="X91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.86328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="44.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="34" t="s">
         <v>171</v>
       </c>
@@ -2171,39 +2171,39 @@
       <c r="W1" s="33"/>
       <c r="X1" s="33"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="35" t="s">
         <v>462</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="K2" s="30" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="K2" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="P2" s="30" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="P2" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="U2" s="29" t="s">
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="U2" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>436</v>
       </c>
@@ -2216,7 +2216,7 @@
       <c r="D3" t="s">
         <v>181</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="32" t="s">
         <v>172</v>
       </c>
       <c r="G3" t="s">
@@ -2228,7 +2228,7 @@
       <c r="I3" t="s">
         <v>181</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="32" t="s">
         <v>172</v>
       </c>
       <c r="L3" t="s">
@@ -2240,7 +2240,7 @@
       <c r="N3" t="s">
         <v>181</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="32" t="s">
         <v>172</v>
       </c>
       <c r="Q3" t="s">
@@ -2252,7 +2252,7 @@
       <c r="S3" t="s">
         <v>181</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="U3" s="32" t="s">
         <v>172</v>
       </c>
       <c r="V3" t="s">
@@ -2265,7 +2265,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>436</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="D4" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="28"/>
+      <c r="F4" s="32"/>
       <c r="G4" t="s">
         <v>47</v>
       </c>
@@ -2288,7 +2288,7 @@
       <c r="I4" t="s">
         <v>182</v>
       </c>
-      <c r="K4" s="28"/>
+      <c r="K4" s="32"/>
       <c r="L4" t="s">
         <v>47</v>
       </c>
@@ -2298,7 +2298,7 @@
       <c r="N4" t="s">
         <v>182</v>
       </c>
-      <c r="P4" s="28"/>
+      <c r="P4" s="32"/>
       <c r="Q4" t="s">
         <v>47</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="S4" t="s">
         <v>182</v>
       </c>
-      <c r="U4" s="28"/>
+      <c r="U4" s="32"/>
       <c r="V4" t="s">
         <v>47</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>436</v>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="D5" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="32"/>
       <c r="G5" t="s">
         <v>196</v>
       </c>
@@ -2342,7 +2342,7 @@
       <c r="I5" t="s">
         <v>296</v>
       </c>
-      <c r="K5" s="28"/>
+      <c r="K5" s="32"/>
       <c r="L5" t="s">
         <v>184</v>
       </c>
@@ -2352,7 +2352,7 @@
       <c r="N5" t="s">
         <v>184</v>
       </c>
-      <c r="P5" s="28"/>
+      <c r="P5" s="32"/>
       <c r="Q5" t="s">
         <v>205</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="S5" t="s">
         <v>310</v>
       </c>
-      <c r="U5" s="28"/>
+      <c r="U5" s="32"/>
       <c r="V5" s="3" t="s">
         <v>444</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>436</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="D6" t="s">
         <v>173</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="32"/>
       <c r="G6" t="s">
         <v>175</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="I6" t="s">
         <v>193</v>
       </c>
-      <c r="K6" s="28"/>
+      <c r="K6" s="32"/>
       <c r="L6" t="s">
         <v>435</v>
       </c>
@@ -2406,7 +2406,7 @@
       <c r="N6" t="s">
         <v>183</v>
       </c>
-      <c r="P6" s="28"/>
+      <c r="P6" s="32"/>
       <c r="Q6" t="s">
         <v>206</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="S6" t="s">
         <v>309</v>
       </c>
-      <c r="U6" s="28"/>
+      <c r="U6" s="32"/>
       <c r="V6" t="s">
         <v>445</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>436</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="D7" t="s">
         <v>173</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="32"/>
       <c r="G7" t="s">
         <v>198</v>
       </c>
@@ -2450,7 +2450,7 @@
       <c r="I7" t="s">
         <v>300</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="32"/>
       <c r="L7" t="s">
         <v>199</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="N7" t="s">
         <v>188</v>
       </c>
-      <c r="P7" s="28"/>
+      <c r="P7" s="32"/>
       <c r="Q7" t="s">
         <v>207</v>
       </c>
@@ -2470,7 +2470,7 @@
       <c r="S7" t="s">
         <v>304</v>
       </c>
-      <c r="U7" s="28"/>
+      <c r="U7" s="32"/>
       <c r="V7" t="s">
         <v>205</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>436</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="D8" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="32"/>
       <c r="G8" t="s">
         <v>197</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="I8" t="s">
         <v>298</v>
       </c>
-      <c r="K8" s="28"/>
+      <c r="K8" s="32"/>
       <c r="L8" t="s">
         <v>200</v>
       </c>
@@ -2514,7 +2514,7 @@
       <c r="N8" t="s">
         <v>186</v>
       </c>
-      <c r="P8" s="28"/>
+      <c r="P8" s="32"/>
       <c r="Q8" s="26" t="s">
         <v>208</v>
       </c>
@@ -2524,7 +2524,7 @@
       <c r="S8" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="U8" s="28"/>
+      <c r="U8" s="32"/>
       <c r="V8" t="s">
         <v>207</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>436</v>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="D9" t="s">
         <v>173</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="32"/>
       <c r="G9" t="s">
         <v>220</v>
       </c>
@@ -2570,7 +2570,7 @@
       <c r="N9" t="s">
         <v>430</v>
       </c>
-      <c r="P9" s="28"/>
+      <c r="P9" s="32"/>
       <c r="Q9" s="26" t="s">
         <v>209</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="S9" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="U9" s="28"/>
+      <c r="U9" s="32"/>
       <c r="V9" s="26" t="s">
         <v>208</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>436</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="D10" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="32"/>
       <c r="G10" t="s">
         <v>299</v>
       </c>
@@ -2621,7 +2621,7 @@
       <c r="N10" t="s">
         <v>303</v>
       </c>
-      <c r="P10" s="31" t="s">
+      <c r="P10" s="27" t="s">
         <v>190</v>
       </c>
       <c r="Q10" s="3" t="s">
@@ -2633,7 +2633,7 @@
       <c r="S10" t="s">
         <v>314</v>
       </c>
-      <c r="U10" s="28"/>
+      <c r="U10" s="32"/>
       <c r="V10" s="26" t="s">
         <v>209</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>436</v>
       </c>
@@ -2657,7 +2657,7 @@
       <c r="D11" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="32"/>
       <c r="G11" t="s">
         <v>221</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="I11" t="s">
         <v>178</v>
       </c>
-      <c r="P11" s="31"/>
+      <c r="P11" s="27"/>
       <c r="Q11" s="3" t="s">
         <v>211</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>436</v>
       </c>
@@ -2703,12 +2703,12 @@
       <c r="D12" t="s">
         <v>173</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
       <c r="P12" s="7" t="s">
         <v>191</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
         <v>436</v>
       </c>
@@ -2747,13 +2747,13 @@
       <c r="D13" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="K13" s="28" t="s">
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="K13" s="32" t="s">
         <v>172</v>
       </c>
       <c r="L13" t="s">
@@ -2765,7 +2765,7 @@
       <c r="N13" t="s">
         <v>181</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="31" t="s">
         <v>192</v>
       </c>
       <c r="Q13" t="s">
@@ -2777,7 +2777,7 @@
       <c r="S13" t="s">
         <v>316</v>
       </c>
-      <c r="U13" s="32" t="s">
+      <c r="U13" s="31" t="s">
         <v>192</v>
       </c>
       <c r="V13" t="s">
@@ -2790,7 +2790,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
         <v>436</v>
       </c>
@@ -2803,7 +2803,7 @@
       <c r="D14" t="s">
         <v>173</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="K14" s="32"/>
       <c r="L14" t="s">
         <v>47</v>
       </c>
@@ -2813,7 +2813,7 @@
       <c r="N14" t="s">
         <v>182</v>
       </c>
-      <c r="P14" s="32"/>
+      <c r="P14" s="31"/>
       <c r="Q14" s="26" t="s">
         <v>447</v>
       </c>
@@ -2823,7 +2823,7 @@
       <c r="S14" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="U14" s="32"/>
+      <c r="U14" s="31"/>
       <c r="V14" s="26" t="s">
         <v>255</v>
       </c>
@@ -2834,8 +2834,8 @@
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K15" s="28"/>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="K15" s="32"/>
       <c r="L15" t="s">
         <v>29</v>
       </c>
@@ -2845,7 +2845,7 @@
       <c r="N15" t="s">
         <v>489</v>
       </c>
-      <c r="P15" s="32"/>
+      <c r="P15" s="31"/>
       <c r="Q15" s="26" t="s">
         <v>448</v>
       </c>
@@ -2855,7 +2855,7 @@
       <c r="S15" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="U15" s="32"/>
+      <c r="U15" s="31"/>
       <c r="V15" s="26" t="s">
         <v>256</v>
       </c>
@@ -2866,8 +2866,8 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K16" s="28"/>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="K16" s="32"/>
       <c r="L16" t="s">
         <v>199</v>
       </c>
@@ -2877,7 +2877,7 @@
       <c r="N16" t="s">
         <v>188</v>
       </c>
-      <c r="P16" s="32"/>
+      <c r="P16" s="31"/>
       <c r="Q16" t="s">
         <v>213</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="S16" t="s">
         <v>319</v>
       </c>
-      <c r="U16" s="32"/>
+      <c r="U16" s="31"/>
       <c r="V16" s="26" t="s">
         <v>257</v>
       </c>
@@ -2898,12 +2898,12 @@
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K17" s="28"/>
+    <row r="17" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="K17" s="32"/>
       <c r="L17" t="s">
         <v>488</v>
       </c>
-      <c r="P17" s="32"/>
+      <c r="P17" s="31"/>
       <c r="Q17" s="26" t="s">
         <v>214</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="S17" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="U17" s="32"/>
+      <c r="U17" s="31"/>
       <c r="V17" t="s">
         <v>258</v>
       </c>
@@ -2924,8 +2924,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K18" s="28"/>
+    <row r="18" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="K18" s="32"/>
       <c r="L18" t="s">
         <v>203</v>
       </c>
@@ -2935,7 +2935,7 @@
       <c r="N18" t="s">
         <v>186</v>
       </c>
-      <c r="P18" s="32"/>
+      <c r="P18" s="31"/>
       <c r="Q18" s="26" t="s">
         <v>215</v>
       </c>
@@ -2945,7 +2945,7 @@
       <c r="S18" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="U18" s="32"/>
+      <c r="U18" s="31"/>
       <c r="V18" s="26" t="s">
         <v>259</v>
       </c>
@@ -2956,8 +2956,8 @@
         <v>384</v>
       </c>
     </row>
-    <row r="19" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K19" s="28"/>
+    <row r="19" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="K19" s="32"/>
       <c r="L19" t="s">
         <v>201</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="N19" t="s">
         <v>186</v>
       </c>
-      <c r="P19" s="32"/>
+      <c r="P19" s="31"/>
       <c r="Q19" t="s">
         <v>216</v>
       </c>
@@ -2977,7 +2977,7 @@
       <c r="S19" t="s">
         <v>323</v>
       </c>
-      <c r="U19" s="32"/>
+      <c r="U19" s="31"/>
       <c r="V19" s="26" t="s">
         <v>260</v>
       </c>
@@ -2988,8 +2988,8 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K20" s="28"/>
+    <row r="20" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="K20" s="32"/>
       <c r="L20" t="s">
         <v>204</v>
       </c>
@@ -2999,7 +2999,7 @@
       <c r="N20" t="s">
         <v>187</v>
       </c>
-      <c r="P20" s="32"/>
+      <c r="P20" s="31"/>
       <c r="Q20" s="26" t="s">
         <v>217</v>
       </c>
@@ -3009,7 +3009,7 @@
       <c r="S20" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="U20" s="32"/>
+      <c r="U20" s="31"/>
       <c r="V20" s="26" t="s">
         <v>261</v>
       </c>
@@ -3020,8 +3020,8 @@
         <v>386</v>
       </c>
     </row>
-    <row r="21" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K21" s="28"/>
+    <row r="21" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="K21" s="32"/>
       <c r="L21" t="s">
         <v>202</v>
       </c>
@@ -3031,7 +3031,7 @@
       <c r="N21" t="s">
         <v>187</v>
       </c>
-      <c r="P21" s="32"/>
+      <c r="P21" s="31"/>
       <c r="Q21" s="26" t="s">
         <v>218</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="S21" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="U21" s="32"/>
+      <c r="U21" s="31"/>
       <c r="V21" t="s">
         <v>262</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="22" spans="11:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:24" x14ac:dyDescent="0.45">
       <c r="K22" s="25" t="s">
         <v>168</v>
       </c>
@@ -3065,7 +3065,7 @@
       <c r="N22" t="s">
         <v>430</v>
       </c>
-      <c r="U22" s="32"/>
+      <c r="U22" s="31"/>
       <c r="V22" s="26" t="s">
         <v>263</v>
       </c>
@@ -3076,14 +3076,14 @@
         <v>388</v>
       </c>
     </row>
-    <row r="23" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="P23" s="30" t="s">
+    <row r="23" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P23" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="U23" s="32"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="U23" s="31"/>
       <c r="V23" s="26" t="s">
         <v>264</v>
       </c>
@@ -3094,8 +3094,8 @@
         <v>389</v>
       </c>
     </row>
-    <row r="24" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="P24" s="28" t="s">
+    <row r="24" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P24" s="32" t="s">
         <v>172</v>
       </c>
       <c r="Q24" t="s">
@@ -3107,7 +3107,7 @@
       <c r="S24" t="s">
         <v>181</v>
       </c>
-      <c r="U24" s="32"/>
+      <c r="U24" s="31"/>
       <c r="V24" s="26" t="s">
         <v>265</v>
       </c>
@@ -3118,8 +3118,8 @@
         <v>390</v>
       </c>
     </row>
-    <row r="25" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="P25" s="28"/>
+    <row r="25" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P25" s="32"/>
       <c r="Q25" t="s">
         <v>47</v>
       </c>
@@ -3129,7 +3129,7 @@
       <c r="S25" t="s">
         <v>182</v>
       </c>
-      <c r="U25" s="32"/>
+      <c r="U25" s="31"/>
       <c r="V25" t="s">
         <v>266</v>
       </c>
@@ -3140,8 +3140,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="26" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="P26" s="28"/>
+    <row r="26" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P26" s="32"/>
       <c r="Q26" t="s">
         <v>205</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="S26" t="s">
         <v>310</v>
       </c>
-      <c r="U26" s="32"/>
+      <c r="U26" s="31"/>
       <c r="V26" s="26" t="s">
         <v>267</v>
       </c>
@@ -3162,8 +3162,8 @@
         <v>392</v>
       </c>
     </row>
-    <row r="27" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="P27" s="28"/>
+    <row r="27" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P27" s="32"/>
       <c r="Q27" t="s">
         <v>206</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="S27" t="s">
         <v>309</v>
       </c>
-      <c r="U27" s="32"/>
+      <c r="U27" s="31"/>
       <c r="V27" s="26" t="s">
         <v>268</v>
       </c>
@@ -3184,8 +3184,8 @@
         <v>393</v>
       </c>
     </row>
-    <row r="28" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="P28" s="28"/>
+    <row r="28" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P28" s="32"/>
       <c r="Q28" t="s">
         <v>207</v>
       </c>
@@ -3195,7 +3195,7 @@
       <c r="S28" t="s">
         <v>304</v>
       </c>
-      <c r="U28" s="32"/>
+      <c r="U28" s="31"/>
       <c r="V28" s="26" t="s">
         <v>269</v>
       </c>
@@ -3206,8 +3206,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="29" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="P29" s="28"/>
+    <row r="29" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P29" s="32"/>
       <c r="Q29" s="26" t="s">
         <v>208</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="S29" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="U29" s="32"/>
+      <c r="U29" s="31"/>
       <c r="V29" t="s">
         <v>279</v>
       </c>
@@ -3228,8 +3228,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="P30" s="28"/>
+    <row r="30" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P30" s="32"/>
       <c r="Q30" s="26" t="s">
         <v>209</v>
       </c>
@@ -3239,7 +3239,7 @@
       <c r="S30" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="U30" s="32"/>
+      <c r="U30" s="31"/>
       <c r="V30" t="s">
         <v>280</v>
       </c>
@@ -3250,8 +3250,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="31" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="P31" s="28"/>
+    <row r="31" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P31" s="32"/>
       <c r="Q31" t="s">
         <v>243</v>
       </c>
@@ -3261,7 +3261,7 @@
       <c r="S31" t="s">
         <v>333</v>
       </c>
-      <c r="U31" s="32"/>
+      <c r="U31" s="31"/>
       <c r="V31" t="s">
         <v>281</v>
       </c>
@@ -3272,8 +3272,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="32" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="P32" s="28"/>
+    <row r="32" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="P32" s="32"/>
       <c r="Q32" t="s">
         <v>222</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="S32" t="s">
         <v>328</v>
       </c>
-      <c r="U32" s="32"/>
+      <c r="U32" s="31"/>
       <c r="V32" t="s">
         <v>282</v>
       </c>
@@ -3294,8 +3294,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="33" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P33" s="28"/>
+    <row r="33" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P33" s="32"/>
       <c r="Q33" t="s">
         <v>220</v>
       </c>
@@ -3305,7 +3305,7 @@
       <c r="S33" t="s">
         <v>326</v>
       </c>
-      <c r="U33" s="32"/>
+      <c r="U33" s="31"/>
       <c r="V33" t="s">
         <v>283</v>
       </c>
@@ -3316,8 +3316,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="34" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P34" s="28"/>
+    <row r="34" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P34" s="32"/>
       <c r="Q34" s="26" t="s">
         <v>330</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="S34" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="U34" s="32"/>
+      <c r="U34" s="31"/>
       <c r="V34" t="s">
         <v>284</v>
       </c>
@@ -3338,8 +3338,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P35" s="28"/>
+    <row r="35" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P35" s="32"/>
       <c r="Q35" s="26" t="s">
         <v>20</v>
       </c>
@@ -3349,7 +3349,7 @@
       <c r="S35" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="U35" s="32"/>
+      <c r="U35" s="31"/>
       <c r="V35" s="3" t="s">
         <v>278</v>
       </c>
@@ -3360,8 +3360,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="36" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P36" s="28"/>
+    <row r="36" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P36" s="32"/>
       <c r="Q36" s="26" t="s">
         <v>224</v>
       </c>
@@ -3376,8 +3376,8 @@
       <c r="W36" s="24"/>
       <c r="X36" s="24"/>
     </row>
-    <row r="37" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P37" s="28"/>
+    <row r="37" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P37" s="32"/>
       <c r="Q37" s="26" t="s">
         <v>225</v>
       </c>
@@ -3392,8 +3392,8 @@
       <c r="W37" s="24"/>
       <c r="X37" s="24"/>
     </row>
-    <row r="38" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P38" s="28"/>
+    <row r="38" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P38" s="32"/>
       <c r="Q38" s="23" t="s">
         <v>229</v>
       </c>
@@ -3403,15 +3403,15 @@
       <c r="S38" t="s">
         <v>323</v>
       </c>
-      <c r="U38" s="29" t="s">
+      <c r="U38" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-    </row>
-    <row r="39" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P39" s="28"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+    </row>
+    <row r="39" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P39" s="32"/>
       <c r="Q39" t="s">
         <v>223</v>
       </c>
@@ -3421,7 +3421,7 @@
       <c r="S39" t="s">
         <v>329</v>
       </c>
-      <c r="U39" s="28" t="s">
+      <c r="U39" s="32" t="s">
         <v>172</v>
       </c>
       <c r="V39" t="s">
@@ -3434,8 +3434,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P40" s="28"/>
+    <row r="40" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P40" s="32"/>
       <c r="Q40" t="s">
         <v>221</v>
       </c>
@@ -3445,7 +3445,7 @@
       <c r="S40" t="s">
         <v>327</v>
       </c>
-      <c r="U40" s="28"/>
+      <c r="U40" s="32"/>
       <c r="V40" t="s">
         <v>47</v>
       </c>
@@ -3456,8 +3456,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P41" s="31" t="s">
+    <row r="41" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P41" s="27" t="s">
         <v>168</v>
       </c>
       <c r="Q41" s="3" t="s">
@@ -3469,7 +3469,7 @@
       <c r="S41" t="s">
         <v>314</v>
       </c>
-      <c r="U41" s="28"/>
+      <c r="U41" s="32"/>
       <c r="V41" s="3" t="s">
         <v>444</v>
       </c>
@@ -3480,8 +3480,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P42" s="31"/>
+    <row r="42" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P42" s="27"/>
       <c r="Q42" s="3" t="s">
         <v>211</v>
       </c>
@@ -3491,7 +3491,7 @@
       <c r="S42" t="s">
         <v>315</v>
       </c>
-      <c r="U42" s="28"/>
+      <c r="U42" s="32"/>
       <c r="V42" t="s">
         <v>445</v>
       </c>
@@ -3502,8 +3502,8 @@
         <v>376</v>
       </c>
     </row>
-    <row r="43" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P43" s="31"/>
+    <row r="43" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P43" s="27"/>
       <c r="Q43" t="s">
         <v>228</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="S43" t="s">
         <v>193</v>
       </c>
-      <c r="U43" s="28"/>
+      <c r="U43" s="32"/>
       <c r="V43" t="s">
         <v>512</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="44" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="16:24" x14ac:dyDescent="0.45">
       <c r="P44" s="22" t="s">
         <v>191</v>
       </c>
@@ -3537,7 +3537,7 @@
       <c r="S44" t="s">
         <v>311</v>
       </c>
-      <c r="U44" s="28"/>
+      <c r="U44" s="32"/>
       <c r="V44" s="26" t="s">
         <v>513</v>
       </c>
@@ -3548,8 +3548,8 @@
         <v>510</v>
       </c>
     </row>
-    <row r="45" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P45" s="32" t="s">
+    <row r="45" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P45" s="31" t="s">
         <v>192</v>
       </c>
       <c r="Q45" t="s">
@@ -3561,7 +3561,7 @@
       <c r="S45" t="s">
         <v>316</v>
       </c>
-      <c r="U45" s="28"/>
+      <c r="U45" s="32"/>
       <c r="V45" s="26" t="s">
         <v>514</v>
       </c>
@@ -3572,8 +3572,8 @@
         <v>511</v>
       </c>
     </row>
-    <row r="46" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P46" s="32"/>
+    <row r="46" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P46" s="31"/>
       <c r="Q46" s="26" t="s">
         <v>447</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="S46" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="U46" s="28"/>
+      <c r="U46" s="32"/>
       <c r="V46" t="s">
         <v>207</v>
       </c>
@@ -3594,8 +3594,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P47" s="32"/>
+    <row r="47" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P47" s="31"/>
       <c r="Q47" s="26" t="s">
         <v>448</v>
       </c>
@@ -3605,7 +3605,7 @@
       <c r="S47" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="U47" s="28"/>
+      <c r="U47" s="32"/>
       <c r="V47" s="26" t="s">
         <v>208</v>
       </c>
@@ -3616,8 +3616,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P48" s="32"/>
+    <row r="48" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P48" s="31"/>
       <c r="Q48" t="s">
         <v>213</v>
       </c>
@@ -3627,7 +3627,7 @@
       <c r="S48" t="s">
         <v>319</v>
       </c>
-      <c r="U48" s="28"/>
+      <c r="U48" s="32"/>
       <c r="V48" s="26" t="s">
         <v>209</v>
       </c>
@@ -3638,8 +3638,8 @@
         <v>306</v>
       </c>
     </row>
-    <row r="49" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P49" s="32"/>
+    <row r="49" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P49" s="31"/>
       <c r="Q49" s="26" t="s">
         <v>214</v>
       </c>
@@ -3649,13 +3649,13 @@
       <c r="S49" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="U49" s="28"/>
+      <c r="U49" s="32"/>
       <c r="V49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P50" s="32"/>
+    <row r="50" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P50" s="31"/>
       <c r="Q50" s="26" t="s">
         <v>215</v>
       </c>
@@ -3665,7 +3665,7 @@
       <c r="S50" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="U50" s="28"/>
+      <c r="U50" s="32"/>
       <c r="V50" t="s">
         <v>276</v>
       </c>
@@ -3676,8 +3676,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="51" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P51" s="32"/>
+    <row r="51" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P51" s="31"/>
       <c r="Q51" t="s">
         <v>216</v>
       </c>
@@ -3700,8 +3700,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="52" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P52" s="32"/>
+    <row r="52" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P52" s="31"/>
       <c r="Q52" s="26" t="s">
         <v>217</v>
       </c>
@@ -3711,7 +3711,7 @@
       <c r="S52" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="U52" s="27" t="s">
+      <c r="U52" s="28" t="s">
         <v>191</v>
       </c>
       <c r="V52" t="s">
@@ -3724,8 +3724,8 @@
         <v>517</v>
       </c>
     </row>
-    <row r="53" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P53" s="32"/>
+    <row r="53" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P53" s="31"/>
       <c r="Q53" s="26" t="s">
         <v>218</v>
       </c>
@@ -3735,7 +3735,7 @@
       <c r="S53" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="U53" s="27"/>
+      <c r="U53" s="28"/>
       <c r="V53" s="26" t="s">
         <v>519</v>
       </c>
@@ -3746,8 +3746,8 @@
         <v>516</v>
       </c>
     </row>
-    <row r="54" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P54" s="32"/>
+    <row r="54" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P54" s="31"/>
       <c r="Q54" t="s">
         <v>230</v>
       </c>
@@ -3757,7 +3757,7 @@
       <c r="S54" t="s">
         <v>334</v>
       </c>
-      <c r="U54" s="27"/>
+      <c r="U54" s="28"/>
       <c r="V54" s="26" t="s">
         <v>520</v>
       </c>
@@ -3768,8 +3768,8 @@
         <v>515</v>
       </c>
     </row>
-    <row r="55" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P55" s="32"/>
+    <row r="55" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P55" s="31"/>
       <c r="Q55" s="26" t="s">
         <v>231</v>
       </c>
@@ -3779,7 +3779,7 @@
       <c r="S55" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="U55" s="32" t="s">
+      <c r="U55" s="31" t="s">
         <v>191</v>
       </c>
       <c r="V55" t="s">
@@ -3792,8 +3792,8 @@
         <v>378</v>
       </c>
     </row>
-    <row r="56" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P56" s="32"/>
+    <row r="56" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P56" s="31"/>
       <c r="Q56" s="26" t="s">
         <v>232</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="S56" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="U56" s="32"/>
+      <c r="U56" s="31"/>
       <c r="V56" s="26" t="s">
         <v>255</v>
       </c>
@@ -3814,8 +3814,8 @@
         <v>379</v>
       </c>
     </row>
-    <row r="57" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P57" s="32"/>
+    <row r="57" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P57" s="31"/>
       <c r="Q57" s="26" t="s">
         <v>237</v>
       </c>
@@ -3825,7 +3825,7 @@
       <c r="S57" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="U57" s="32"/>
+      <c r="U57" s="31"/>
       <c r="V57" s="26" t="s">
         <v>256</v>
       </c>
@@ -3836,8 +3836,8 @@
         <v>380</v>
       </c>
     </row>
-    <row r="58" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P58" s="32"/>
+    <row r="58" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P58" s="31"/>
       <c r="Q58" t="s">
         <v>233</v>
       </c>
@@ -3847,7 +3847,7 @@
       <c r="S58" t="s">
         <v>338</v>
       </c>
-      <c r="U58" s="32"/>
+      <c r="U58" s="31"/>
       <c r="V58" s="26" t="s">
         <v>257</v>
       </c>
@@ -3858,8 +3858,8 @@
         <v>381</v>
       </c>
     </row>
-    <row r="59" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P59" s="32"/>
+    <row r="59" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P59" s="31"/>
       <c r="Q59" s="26" t="s">
         <v>234</v>
       </c>
@@ -3869,7 +3869,7 @@
       <c r="S59" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="U59" s="32"/>
+      <c r="U59" s="31"/>
       <c r="V59" t="s">
         <v>258</v>
       </c>
@@ -3880,8 +3880,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="60" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P60" s="32"/>
+    <row r="60" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P60" s="31"/>
       <c r="Q60" s="26" t="s">
         <v>235</v>
       </c>
@@ -3891,7 +3891,7 @@
       <c r="S60" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="U60" s="32"/>
+      <c r="U60" s="31"/>
       <c r="V60" s="26" t="s">
         <v>259</v>
       </c>
@@ -3902,8 +3902,8 @@
         <v>384</v>
       </c>
     </row>
-    <row r="61" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P61" s="32"/>
+    <row r="61" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P61" s="31"/>
       <c r="Q61" s="26" t="s">
         <v>236</v>
       </c>
@@ -3913,7 +3913,7 @@
       <c r="S61" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="U61" s="32"/>
+      <c r="U61" s="31"/>
       <c r="V61" s="26" t="s">
         <v>260</v>
       </c>
@@ -3924,8 +3924,8 @@
         <v>385</v>
       </c>
     </row>
-    <row r="62" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P62" s="32"/>
+    <row r="62" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P62" s="31"/>
       <c r="Q62" t="s">
         <v>22</v>
       </c>
@@ -3935,7 +3935,7 @@
       <c r="S62" t="s">
         <v>343</v>
       </c>
-      <c r="U62" s="32"/>
+      <c r="U62" s="31"/>
       <c r="V62" s="26" t="s">
         <v>261</v>
       </c>
@@ -3946,8 +3946,8 @@
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P63" s="32"/>
+    <row r="63" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P63" s="31"/>
       <c r="Q63" t="s">
         <v>21</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="S63" t="s">
         <v>344</v>
       </c>
-      <c r="U63" s="32"/>
+      <c r="U63" s="31"/>
       <c r="V63" t="s">
         <v>262</v>
       </c>
@@ -3968,8 +3968,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="64" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P64" s="32"/>
+    <row r="64" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P64" s="31"/>
       <c r="Q64" t="s">
         <v>241</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="S64" t="s">
         <v>193</v>
       </c>
-      <c r="U64" s="32"/>
+      <c r="U64" s="31"/>
       <c r="V64" s="26" t="s">
         <v>263</v>
       </c>
@@ -3990,8 +3990,8 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P65" s="32"/>
+    <row r="65" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P65" s="31"/>
       <c r="Q65" s="26" t="s">
         <v>240</v>
       </c>
@@ -4001,7 +4001,7 @@
       <c r="S65" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="U65" s="32"/>
+      <c r="U65" s="31"/>
       <c r="V65" s="26" t="s">
         <v>264</v>
       </c>
@@ -4012,8 +4012,8 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="U66" s="32"/>
+    <row r="66" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U66" s="31"/>
       <c r="V66" s="26" t="s">
         <v>265</v>
       </c>
@@ -4024,14 +4024,14 @@
         <v>390</v>
       </c>
     </row>
-    <row r="67" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P67" s="30" t="s">
+    <row r="67" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P67" s="29" t="s">
         <v>467</v>
       </c>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="U67" s="32"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="U67" s="31"/>
       <c r="V67" t="s">
         <v>266</v>
       </c>
@@ -4042,8 +4042,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="68" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P68" s="28" t="s">
+    <row r="68" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P68" s="32" t="s">
         <v>172</v>
       </c>
       <c r="Q68" t="s">
@@ -4055,7 +4055,7 @@
       <c r="S68" t="s">
         <v>181</v>
       </c>
-      <c r="U68" s="32"/>
+      <c r="U68" s="31"/>
       <c r="V68" s="26" t="s">
         <v>267</v>
       </c>
@@ -4066,8 +4066,8 @@
         <v>392</v>
       </c>
     </row>
-    <row r="69" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P69" s="28"/>
+    <row r="69" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P69" s="32"/>
       <c r="Q69" t="s">
         <v>47</v>
       </c>
@@ -4077,7 +4077,7 @@
       <c r="S69" t="s">
         <v>182</v>
       </c>
-      <c r="U69" s="32"/>
+      <c r="U69" s="31"/>
       <c r="V69" s="26" t="s">
         <v>268</v>
       </c>
@@ -4088,8 +4088,8 @@
         <v>393</v>
       </c>
     </row>
-    <row r="70" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P70" s="28"/>
+    <row r="70" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P70" s="32"/>
       <c r="Q70" t="s">
         <v>205</v>
       </c>
@@ -4099,7 +4099,7 @@
       <c r="S70" t="s">
         <v>310</v>
       </c>
-      <c r="U70" s="32"/>
+      <c r="U70" s="31"/>
       <c r="V70" s="26" t="s">
         <v>269</v>
       </c>
@@ -4110,8 +4110,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="71" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P71" s="28"/>
+    <row r="71" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P71" s="32"/>
       <c r="Q71" t="s">
         <v>206</v>
       </c>
@@ -4121,7 +4121,7 @@
       <c r="S71" t="s">
         <v>482</v>
       </c>
-      <c r="U71" s="32"/>
+      <c r="U71" s="31"/>
       <c r="V71" t="s">
         <v>449</v>
       </c>
@@ -4132,8 +4132,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="72" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P72" s="28"/>
+    <row r="72" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P72" s="32"/>
       <c r="Q72" t="s">
         <v>207</v>
       </c>
@@ -4143,7 +4143,7 @@
       <c r="S72" t="s">
         <v>304</v>
       </c>
-      <c r="U72" s="32"/>
+      <c r="U72" s="31"/>
       <c r="V72" s="26" t="s">
         <v>450</v>
       </c>
@@ -4154,8 +4154,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="73" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P73" s="28"/>
+    <row r="73" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P73" s="32"/>
       <c r="Q73" s="26" t="s">
         <v>208</v>
       </c>
@@ -4165,7 +4165,7 @@
       <c r="S73" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="U73" s="32"/>
+      <c r="U73" s="31"/>
       <c r="V73" s="26" t="s">
         <v>451</v>
       </c>
@@ -4176,8 +4176,8 @@
         <v>454</v>
       </c>
     </row>
-    <row r="74" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P74" s="28"/>
+    <row r="74" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P74" s="32"/>
       <c r="Q74" s="26" t="s">
         <v>209</v>
       </c>
@@ -4187,7 +4187,7 @@
       <c r="S74" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="U74" s="32"/>
+      <c r="U74" s="31"/>
       <c r="V74" t="s">
         <v>279</v>
       </c>
@@ -4198,8 +4198,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="75" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P75" s="28"/>
+    <row r="75" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P75" s="32"/>
       <c r="Q75" t="s">
         <v>239</v>
       </c>
@@ -4209,7 +4209,7 @@
       <c r="S75" t="s">
         <v>348</v>
       </c>
-      <c r="U75" s="32"/>
+      <c r="U75" s="31"/>
       <c r="V75" t="s">
         <v>280</v>
       </c>
@@ -4220,8 +4220,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="76" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P76" s="28"/>
+    <row r="76" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P76" s="32"/>
       <c r="Q76" t="s">
         <v>242</v>
       </c>
@@ -4231,7 +4231,7 @@
       <c r="S76" t="s">
         <v>347</v>
       </c>
-      <c r="U76" s="32"/>
+      <c r="U76" s="31"/>
       <c r="V76" t="s">
         <v>281</v>
       </c>
@@ -4242,8 +4242,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="77" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P77" s="28"/>
+    <row r="77" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P77" s="32"/>
       <c r="Q77" t="s">
         <v>147</v>
       </c>
@@ -4253,7 +4253,7 @@
       <c r="S77" t="s">
         <v>346</v>
       </c>
-      <c r="U77" s="32"/>
+      <c r="U77" s="31"/>
       <c r="V77" t="s">
         <v>282</v>
       </c>
@@ -4264,8 +4264,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="78" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P78" s="28"/>
+    <row r="78" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P78" s="32"/>
       <c r="Q78" t="s">
         <v>246</v>
       </c>
@@ -4275,7 +4275,7 @@
       <c r="S78" t="s">
         <v>351</v>
       </c>
-      <c r="U78" s="32"/>
+      <c r="U78" s="31"/>
       <c r="V78" t="s">
         <v>283</v>
       </c>
@@ -4286,8 +4286,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="79" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P79" s="28"/>
+    <row r="79" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P79" s="32"/>
       <c r="Q79" t="s">
         <v>272</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="S79" t="s">
         <v>483</v>
       </c>
-      <c r="U79" s="32"/>
+      <c r="U79" s="31"/>
       <c r="V79" t="s">
         <v>284</v>
       </c>
@@ -4308,8 +4308,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="80" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P80" s="28"/>
+    <row r="80" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P80" s="32"/>
       <c r="Q80" s="26" t="s">
         <v>224</v>
       </c>
@@ -4319,7 +4319,7 @@
       <c r="S80" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="U80" s="32"/>
+      <c r="U80" s="31"/>
       <c r="V80" t="s">
         <v>278</v>
       </c>
@@ -4330,8 +4330,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="81" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P81" s="28"/>
+    <row r="81" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P81" s="32"/>
       <c r="Q81" s="26" t="s">
         <v>225</v>
       </c>
@@ -4342,8 +4342,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="82" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P82" s="28"/>
+    <row r="82" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P82" s="32"/>
       <c r="Q82" t="s">
         <v>247</v>
       </c>
@@ -4353,15 +4353,15 @@
       <c r="S82" t="s">
         <v>354</v>
       </c>
-      <c r="U82" s="29" t="s">
+      <c r="U82" s="30" t="s">
         <v>473</v>
       </c>
-      <c r="V82" s="29"/>
-      <c r="W82" s="29"/>
-      <c r="X82" s="29"/>
-    </row>
-    <row r="83" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P83" s="28"/>
+      <c r="V82" s="30"/>
+      <c r="W82" s="30"/>
+      <c r="X82" s="30"/>
+    </row>
+    <row r="83" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P83" s="32"/>
       <c r="Q83" t="s">
         <v>353</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="S83" t="s">
         <v>355</v>
       </c>
-      <c r="U83" s="28" t="s">
+      <c r="U83" s="32" t="s">
         <v>172</v>
       </c>
       <c r="V83" t="s">
@@ -4384,9 +4384,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P84" s="28"/>
-      <c r="U84" s="28"/>
+    <row r="84" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P84" s="32"/>
+      <c r="U84" s="32"/>
       <c r="V84" t="s">
         <v>47</v>
       </c>
@@ -4397,9 +4397,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P85" s="28"/>
-      <c r="U85" s="28"/>
+    <row r="85" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P85" s="32"/>
+      <c r="U85" s="32"/>
       <c r="V85" s="3" t="s">
         <v>444</v>
       </c>
@@ -4410,8 +4410,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="86" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P86" s="28"/>
+    <row r="86" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P86" s="32"/>
       <c r="Q86" t="s">
         <v>23</v>
       </c>
@@ -4421,7 +4421,7 @@
       <c r="S86" t="s">
         <v>345</v>
       </c>
-      <c r="U86" s="28"/>
+      <c r="U86" s="32"/>
       <c r="V86" t="s">
         <v>445</v>
       </c>
@@ -4432,8 +4432,8 @@
         <v>376</v>
       </c>
     </row>
-    <row r="87" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P87" s="31" t="s">
+    <row r="87" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P87" s="27" t="s">
         <v>190</v>
       </c>
       <c r="Q87" t="s">
@@ -4445,7 +4445,7 @@
       <c r="S87" t="s">
         <v>314</v>
       </c>
-      <c r="U87" s="28"/>
+      <c r="U87" s="32"/>
       <c r="V87" t="s">
         <v>512</v>
       </c>
@@ -4456,8 +4456,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P88" s="31"/>
+    <row r="88" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P88" s="27"/>
       <c r="Q88" t="s">
         <v>211</v>
       </c>
@@ -4467,7 +4467,7 @@
       <c r="S88" t="s">
         <v>315</v>
       </c>
-      <c r="U88" s="28"/>
+      <c r="U88" s="32"/>
       <c r="V88" s="26" t="s">
         <v>513</v>
       </c>
@@ -4478,8 +4478,8 @@
         <v>510</v>
       </c>
     </row>
-    <row r="89" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P89" s="27" t="s">
+    <row r="89" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P89" s="28" t="s">
         <v>191</v>
       </c>
       <c r="Q89" t="s">
@@ -4491,7 +4491,7 @@
       <c r="S89" t="s">
         <v>311</v>
       </c>
-      <c r="U89" s="28"/>
+      <c r="U89" s="32"/>
       <c r="V89" s="26" t="s">
         <v>514</v>
       </c>
@@ -4502,8 +4502,8 @@
         <v>511</v>
       </c>
     </row>
-    <row r="90" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P90" s="27"/>
+    <row r="90" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P90" s="28"/>
       <c r="Q90" t="s">
         <v>252</v>
       </c>
@@ -4513,7 +4513,7 @@
       <c r="S90" t="s">
         <v>357</v>
       </c>
-      <c r="U90" s="28"/>
+      <c r="U90" s="32"/>
       <c r="V90" t="s">
         <v>207</v>
       </c>
@@ -4524,8 +4524,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="91" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P91" s="27"/>
+    <row r="91" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P91" s="28"/>
       <c r="Q91" t="s">
         <v>251</v>
       </c>
@@ -4535,7 +4535,7 @@
       <c r="S91" t="s">
         <v>356</v>
       </c>
-      <c r="U91" s="28"/>
+      <c r="U91" s="32"/>
       <c r="V91" s="26" t="s">
         <v>208</v>
       </c>
@@ -4546,8 +4546,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="92" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P92" s="32" t="s">
+    <row r="92" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P92" s="31" t="s">
         <v>192</v>
       </c>
       <c r="Q92" t="s">
@@ -4559,7 +4559,7 @@
       <c r="S92" t="s">
         <v>316</v>
       </c>
-      <c r="U92" s="28"/>
+      <c r="U92" s="32"/>
       <c r="V92" s="26" t="s">
         <v>209</v>
       </c>
@@ -4570,8 +4570,8 @@
         <v>306</v>
       </c>
     </row>
-    <row r="93" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P93" s="32"/>
+    <row r="93" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P93" s="31"/>
       <c r="Q93" s="26" t="s">
         <v>447</v>
       </c>
@@ -4581,13 +4581,13 @@
       <c r="S93" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="U93" s="28"/>
+      <c r="U93" s="32"/>
       <c r="V93" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P94" s="32"/>
+    <row r="94" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P94" s="31"/>
       <c r="Q94" s="26" t="s">
         <v>448</v>
       </c>
@@ -4597,7 +4597,7 @@
       <c r="S94" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="U94" s="28"/>
+      <c r="U94" s="32"/>
       <c r="V94" t="s">
         <v>27</v>
       </c>
@@ -4608,8 +4608,8 @@
         <v>403</v>
       </c>
     </row>
-    <row r="95" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P95" s="32"/>
+    <row r="95" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P95" s="31"/>
       <c r="Q95" t="s">
         <v>213</v>
       </c>
@@ -4619,7 +4619,7 @@
       <c r="S95" t="s">
         <v>319</v>
       </c>
-      <c r="U95" s="28"/>
+      <c r="U95" s="32"/>
       <c r="V95" t="s">
         <v>26</v>
       </c>
@@ -4630,8 +4630,8 @@
         <v>402</v>
       </c>
     </row>
-    <row r="96" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P96" s="32"/>
+    <row r="96" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P96" s="31"/>
       <c r="Q96" s="26" t="s">
         <v>214</v>
       </c>
@@ -4641,7 +4641,7 @@
       <c r="S96" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="U96" s="28"/>
+      <c r="U96" s="32"/>
       <c r="V96" t="s">
         <v>28</v>
       </c>
@@ -4652,8 +4652,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="97" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P97" s="32"/>
+    <row r="97" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P97" s="31"/>
       <c r="Q97" s="26" t="s">
         <v>215</v>
       </c>
@@ -4663,7 +4663,7 @@
       <c r="S97" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="U97" s="28"/>
+      <c r="U97" s="32"/>
       <c r="V97" t="s">
         <v>404</v>
       </c>
@@ -4674,8 +4674,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="98" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P98" s="32"/>
+    <row r="98" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P98" s="31"/>
       <c r="Q98" t="s">
         <v>216</v>
       </c>
@@ -4685,19 +4685,19 @@
       <c r="S98" t="s">
         <v>323</v>
       </c>
-      <c r="U98" s="28"/>
-      <c r="V98" t="s">
+      <c r="U98" s="32"/>
+      <c r="V98" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="W98" t="s">
+      <c r="W98" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="X98" t="s">
+      <c r="X98" s="26" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="99" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P99" s="32"/>
+    <row r="99" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P99" s="31"/>
       <c r="Q99" s="26" t="s">
         <v>217</v>
       </c>
@@ -4707,19 +4707,19 @@
       <c r="S99" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="U99" s="28"/>
-      <c r="V99" t="s">
+      <c r="U99" s="32"/>
+      <c r="V99" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="W99" t="s">
+      <c r="W99" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="X99" t="s">
+      <c r="X99" s="26" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="100" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P100" s="32"/>
+    <row r="100" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P100" s="31"/>
       <c r="Q100" s="26" t="s">
         <v>218</v>
       </c>
@@ -4729,7 +4729,7 @@
       <c r="S100" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="U100" s="28"/>
+      <c r="U100" s="32"/>
       <c r="V100" t="s">
         <v>407</v>
       </c>
@@ -4740,8 +4740,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="101" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P101" s="32"/>
+    <row r="101" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P101" s="31"/>
       <c r="Q101" t="s">
         <v>230</v>
       </c>
@@ -4751,7 +4751,7 @@
       <c r="S101" t="s">
         <v>334</v>
       </c>
-      <c r="U101" s="28"/>
+      <c r="U101" s="32"/>
       <c r="V101" t="s">
         <v>408</v>
       </c>
@@ -4762,8 +4762,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P102" s="32"/>
+    <row r="102" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P102" s="31"/>
       <c r="Q102" s="26" t="s">
         <v>231</v>
       </c>
@@ -4773,19 +4773,19 @@
       <c r="S102" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="U102" s="28"/>
-      <c r="V102" t="s">
+      <c r="U102" s="32"/>
+      <c r="V102" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="W102" t="s">
+      <c r="W102" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="X102" t="s">
+      <c r="X102" s="26" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="103" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P103" s="32"/>
+    <row r="103" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P103" s="31"/>
       <c r="Q103" s="26" t="s">
         <v>232</v>
       </c>
@@ -4795,19 +4795,19 @@
       <c r="S103" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="U103" s="28"/>
-      <c r="V103" t="s">
+      <c r="U103" s="32"/>
+      <c r="V103" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="W103" t="s">
+      <c r="W103" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="X103" t="s">
+      <c r="X103" s="26" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="104" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P104" s="32"/>
+    <row r="104" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P104" s="31"/>
       <c r="Q104" s="26" t="s">
         <v>237</v>
       </c>
@@ -4817,7 +4817,7 @@
       <c r="S104" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="U104" s="28"/>
+      <c r="U104" s="32"/>
       <c r="V104" t="s">
         <v>411</v>
       </c>
@@ -4828,8 +4828,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="105" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P105" s="32"/>
+    <row r="105" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P105" s="31"/>
       <c r="Q105" t="s">
         <v>233</v>
       </c>
@@ -4852,8 +4852,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="106" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P106" s="32"/>
+    <row r="106" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P106" s="31"/>
       <c r="Q106" s="26" t="s">
         <v>234</v>
       </c>
@@ -4863,7 +4863,7 @@
       <c r="S106" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="U106" s="27" t="s">
+      <c r="U106" s="28" t="s">
         <v>191</v>
       </c>
       <c r="V106" t="s">
@@ -4876,8 +4876,8 @@
         <v>517</v>
       </c>
     </row>
-    <row r="107" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P107" s="32"/>
+    <row r="107" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P107" s="31"/>
       <c r="Q107" s="26" t="s">
         <v>235</v>
       </c>
@@ -4887,7 +4887,7 @@
       <c r="S107" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="U107" s="27"/>
+      <c r="U107" s="28"/>
       <c r="V107" s="26" t="s">
         <v>519</v>
       </c>
@@ -4898,8 +4898,8 @@
         <v>516</v>
       </c>
     </row>
-    <row r="108" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P108" s="32"/>
+    <row r="108" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P108" s="31"/>
       <c r="Q108" s="26" t="s">
         <v>236</v>
       </c>
@@ -4909,7 +4909,7 @@
       <c r="S108" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="U108" s="27"/>
+      <c r="U108" s="28"/>
       <c r="V108" s="26" t="s">
         <v>520</v>
       </c>
@@ -4920,8 +4920,8 @@
         <v>515</v>
       </c>
     </row>
-    <row r="109" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P109" s="32"/>
+    <row r="109" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P109" s="31"/>
       <c r="Q109" t="s">
         <v>22</v>
       </c>
@@ -4931,7 +4931,7 @@
       <c r="S109" t="s">
         <v>343</v>
       </c>
-      <c r="U109" s="32" t="s">
+      <c r="U109" s="31" t="s">
         <v>192</v>
       </c>
       <c r="V109" t="s">
@@ -4944,8 +4944,8 @@
         <v>378</v>
       </c>
     </row>
-    <row r="110" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P110" s="32"/>
+    <row r="110" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P110" s="31"/>
       <c r="Q110" t="s">
         <v>21</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="S110" t="s">
         <v>344</v>
       </c>
-      <c r="U110" s="32"/>
+      <c r="U110" s="31"/>
       <c r="V110" s="26" t="s">
         <v>255</v>
       </c>
@@ -4966,8 +4966,8 @@
         <v>379</v>
       </c>
     </row>
-    <row r="111" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P111" s="32"/>
+    <row r="111" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P111" s="31"/>
       <c r="Q111" s="26" t="s">
         <v>240</v>
       </c>
@@ -4977,7 +4977,7 @@
       <c r="S111" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="U111" s="32"/>
+      <c r="U111" s="31"/>
       <c r="V111" s="26" t="s">
         <v>256</v>
       </c>
@@ -4988,8 +4988,8 @@
         <v>380</v>
       </c>
     </row>
-    <row r="112" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="U112" s="32"/>
+    <row r="112" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U112" s="31"/>
       <c r="V112" s="26" t="s">
         <v>257</v>
       </c>
@@ -5000,14 +5000,14 @@
         <v>381</v>
       </c>
     </row>
-    <row r="113" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P113" s="29" t="s">
+    <row r="113" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P113" s="30" t="s">
         <v>468</v>
       </c>
-      <c r="Q113" s="29"/>
-      <c r="R113" s="29"/>
-      <c r="S113" s="29"/>
-      <c r="U113" s="32"/>
+      <c r="Q113" s="30"/>
+      <c r="R113" s="30"/>
+      <c r="S113" s="30"/>
+      <c r="U113" s="31"/>
       <c r="V113" t="s">
         <v>258</v>
       </c>
@@ -5018,8 +5018,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="114" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P114" s="28" t="s">
+    <row r="114" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P114" s="32" t="s">
         <v>172</v>
       </c>
       <c r="Q114" t="s">
@@ -5031,7 +5031,7 @@
       <c r="S114" t="s">
         <v>181</v>
       </c>
-      <c r="U114" s="32"/>
+      <c r="U114" s="31"/>
       <c r="V114" s="26" t="s">
         <v>259</v>
       </c>
@@ -5042,8 +5042,8 @@
         <v>384</v>
       </c>
     </row>
-    <row r="115" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P115" s="28"/>
+    <row r="115" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P115" s="32"/>
       <c r="Q115" t="s">
         <v>47</v>
       </c>
@@ -5053,7 +5053,7 @@
       <c r="S115" t="s">
         <v>182</v>
       </c>
-      <c r="U115" s="32"/>
+      <c r="U115" s="31"/>
       <c r="V115" s="26" t="s">
         <v>260</v>
       </c>
@@ -5064,8 +5064,8 @@
         <v>385</v>
       </c>
     </row>
-    <row r="116" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P116" s="28"/>
+    <row r="116" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P116" s="32"/>
       <c r="Q116" t="s">
         <v>205</v>
       </c>
@@ -5075,7 +5075,7 @@
       <c r="S116" t="s">
         <v>310</v>
       </c>
-      <c r="U116" s="32"/>
+      <c r="U116" s="31"/>
       <c r="V116" s="26" t="s">
         <v>261</v>
       </c>
@@ -5086,8 +5086,8 @@
         <v>386</v>
       </c>
     </row>
-    <row r="117" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P117" s="28"/>
+    <row r="117" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P117" s="32"/>
       <c r="Q117" t="s">
         <v>206</v>
       </c>
@@ -5097,7 +5097,7 @@
       <c r="S117" t="s">
         <v>485</v>
       </c>
-      <c r="U117" s="32"/>
+      <c r="U117" s="31"/>
       <c r="V117" t="s">
         <v>262</v>
       </c>
@@ -5108,8 +5108,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="118" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P118" s="28"/>
+    <row r="118" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P118" s="32"/>
       <c r="Q118" t="s">
         <v>207</v>
       </c>
@@ -5119,7 +5119,7 @@
       <c r="S118" t="s">
         <v>304</v>
       </c>
-      <c r="U118" s="32"/>
+      <c r="U118" s="31"/>
       <c r="V118" s="26" t="s">
         <v>263</v>
       </c>
@@ -5130,8 +5130,8 @@
         <v>388</v>
       </c>
     </row>
-    <row r="119" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P119" s="28"/>
+    <row r="119" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P119" s="32"/>
       <c r="Q119" s="26" t="s">
         <v>208</v>
       </c>
@@ -5141,7 +5141,7 @@
       <c r="S119" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="U119" s="32"/>
+      <c r="U119" s="31"/>
       <c r="V119" s="26" t="s">
         <v>264</v>
       </c>
@@ -5152,8 +5152,8 @@
         <v>389</v>
       </c>
     </row>
-    <row r="120" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P120" s="28"/>
+    <row r="120" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P120" s="32"/>
       <c r="Q120" s="26" t="s">
         <v>209</v>
       </c>
@@ -5163,7 +5163,7 @@
       <c r="S120" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="U120" s="32"/>
+      <c r="U120" s="31"/>
       <c r="V120" s="26" t="s">
         <v>265</v>
       </c>
@@ -5174,8 +5174,8 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P121" s="28"/>
+    <row r="121" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P121" s="32"/>
       <c r="Q121" t="s">
         <v>271</v>
       </c>
@@ -5185,7 +5185,7 @@
       <c r="S121" t="s">
         <v>359</v>
       </c>
-      <c r="U121" s="32"/>
+      <c r="U121" s="31"/>
       <c r="V121" t="s">
         <v>266</v>
       </c>
@@ -5196,8 +5196,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="122" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P122" s="28"/>
+    <row r="122" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P122" s="32"/>
       <c r="Q122" t="s">
         <v>147</v>
       </c>
@@ -5207,7 +5207,7 @@
       <c r="S122" t="s">
         <v>358</v>
       </c>
-      <c r="U122" s="32"/>
+      <c r="U122" s="31"/>
       <c r="V122" s="26" t="s">
         <v>267</v>
       </c>
@@ -5218,8 +5218,8 @@
         <v>392</v>
       </c>
     </row>
-    <row r="123" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P123" s="28"/>
+    <row r="123" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P123" s="32"/>
       <c r="Q123" t="s">
         <v>251</v>
       </c>
@@ -5229,7 +5229,7 @@
       <c r="S123" t="s">
         <v>356</v>
       </c>
-      <c r="U123" s="32"/>
+      <c r="U123" s="31"/>
       <c r="V123" s="26" t="s">
         <v>268</v>
       </c>
@@ -5240,8 +5240,8 @@
         <v>393</v>
       </c>
     </row>
-    <row r="124" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P124" s="28"/>
+    <row r="124" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P124" s="32"/>
       <c r="Q124" t="s">
         <v>23</v>
       </c>
@@ -5251,7 +5251,7 @@
       <c r="S124" t="s">
         <v>345</v>
       </c>
-      <c r="U124" s="32"/>
+      <c r="U124" s="31"/>
       <c r="V124" s="26" t="s">
         <v>269</v>
       </c>
@@ -5262,8 +5262,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="125" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P125" s="28"/>
+    <row r="125" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P125" s="32"/>
       <c r="Q125" s="26" t="s">
         <v>501</v>
       </c>
@@ -5273,7 +5273,7 @@
       <c r="S125" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="U125" s="32"/>
+      <c r="U125" s="31"/>
       <c r="V125" t="s">
         <v>449</v>
       </c>
@@ -5284,8 +5284,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="126" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P126" s="28"/>
+    <row r="126" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P126" s="32"/>
       <c r="Q126" s="26" t="s">
         <v>497</v>
       </c>
@@ -5295,7 +5295,7 @@
       <c r="S126" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="U126" s="32"/>
+      <c r="U126" s="31"/>
       <c r="V126" s="26" t="s">
         <v>450</v>
       </c>
@@ -5306,8 +5306,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="127" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P127" s="28"/>
+    <row r="127" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P127" s="32"/>
       <c r="Q127" s="26" t="s">
         <v>496</v>
       </c>
@@ -5317,7 +5317,7 @@
       <c r="S127" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="U127" s="32"/>
+      <c r="U127" s="31"/>
       <c r="V127" s="26" t="s">
         <v>451</v>
       </c>
@@ -5328,8 +5328,8 @@
         <v>454</v>
       </c>
     </row>
-    <row r="128" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P128" s="28"/>
+    <row r="128" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P128" s="32"/>
       <c r="Q128" s="26" t="s">
         <v>495</v>
       </c>
@@ -5339,7 +5339,7 @@
       <c r="S128" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="U128" s="32"/>
+      <c r="U128" s="31"/>
       <c r="V128" t="s">
         <v>279</v>
       </c>
@@ -5350,8 +5350,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="129" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P129" s="28"/>
+    <row r="129" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P129" s="32"/>
       <c r="Q129" s="26" t="s">
         <v>498</v>
       </c>
@@ -5361,7 +5361,7 @@
       <c r="S129" s="26" t="s">
         <v>504</v>
       </c>
-      <c r="U129" s="32"/>
+      <c r="U129" s="31"/>
       <c r="V129" t="s">
         <v>280</v>
       </c>
@@ -5372,8 +5372,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="130" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P130" s="28"/>
+    <row r="130" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P130" s="32"/>
       <c r="Q130" s="26" t="s">
         <v>499</v>
       </c>
@@ -5383,7 +5383,7 @@
       <c r="S130" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="U130" s="32"/>
+      <c r="U130" s="31"/>
       <c r="V130" t="s">
         <v>281</v>
       </c>
@@ -5394,8 +5394,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="131" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P131" s="28"/>
+    <row r="131" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P131" s="32"/>
       <c r="Q131" s="26" t="s">
         <v>500</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="S131" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="U131" s="32"/>
+      <c r="U131" s="31"/>
       <c r="V131" t="s">
         <v>282</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="132" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="16:24" x14ac:dyDescent="0.45">
       <c r="P132" s="9" t="s">
         <v>457</v>
       </c>
@@ -5429,7 +5429,7 @@
       <c r="S132" t="s">
         <v>484</v>
       </c>
-      <c r="U132" s="32"/>
+      <c r="U132" s="31"/>
       <c r="V132" t="s">
         <v>283</v>
       </c>
@@ -5440,8 +5440,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="133" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P133" s="31" t="s">
+    <row r="133" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P133" s="27" t="s">
         <v>168</v>
       </c>
       <c r="Q133" t="s">
@@ -5453,7 +5453,7 @@
       <c r="S133" t="s">
         <v>314</v>
       </c>
-      <c r="U133" s="32"/>
+      <c r="U133" s="31"/>
       <c r="V133" t="s">
         <v>284</v>
       </c>
@@ -5464,8 +5464,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P134" s="31"/>
+    <row r="134" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P134" s="27"/>
       <c r="Q134" t="s">
         <v>211</v>
       </c>
@@ -5475,7 +5475,7 @@
       <c r="S134" t="s">
         <v>315</v>
       </c>
-      <c r="U134" s="32"/>
+      <c r="U134" s="31"/>
       <c r="V134" t="s">
         <v>278</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="135" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="16:24" x14ac:dyDescent="0.45">
       <c r="P135" s="7" t="s">
         <v>191</v>
       </c>
@@ -5500,8 +5500,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="136" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P136" s="32" t="s">
+    <row r="136" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P136" s="31" t="s">
         <v>192</v>
       </c>
       <c r="Q136" t="s">
@@ -5513,15 +5513,15 @@
       <c r="S136" t="s">
         <v>316</v>
       </c>
-      <c r="U136" s="30" t="s">
+      <c r="U136" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="V136" s="30"/>
-      <c r="W136" s="30"/>
-      <c r="X136" s="30"/>
-    </row>
-    <row r="137" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P137" s="32"/>
+      <c r="V136" s="29"/>
+      <c r="W136" s="29"/>
+      <c r="X136" s="29"/>
+    </row>
+    <row r="137" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P137" s="31"/>
       <c r="Q137" s="26" t="s">
         <v>447</v>
       </c>
@@ -5531,7 +5531,7 @@
       <c r="S137" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="U137" s="28" t="s">
+      <c r="U137" s="32" t="s">
         <v>172</v>
       </c>
       <c r="V137" t="s">
@@ -5544,8 +5544,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="138" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P138" s="32"/>
+    <row r="138" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P138" s="31"/>
       <c r="Q138" s="26" t="s">
         <v>448</v>
       </c>
@@ -5555,7 +5555,7 @@
       <c r="S138" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="U138" s="28"/>
+      <c r="U138" s="32"/>
       <c r="V138" t="s">
         <v>47</v>
       </c>
@@ -5566,8 +5566,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="139" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P139" s="32"/>
+    <row r="139" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P139" s="31"/>
       <c r="Q139" t="s">
         <v>213</v>
       </c>
@@ -5577,7 +5577,7 @@
       <c r="S139" t="s">
         <v>319</v>
       </c>
-      <c r="U139" s="28"/>
+      <c r="U139" s="32"/>
       <c r="V139" s="3" t="s">
         <v>444</v>
       </c>
@@ -5588,8 +5588,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="140" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P140" s="32"/>
+    <row r="140" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P140" s="31"/>
       <c r="Q140" s="26" t="s">
         <v>214</v>
       </c>
@@ -5599,7 +5599,7 @@
       <c r="S140" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="U140" s="28"/>
+      <c r="U140" s="32"/>
       <c r="V140" t="s">
         <v>445</v>
       </c>
@@ -5610,8 +5610,8 @@
         <v>376</v>
       </c>
     </row>
-    <row r="141" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P141" s="32"/>
+    <row r="141" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P141" s="31"/>
       <c r="Q141" s="26" t="s">
         <v>215</v>
       </c>
@@ -5621,7 +5621,7 @@
       <c r="S141" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="U141" s="28"/>
+      <c r="U141" s="32"/>
       <c r="V141" t="s">
         <v>205</v>
       </c>
@@ -5632,8 +5632,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="142" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P142" s="32"/>
+    <row r="142" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P142" s="31"/>
       <c r="Q142" t="s">
         <v>216</v>
       </c>
@@ -5643,7 +5643,7 @@
       <c r="S142" t="s">
         <v>323</v>
       </c>
-      <c r="U142" s="28"/>
+      <c r="U142" s="32"/>
       <c r="V142" t="s">
         <v>207</v>
       </c>
@@ -5654,8 +5654,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="143" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P143" s="32"/>
+    <row r="143" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P143" s="31"/>
       <c r="Q143" s="26" t="s">
         <v>217</v>
       </c>
@@ -5665,7 +5665,7 @@
       <c r="S143" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="U143" s="28"/>
+      <c r="U143" s="32"/>
       <c r="V143" s="26" t="s">
         <v>208</v>
       </c>
@@ -5676,8 +5676,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="144" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P144" s="32"/>
+    <row r="144" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P144" s="31"/>
       <c r="Q144" s="26" t="s">
         <v>218</v>
       </c>
@@ -5687,7 +5687,7 @@
       <c r="S144" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="U144" s="28"/>
+      <c r="U144" s="32"/>
       <c r="V144" s="26" t="s">
         <v>209</v>
       </c>
@@ -5698,8 +5698,8 @@
         <v>306</v>
       </c>
     </row>
-    <row r="145" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P145" s="32"/>
+    <row r="145" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P145" s="31"/>
       <c r="Q145" t="s">
         <v>230</v>
       </c>
@@ -5709,7 +5709,7 @@
       <c r="S145" t="s">
         <v>334</v>
       </c>
-      <c r="U145" s="28"/>
+      <c r="U145" s="32"/>
       <c r="V145" t="s">
         <v>292</v>
       </c>
@@ -5720,8 +5720,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="146" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P146" s="32"/>
+    <row r="146" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P146" s="31"/>
       <c r="Q146" s="26" t="s">
         <v>231</v>
       </c>
@@ -5731,7 +5731,7 @@
       <c r="S146" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="U146" s="28"/>
+      <c r="U146" s="32"/>
       <c r="V146" t="s">
         <v>293</v>
       </c>
@@ -5742,8 +5742,8 @@
         <v>426</v>
       </c>
     </row>
-    <row r="147" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P147" s="32"/>
+    <row r="147" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P147" s="31"/>
       <c r="Q147" s="26" t="s">
         <v>232</v>
       </c>
@@ -5753,7 +5753,7 @@
       <c r="S147" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="U147" s="28"/>
+      <c r="U147" s="32"/>
       <c r="V147" t="s">
         <v>220</v>
       </c>
@@ -5764,8 +5764,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="148" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P148" s="32"/>
+    <row r="148" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P148" s="31"/>
       <c r="Q148" s="26" t="s">
         <v>237</v>
       </c>
@@ -5775,7 +5775,7 @@
       <c r="S148" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="U148" s="28"/>
+      <c r="U148" s="32"/>
       <c r="V148" t="s">
         <v>272</v>
       </c>
@@ -5783,8 +5783,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="149" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P149" s="32"/>
+    <row r="149" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P149" s="31"/>
       <c r="Q149" t="s">
         <v>233</v>
       </c>
@@ -5794,7 +5794,7 @@
       <c r="S149" t="s">
         <v>338</v>
       </c>
-      <c r="U149" s="28"/>
+      <c r="U149" s="32"/>
       <c r="V149" t="s">
         <v>291</v>
       </c>
@@ -5805,8 +5805,8 @@
         <v>422</v>
       </c>
     </row>
-    <row r="150" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P150" s="32"/>
+    <row r="150" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P150" s="31"/>
       <c r="Q150" s="26" t="s">
         <v>234</v>
       </c>
@@ -5816,7 +5816,7 @@
       <c r="S150" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="U150" s="28"/>
+      <c r="U150" s="32"/>
       <c r="V150" t="s">
         <v>490</v>
       </c>
@@ -5827,8 +5827,8 @@
         <v>480</v>
       </c>
     </row>
-    <row r="151" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P151" s="32"/>
+    <row r="151" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P151" s="31"/>
       <c r="Q151" s="26" t="s">
         <v>235</v>
       </c>
@@ -5838,7 +5838,7 @@
       <c r="S151" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="U151" s="28"/>
+      <c r="U151" s="32"/>
       <c r="V151" t="s">
         <v>418</v>
       </c>
@@ -5849,8 +5849,8 @@
         <v>420</v>
       </c>
     </row>
-    <row r="152" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P152" s="32"/>
+    <row r="152" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P152" s="31"/>
       <c r="Q152" s="26" t="s">
         <v>236</v>
       </c>
@@ -5860,7 +5860,7 @@
       <c r="S152" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="U152" s="28"/>
+      <c r="U152" s="32"/>
       <c r="V152" t="s">
         <v>491</v>
       </c>
@@ -5871,8 +5871,8 @@
         <v>481</v>
       </c>
     </row>
-    <row r="153" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P153" s="32"/>
+    <row r="153" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P153" s="31"/>
       <c r="Q153" t="s">
         <v>22</v>
       </c>
@@ -5882,7 +5882,7 @@
       <c r="S153" t="s">
         <v>343</v>
       </c>
-      <c r="U153" s="28"/>
+      <c r="U153" s="32"/>
       <c r="V153" t="s">
         <v>419</v>
       </c>
@@ -5893,8 +5893,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="154" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P154" s="32"/>
+    <row r="154" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P154" s="31"/>
       <c r="Q154" t="s">
         <v>21</v>
       </c>
@@ -5904,7 +5904,7 @@
       <c r="S154" t="s">
         <v>344</v>
       </c>
-      <c r="U154" s="28"/>
+      <c r="U154" s="32"/>
       <c r="V154" t="s">
         <v>221</v>
       </c>
@@ -5915,8 +5915,8 @@
         <v>424</v>
       </c>
     </row>
-    <row r="155" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="U155" s="31" t="s">
+    <row r="155" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U155" s="27" t="s">
         <v>168</v>
       </c>
       <c r="V155" t="s">
@@ -5929,14 +5929,14 @@
         <v>383</v>
       </c>
     </row>
-    <row r="156" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P156" s="30" t="s">
+    <row r="156" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P156" s="29" t="s">
         <v>469</v>
       </c>
-      <c r="Q156" s="30"/>
-      <c r="R156" s="30"/>
-      <c r="S156" s="30"/>
-      <c r="U156" s="31"/>
+      <c r="Q156" s="29"/>
+      <c r="R156" s="29"/>
+      <c r="S156" s="29"/>
+      <c r="U156" s="27"/>
       <c r="V156" t="s">
         <v>429</v>
       </c>
@@ -5947,8 +5947,8 @@
         <v>431</v>
       </c>
     </row>
-    <row r="157" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P157" s="28" t="s">
+    <row r="157" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P157" s="32" t="s">
         <v>172</v>
       </c>
       <c r="Q157" t="s">
@@ -5960,7 +5960,7 @@
       <c r="S157" t="s">
         <v>181</v>
       </c>
-      <c r="U157" s="27" t="s">
+      <c r="U157" s="28" t="s">
         <v>191</v>
       </c>
       <c r="V157" t="s">
@@ -5973,8 +5973,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P158" s="28"/>
+    <row r="158" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P158" s="32"/>
       <c r="Q158" t="s">
         <v>47</v>
       </c>
@@ -5984,7 +5984,7 @@
       <c r="S158" t="s">
         <v>182</v>
       </c>
-      <c r="U158" s="27"/>
+      <c r="U158" s="28"/>
       <c r="V158" s="23" t="s">
         <v>294</v>
       </c>
@@ -5995,8 +5995,8 @@
         <v>427</v>
       </c>
     </row>
-    <row r="159" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P159" s="28"/>
+    <row r="159" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P159" s="32"/>
       <c r="Q159" t="s">
         <v>205</v>
       </c>
@@ -6006,7 +6006,7 @@
       <c r="S159" t="s">
         <v>310</v>
       </c>
-      <c r="U159" s="27"/>
+      <c r="U159" s="28"/>
       <c r="V159" s="23" t="s">
         <v>295</v>
       </c>
@@ -6017,8 +6017,8 @@
         <v>428</v>
       </c>
     </row>
-    <row r="160" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P160" s="28"/>
+    <row r="160" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P160" s="32"/>
       <c r="Q160" t="s">
         <v>206</v>
       </c>
@@ -6028,7 +6028,7 @@
       <c r="S160" t="s">
         <v>482</v>
       </c>
-      <c r="U160" s="32" t="s">
+      <c r="U160" s="31" t="s">
         <v>192</v>
       </c>
       <c r="V160" t="s">
@@ -6041,8 +6041,8 @@
         <v>378</v>
       </c>
     </row>
-    <row r="161" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P161" s="28"/>
+    <row r="161" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P161" s="32"/>
       <c r="Q161" t="s">
         <v>207</v>
       </c>
@@ -6052,7 +6052,7 @@
       <c r="S161" t="s">
         <v>304</v>
       </c>
-      <c r="U161" s="32"/>
+      <c r="U161" s="31"/>
       <c r="V161" s="26" t="s">
         <v>255</v>
       </c>
@@ -6063,8 +6063,8 @@
         <v>379</v>
       </c>
     </row>
-    <row r="162" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P162" s="28"/>
+    <row r="162" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P162" s="32"/>
       <c r="Q162" s="26" t="s">
         <v>208</v>
       </c>
@@ -6074,7 +6074,7 @@
       <c r="S162" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="U162" s="32"/>
+      <c r="U162" s="31"/>
       <c r="V162" s="26" t="s">
         <v>256</v>
       </c>
@@ -6085,8 +6085,8 @@
         <v>380</v>
       </c>
     </row>
-    <row r="163" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P163" s="28"/>
+    <row r="163" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P163" s="32"/>
       <c r="Q163" s="26" t="s">
         <v>209</v>
       </c>
@@ -6096,7 +6096,7 @@
       <c r="S163" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="U163" s="32"/>
+      <c r="U163" s="31"/>
       <c r="V163" s="26" t="s">
         <v>257</v>
       </c>
@@ -6107,8 +6107,8 @@
         <v>381</v>
       </c>
     </row>
-    <row r="164" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P164" s="28"/>
+    <row r="164" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P164" s="32"/>
       <c r="Q164" t="s">
         <v>370</v>
       </c>
@@ -6118,7 +6118,7 @@
       <c r="S164" t="s">
         <v>368</v>
       </c>
-      <c r="U164" s="32"/>
+      <c r="U164" s="31"/>
       <c r="V164" t="s">
         <v>258</v>
       </c>
@@ -6129,8 +6129,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="165" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P165" s="28"/>
+    <row r="165" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P165" s="32"/>
       <c r="Q165" t="s">
         <v>371</v>
       </c>
@@ -6140,7 +6140,7 @@
       <c r="S165" t="s">
         <v>369</v>
       </c>
-      <c r="U165" s="32"/>
+      <c r="U165" s="31"/>
       <c r="V165" s="26" t="s">
         <v>259</v>
       </c>
@@ -6151,8 +6151,8 @@
         <v>384</v>
       </c>
     </row>
-    <row r="166" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P166" s="28"/>
+    <row r="166" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P166" s="32"/>
       <c r="Q166" t="s">
         <v>242</v>
       </c>
@@ -6162,7 +6162,7 @@
       <c r="S166" t="s">
         <v>347</v>
       </c>
-      <c r="U166" s="32"/>
+      <c r="U166" s="31"/>
       <c r="V166" s="26" t="s">
         <v>260</v>
       </c>
@@ -6173,8 +6173,8 @@
         <v>385</v>
       </c>
     </row>
-    <row r="167" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P167" s="28"/>
+    <row r="167" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P167" s="32"/>
       <c r="Q167" t="s">
         <v>147</v>
       </c>
@@ -6184,7 +6184,7 @@
       <c r="S167" t="s">
         <v>361</v>
       </c>
-      <c r="U167" s="32"/>
+      <c r="U167" s="31"/>
       <c r="V167" s="26" t="s">
         <v>261</v>
       </c>
@@ -6195,8 +6195,8 @@
         <v>386</v>
       </c>
     </row>
-    <row r="168" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P168" s="28"/>
+    <row r="168" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P168" s="32"/>
       <c r="Q168" t="s">
         <v>365</v>
       </c>
@@ -6206,7 +6206,7 @@
       <c r="S168" t="s">
         <v>364</v>
       </c>
-      <c r="U168" s="32"/>
+      <c r="U168" s="31"/>
       <c r="V168" t="s">
         <v>262</v>
       </c>
@@ -6217,8 +6217,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="169" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P169" s="28"/>
+    <row r="169" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P169" s="32"/>
       <c r="Q169" t="s">
         <v>366</v>
       </c>
@@ -6228,7 +6228,7 @@
       <c r="S169" t="s">
         <v>363</v>
       </c>
-      <c r="U169" s="32"/>
+      <c r="U169" s="31"/>
       <c r="V169" s="26" t="s">
         <v>263</v>
       </c>
@@ -6239,8 +6239,8 @@
         <v>388</v>
       </c>
     </row>
-    <row r="170" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P170" s="28"/>
+    <row r="170" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P170" s="32"/>
       <c r="Q170" t="s">
         <v>486</v>
       </c>
@@ -6250,7 +6250,7 @@
       <c r="S170" t="s">
         <v>367</v>
       </c>
-      <c r="U170" s="32"/>
+      <c r="U170" s="31"/>
       <c r="V170" s="26" t="s">
         <v>264</v>
       </c>
@@ -6261,8 +6261,8 @@
         <v>389</v>
       </c>
     </row>
-    <row r="171" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P171" s="28"/>
+    <row r="171" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P171" s="32"/>
       <c r="Q171" t="s">
         <v>272</v>
       </c>
@@ -6272,7 +6272,7 @@
       <c r="S171" t="s">
         <v>487</v>
       </c>
-      <c r="U171" s="32"/>
+      <c r="U171" s="31"/>
       <c r="V171" s="26" t="s">
         <v>265</v>
       </c>
@@ -6283,8 +6283,8 @@
         <v>390</v>
       </c>
     </row>
-    <row r="172" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P172" s="28"/>
+    <row r="172" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P172" s="32"/>
       <c r="Q172" s="26" t="s">
         <v>224</v>
       </c>
@@ -6294,7 +6294,7 @@
       <c r="S172" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="U172" s="32"/>
+      <c r="U172" s="31"/>
       <c r="V172" t="s">
         <v>266</v>
       </c>
@@ -6305,8 +6305,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="173" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P173" s="28"/>
+    <row r="173" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P173" s="32"/>
       <c r="Q173" s="26" t="s">
         <v>225</v>
       </c>
@@ -6316,7 +6316,7 @@
       <c r="S173" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="U173" s="32"/>
+      <c r="U173" s="31"/>
       <c r="V173" s="26" t="s">
         <v>267</v>
       </c>
@@ -6327,8 +6327,8 @@
         <v>392</v>
       </c>
     </row>
-    <row r="174" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P174" s="28"/>
+    <row r="174" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P174" s="32"/>
       <c r="Q174" t="s">
         <v>23</v>
       </c>
@@ -6338,7 +6338,7 @@
       <c r="S174" t="s">
         <v>345</v>
       </c>
-      <c r="U174" s="32"/>
+      <c r="U174" s="31"/>
       <c r="V174" s="26" t="s">
         <v>268</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="175" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="16:24" x14ac:dyDescent="0.45">
       <c r="P175" s="9" t="s">
         <v>457</v>
       </c>
@@ -6362,7 +6362,7 @@
       <c r="S175" t="s">
         <v>461</v>
       </c>
-      <c r="U175" s="32"/>
+      <c r="U175" s="31"/>
       <c r="V175" s="26" t="s">
         <v>269</v>
       </c>
@@ -6373,8 +6373,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="176" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P176" s="31" t="s">
+    <row r="176" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P176" s="27" t="s">
         <v>168</v>
       </c>
       <c r="Q176" t="s">
@@ -6386,7 +6386,7 @@
       <c r="S176" t="s">
         <v>314</v>
       </c>
-      <c r="U176" s="32"/>
+      <c r="U176" s="31"/>
       <c r="V176" t="s">
         <v>279</v>
       </c>
@@ -6397,8 +6397,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="177" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P177" s="31"/>
+    <row r="177" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P177" s="27"/>
       <c r="Q177" t="s">
         <v>211</v>
       </c>
@@ -6408,7 +6408,7 @@
       <c r="S177" t="s">
         <v>315</v>
       </c>
-      <c r="U177" s="32"/>
+      <c r="U177" s="31"/>
       <c r="V177" t="s">
         <v>280</v>
       </c>
@@ -6419,8 +6419,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="178" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P178" s="27" t="s">
+    <row r="178" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P178" s="28" t="s">
         <v>191</v>
       </c>
       <c r="Q178" t="s">
@@ -6432,7 +6432,7 @@
       <c r="S178" t="s">
         <v>311</v>
       </c>
-      <c r="U178" s="32"/>
+      <c r="U178" s="31"/>
       <c r="V178" t="s">
         <v>281</v>
       </c>
@@ -6443,8 +6443,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="179" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P179" s="27"/>
+    <row r="179" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P179" s="28"/>
       <c r="Q179" t="s">
         <v>251</v>
       </c>
@@ -6454,7 +6454,7 @@
       <c r="S179" t="s">
         <v>356</v>
       </c>
-      <c r="U179" s="32"/>
+      <c r="U179" s="31"/>
       <c r="V179" t="s">
         <v>282</v>
       </c>
@@ -6465,8 +6465,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="180" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P180" s="32" t="s">
+    <row r="180" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P180" s="31" t="s">
         <v>192</v>
       </c>
       <c r="Q180" t="s">
@@ -6478,7 +6478,7 @@
       <c r="S180" t="s">
         <v>316</v>
       </c>
-      <c r="U180" s="32"/>
+      <c r="U180" s="31"/>
       <c r="V180" t="s">
         <v>283</v>
       </c>
@@ -6489,8 +6489,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="181" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P181" s="32"/>
+    <row r="181" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P181" s="31"/>
       <c r="Q181" s="26" t="s">
         <v>447</v>
       </c>
@@ -6500,7 +6500,7 @@
       <c r="S181" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="U181" s="32"/>
+      <c r="U181" s="31"/>
       <c r="V181" t="s">
         <v>284</v>
       </c>
@@ -6511,8 +6511,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="182" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P182" s="32"/>
+    <row r="182" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P182" s="31"/>
       <c r="Q182" s="26" t="s">
         <v>448</v>
       </c>
@@ -6522,7 +6522,7 @@
       <c r="S182" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="U182" s="32"/>
+      <c r="U182" s="31"/>
       <c r="V182" t="s">
         <v>278</v>
       </c>
@@ -6533,8 +6533,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="183" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P183" s="32"/>
+    <row r="183" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P183" s="31"/>
       <c r="Q183" t="s">
         <v>213</v>
       </c>
@@ -6544,7 +6544,7 @@
       <c r="S183" t="s">
         <v>319</v>
       </c>
-      <c r="U183" s="32"/>
+      <c r="U183" s="31"/>
       <c r="V183" t="s">
         <v>455</v>
       </c>
@@ -6555,8 +6555,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="184" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P184" s="32"/>
+    <row r="184" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P184" s="31"/>
       <c r="Q184" s="26" t="s">
         <v>214</v>
       </c>
@@ -6571,8 +6571,8 @@
       <c r="W184" s="19"/>
       <c r="X184" s="19"/>
     </row>
-    <row r="185" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P185" s="32"/>
+    <row r="185" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P185" s="31"/>
       <c r="Q185" s="26" t="s">
         <v>215</v>
       </c>
@@ -6582,15 +6582,15 @@
       <c r="S185" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="U185" s="29" t="s">
+      <c r="U185" s="30" t="s">
         <v>475</v>
       </c>
-      <c r="V185" s="29"/>
-      <c r="W185" s="29"/>
-      <c r="X185" s="29"/>
-    </row>
-    <row r="186" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P186" s="32"/>
+      <c r="V185" s="30"/>
+      <c r="W185" s="30"/>
+      <c r="X185" s="30"/>
+    </row>
+    <row r="186" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P186" s="31"/>
       <c r="Q186" t="s">
         <v>216</v>
       </c>
@@ -6600,7 +6600,7 @@
       <c r="S186" t="s">
         <v>323</v>
       </c>
-      <c r="U186" s="28" t="s">
+      <c r="U186" s="32" t="s">
         <v>172</v>
       </c>
       <c r="V186" t="s">
@@ -6613,8 +6613,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="187" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P187" s="32"/>
+    <row r="187" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P187" s="31"/>
       <c r="Q187" s="26" t="s">
         <v>217</v>
       </c>
@@ -6624,7 +6624,7 @@
       <c r="S187" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="U187" s="28"/>
+      <c r="U187" s="32"/>
       <c r="V187" t="s">
         <v>47</v>
       </c>
@@ -6635,8 +6635,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="188" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P188" s="32"/>
+    <row r="188" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P188" s="31"/>
       <c r="Q188" s="26" t="s">
         <v>218</v>
       </c>
@@ -6646,7 +6646,7 @@
       <c r="S188" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="U188" s="28"/>
+      <c r="U188" s="32"/>
       <c r="V188" s="3" t="s">
         <v>444</v>
       </c>
@@ -6657,8 +6657,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="189" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P189" s="32"/>
+    <row r="189" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P189" s="31"/>
       <c r="Q189" t="s">
         <v>230</v>
       </c>
@@ -6668,7 +6668,7 @@
       <c r="S189" t="s">
         <v>334</v>
       </c>
-      <c r="U189" s="28"/>
+      <c r="U189" s="32"/>
       <c r="V189" t="s">
         <v>445</v>
       </c>
@@ -6679,8 +6679,8 @@
         <v>376</v>
       </c>
     </row>
-    <row r="190" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P190" s="32"/>
+    <row r="190" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P190" s="31"/>
       <c r="Q190" s="26" t="s">
         <v>231</v>
       </c>
@@ -6690,7 +6690,7 @@
       <c r="S190" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="U190" s="28"/>
+      <c r="U190" s="32"/>
       <c r="V190" t="s">
         <v>205</v>
       </c>
@@ -6701,8 +6701,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="191" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P191" s="32"/>
+    <row r="191" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P191" s="31"/>
       <c r="Q191" s="26" t="s">
         <v>232</v>
       </c>
@@ -6712,7 +6712,7 @@
       <c r="S191" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="U191" s="28"/>
+      <c r="U191" s="32"/>
       <c r="V191" t="s">
         <v>207</v>
       </c>
@@ -6723,8 +6723,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="192" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P192" s="32"/>
+    <row r="192" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P192" s="31"/>
       <c r="Q192" s="26" t="s">
         <v>237</v>
       </c>
@@ -6734,7 +6734,7 @@
       <c r="S192" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="U192" s="28"/>
+      <c r="U192" s="32"/>
       <c r="V192" s="26" t="s">
         <v>208</v>
       </c>
@@ -6745,8 +6745,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="193" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P193" s="32"/>
+    <row r="193" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P193" s="31"/>
       <c r="Q193" t="s">
         <v>233</v>
       </c>
@@ -6756,7 +6756,7 @@
       <c r="S193" t="s">
         <v>338</v>
       </c>
-      <c r="U193" s="28"/>
+      <c r="U193" s="32"/>
       <c r="V193" s="26" t="s">
         <v>209</v>
       </c>
@@ -6767,8 +6767,8 @@
         <v>306</v>
       </c>
     </row>
-    <row r="194" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P194" s="32"/>
+    <row r="194" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P194" s="31"/>
       <c r="Q194" s="26" t="s">
         <v>234</v>
       </c>
@@ -6778,7 +6778,7 @@
       <c r="S194" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="U194" s="28"/>
+      <c r="U194" s="32"/>
       <c r="V194" t="s">
         <v>206</v>
       </c>
@@ -6789,8 +6789,8 @@
         <v>479</v>
       </c>
     </row>
-    <row r="195" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P195" s="32"/>
+    <row r="195" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P195" s="31"/>
       <c r="Q195" s="26" t="s">
         <v>235</v>
       </c>
@@ -6800,10 +6800,10 @@
       <c r="S195" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="U195" s="28"/>
-    </row>
-    <row r="196" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P196" s="32"/>
+      <c r="U195" s="32"/>
+    </row>
+    <row r="196" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P196" s="31"/>
       <c r="Q196" s="26" t="s">
         <v>236</v>
       </c>
@@ -6813,7 +6813,7 @@
       <c r="S196" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="U196" s="28"/>
+      <c r="U196" s="32"/>
       <c r="V196" t="s">
         <v>432</v>
       </c>
@@ -6821,8 +6821,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="197" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P197" s="32"/>
+    <row r="197" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P197" s="31"/>
       <c r="Q197" t="s">
         <v>22</v>
       </c>
@@ -6832,7 +6832,7 @@
       <c r="S197" t="s">
         <v>343</v>
       </c>
-      <c r="U197" s="28"/>
+      <c r="U197" s="32"/>
       <c r="V197" t="s">
         <v>23</v>
       </c>
@@ -6843,8 +6843,8 @@
         <v>345</v>
       </c>
     </row>
-    <row r="198" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P198" s="32"/>
+    <row r="198" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P198" s="31"/>
       <c r="Q198" t="s">
         <v>21</v>
       </c>
@@ -6854,7 +6854,7 @@
       <c r="S198" t="s">
         <v>344</v>
       </c>
-      <c r="U198" s="31" t="s">
+      <c r="U198" s="27" t="s">
         <v>168</v>
       </c>
       <c r="V198" t="s">
@@ -6867,8 +6867,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="199" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P199" s="32"/>
+    <row r="199" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P199" s="31"/>
       <c r="Q199" s="26" t="s">
         <v>240</v>
       </c>
@@ -6878,7 +6878,7 @@
       <c r="S199" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="U199" s="31"/>
+      <c r="U199" s="27"/>
       <c r="V199" t="s">
         <v>429</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="200" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="16:24" x14ac:dyDescent="0.45">
       <c r="U200" s="7" t="s">
         <v>191</v>
       </c>
@@ -6903,14 +6903,14 @@
         <v>311</v>
       </c>
     </row>
-    <row r="201" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P201" s="29" t="s">
+    <row r="201" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P201" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="Q201" s="29"/>
-      <c r="R201" s="29"/>
-      <c r="S201" s="29"/>
-      <c r="U201" s="32" t="s">
+      <c r="Q201" s="30"/>
+      <c r="R201" s="30"/>
+      <c r="S201" s="30"/>
+      <c r="U201" s="31" t="s">
         <v>192</v>
       </c>
       <c r="V201" t="s">
@@ -6923,8 +6923,8 @@
         <v>378</v>
       </c>
     </row>
-    <row r="202" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P202" s="28" t="s">
+    <row r="202" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P202" s="32" t="s">
         <v>172</v>
       </c>
       <c r="Q202" t="s">
@@ -6936,7 +6936,7 @@
       <c r="S202" t="s">
         <v>181</v>
       </c>
-      <c r="U202" s="32"/>
+      <c r="U202" s="31"/>
       <c r="V202" s="26" t="s">
         <v>255</v>
       </c>
@@ -6947,8 +6947,8 @@
         <v>379</v>
       </c>
     </row>
-    <row r="203" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P203" s="28"/>
+    <row r="203" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P203" s="32"/>
       <c r="Q203" t="s">
         <v>47</v>
       </c>
@@ -6958,7 +6958,7 @@
       <c r="S203" t="s">
         <v>182</v>
       </c>
-      <c r="U203" s="32"/>
+      <c r="U203" s="31"/>
       <c r="V203" s="26" t="s">
         <v>256</v>
       </c>
@@ -6969,8 +6969,8 @@
         <v>380</v>
       </c>
     </row>
-    <row r="204" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P204" s="28"/>
+    <row r="204" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P204" s="32"/>
       <c r="Q204" t="s">
         <v>205</v>
       </c>
@@ -6980,7 +6980,7 @@
       <c r="S204" t="s">
         <v>310</v>
       </c>
-      <c r="U204" s="32"/>
+      <c r="U204" s="31"/>
       <c r="V204" s="26" t="s">
         <v>257</v>
       </c>
@@ -6991,8 +6991,8 @@
         <v>381</v>
       </c>
     </row>
-    <row r="205" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P205" s="28"/>
+    <row r="205" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P205" s="32"/>
       <c r="Q205" t="s">
         <v>206</v>
       </c>
@@ -7002,7 +7002,7 @@
       <c r="S205" t="s">
         <v>309</v>
       </c>
-      <c r="U205" s="32"/>
+      <c r="U205" s="31"/>
       <c r="V205" t="s">
         <v>258</v>
       </c>
@@ -7013,8 +7013,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="206" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P206" s="28"/>
+    <row r="206" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P206" s="32"/>
       <c r="Q206" t="s">
         <v>207</v>
       </c>
@@ -7024,7 +7024,7 @@
       <c r="S206" t="s">
         <v>304</v>
       </c>
-      <c r="U206" s="32"/>
+      <c r="U206" s="31"/>
       <c r="V206" s="26" t="s">
         <v>259</v>
       </c>
@@ -7035,8 +7035,8 @@
         <v>384</v>
       </c>
     </row>
-    <row r="207" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P207" s="28"/>
+    <row r="207" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P207" s="32"/>
       <c r="Q207" s="26" t="s">
         <v>208</v>
       </c>
@@ -7046,7 +7046,7 @@
       <c r="S207" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="U207" s="32"/>
+      <c r="U207" s="31"/>
       <c r="V207" s="26" t="s">
         <v>260</v>
       </c>
@@ -7057,8 +7057,8 @@
         <v>385</v>
       </c>
     </row>
-    <row r="208" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P208" s="28"/>
+    <row r="208" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P208" s="32"/>
       <c r="Q208" s="26" t="s">
         <v>209</v>
       </c>
@@ -7068,7 +7068,7 @@
       <c r="S208" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="U208" s="32"/>
+      <c r="U208" s="31"/>
       <c r="V208" s="26" t="s">
         <v>261</v>
       </c>
@@ -7079,8 +7079,8 @@
         <v>386</v>
       </c>
     </row>
-    <row r="209" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P209" s="28"/>
+    <row r="209" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P209" s="32"/>
       <c r="Q209" t="s">
         <v>372</v>
       </c>
@@ -7090,7 +7090,7 @@
       <c r="S209" t="s">
         <v>374</v>
       </c>
-      <c r="U209" s="32"/>
+      <c r="U209" s="31"/>
       <c r="V209" t="s">
         <v>262</v>
       </c>
@@ -7101,8 +7101,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="210" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P210" s="28"/>
+    <row r="210" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P210" s="32"/>
       <c r="Q210" t="s">
         <v>275</v>
       </c>
@@ -7112,7 +7112,7 @@
       <c r="S210" t="s">
         <v>492</v>
       </c>
-      <c r="U210" s="32"/>
+      <c r="U210" s="31"/>
       <c r="V210" s="26" t="s">
         <v>263</v>
       </c>
@@ -7123,8 +7123,8 @@
         <v>388</v>
       </c>
     </row>
-    <row r="211" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P211" s="28"/>
+    <row r="211" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P211" s="32"/>
       <c r="Q211" t="s">
         <v>147</v>
       </c>
@@ -7134,7 +7134,7 @@
       <c r="S211" t="s">
         <v>346</v>
       </c>
-      <c r="U211" s="32"/>
+      <c r="U211" s="31"/>
       <c r="V211" s="26" t="s">
         <v>264</v>
       </c>
@@ -7145,8 +7145,8 @@
         <v>389</v>
       </c>
     </row>
-    <row r="212" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P212" s="28"/>
+    <row r="212" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P212" s="32"/>
       <c r="Q212" t="s">
         <v>251</v>
       </c>
@@ -7156,7 +7156,7 @@
       <c r="S212" t="s">
         <v>356</v>
       </c>
-      <c r="U212" s="32"/>
+      <c r="U212" s="31"/>
       <c r="V212" s="26" t="s">
         <v>265</v>
       </c>
@@ -7167,15 +7167,15 @@
         <v>390</v>
       </c>
     </row>
-    <row r="213" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P213" s="28"/>
+    <row r="213" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P213" s="32"/>
       <c r="Q213" t="s">
         <v>272</v>
       </c>
       <c r="R213" t="s">
         <v>238</v>
       </c>
-      <c r="U213" s="32"/>
+      <c r="U213" s="31"/>
       <c r="V213" t="s">
         <v>266</v>
       </c>
@@ -7186,8 +7186,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="214" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P214" s="28"/>
+    <row r="214" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P214" s="32"/>
       <c r="Q214" t="s">
         <v>493</v>
       </c>
@@ -7197,7 +7197,7 @@
       <c r="S214" t="s">
         <v>494</v>
       </c>
-      <c r="U214" s="32"/>
+      <c r="U214" s="31"/>
       <c r="V214" s="26" t="s">
         <v>267</v>
       </c>
@@ -7208,8 +7208,8 @@
         <v>392</v>
       </c>
     </row>
-    <row r="215" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P215" s="28"/>
+    <row r="215" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P215" s="32"/>
       <c r="Q215" s="26" t="s">
         <v>224</v>
       </c>
@@ -7219,7 +7219,7 @@
       <c r="S215" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="U215" s="32"/>
+      <c r="U215" s="31"/>
       <c r="V215" s="26" t="s">
         <v>268</v>
       </c>
@@ -7230,8 +7230,8 @@
         <v>393</v>
       </c>
     </row>
-    <row r="216" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P216" s="28"/>
+    <row r="216" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P216" s="32"/>
       <c r="Q216" s="26" t="s">
         <v>225</v>
       </c>
@@ -7241,7 +7241,7 @@
       <c r="S216" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="U216" s="32"/>
+      <c r="U216" s="31"/>
       <c r="V216" s="26" t="s">
         <v>269</v>
       </c>
@@ -7252,8 +7252,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="217" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P217" s="28"/>
+    <row r="217" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P217" s="32"/>
       <c r="Q217" t="s">
         <v>274</v>
       </c>
@@ -7263,7 +7263,7 @@
       <c r="S217" t="s">
         <v>360</v>
       </c>
-      <c r="U217" s="32"/>
+      <c r="U217" s="31"/>
       <c r="V217" t="s">
         <v>279</v>
       </c>
@@ -7274,8 +7274,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="218" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P218" s="28"/>
+    <row r="218" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P218" s="32"/>
       <c r="Q218" t="s">
         <v>23</v>
       </c>
@@ -7285,7 +7285,7 @@
       <c r="S218" t="s">
         <v>345</v>
       </c>
-      <c r="U218" s="32"/>
+      <c r="U218" s="31"/>
       <c r="V218" t="s">
         <v>280</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="219" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="219" spans="16:24" x14ac:dyDescent="0.45">
       <c r="P219" s="20" t="s">
         <v>457</v>
       </c>
@@ -7309,7 +7309,7 @@
       <c r="S219" t="s">
         <v>461</v>
       </c>
-      <c r="U219" s="32"/>
+      <c r="U219" s="31"/>
       <c r="V219" t="s">
         <v>281</v>
       </c>
@@ -7320,8 +7320,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="220" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P220" s="31" t="s">
+    <row r="220" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P220" s="27" t="s">
         <v>168</v>
       </c>
       <c r="Q220" t="s">
@@ -7333,7 +7333,7 @@
       <c r="S220" t="s">
         <v>314</v>
       </c>
-      <c r="U220" s="32"/>
+      <c r="U220" s="31"/>
       <c r="V220" t="s">
         <v>282</v>
       </c>
@@ -7344,8 +7344,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="221" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P221" s="31"/>
+    <row r="221" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P221" s="27"/>
       <c r="Q221" t="s">
         <v>211</v>
       </c>
@@ -7355,7 +7355,7 @@
       <c r="S221" t="s">
         <v>315</v>
       </c>
-      <c r="U221" s="32"/>
+      <c r="U221" s="31"/>
       <c r="V221" t="s">
         <v>283</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="222" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="222" spans="16:24" x14ac:dyDescent="0.45">
       <c r="P222" s="7" t="s">
         <v>191</v>
       </c>
@@ -7379,7 +7379,7 @@
       <c r="S222" t="s">
         <v>311</v>
       </c>
-      <c r="U222" s="32"/>
+      <c r="U222" s="31"/>
       <c r="V222" t="s">
         <v>284</v>
       </c>
@@ -7390,8 +7390,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="223" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P223" s="32" t="s">
+    <row r="223" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P223" s="31" t="s">
         <v>192</v>
       </c>
       <c r="Q223" t="s">
@@ -7403,7 +7403,7 @@
       <c r="S223" t="s">
         <v>316</v>
       </c>
-      <c r="U223" s="32"/>
+      <c r="U223" s="31"/>
       <c r="V223" t="s">
         <v>278</v>
       </c>
@@ -7414,8 +7414,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="224" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P224" s="32"/>
+    <row r="224" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P224" s="31"/>
       <c r="Q224" s="26" t="s">
         <v>447</v>
       </c>
@@ -7425,7 +7425,7 @@
       <c r="S224" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="U224" s="32"/>
+      <c r="U224" s="31"/>
       <c r="V224" t="s">
         <v>455</v>
       </c>
@@ -7436,8 +7436,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="225" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P225" s="32"/>
+    <row r="225" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P225" s="31"/>
       <c r="Q225" s="26" t="s">
         <v>448</v>
       </c>
@@ -7452,8 +7452,8 @@
       <c r="W225" s="19"/>
       <c r="X225" s="19"/>
     </row>
-    <row r="226" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P226" s="32"/>
+    <row r="226" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P226" s="31"/>
       <c r="Q226" t="s">
         <v>213</v>
       </c>
@@ -7463,15 +7463,15 @@
       <c r="S226" t="s">
         <v>319</v>
       </c>
-      <c r="U226" s="30" t="s">
+      <c r="U226" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="V226" s="30"/>
-      <c r="W226" s="30"/>
-      <c r="X226" s="30"/>
-    </row>
-    <row r="227" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P227" s="32"/>
+      <c r="V226" s="29"/>
+      <c r="W226" s="29"/>
+      <c r="X226" s="29"/>
+    </row>
+    <row r="227" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P227" s="31"/>
       <c r="Q227" s="26" t="s">
         <v>214</v>
       </c>
@@ -7481,7 +7481,7 @@
       <c r="S227" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="U227" s="28" t="s">
+      <c r="U227" s="32" t="s">
         <v>172</v>
       </c>
       <c r="V227" t="s">
@@ -7494,8 +7494,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="228" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P228" s="32"/>
+    <row r="228" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P228" s="31"/>
       <c r="Q228" s="26" t="s">
         <v>215</v>
       </c>
@@ -7505,7 +7505,7 @@
       <c r="S228" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="U228" s="28"/>
+      <c r="U228" s="32"/>
       <c r="V228" t="s">
         <v>47</v>
       </c>
@@ -7516,8 +7516,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="229" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P229" s="32"/>
+    <row r="229" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P229" s="31"/>
       <c r="Q229" t="s">
         <v>216</v>
       </c>
@@ -7527,7 +7527,7 @@
       <c r="S229" t="s">
         <v>323</v>
       </c>
-      <c r="U229" s="28"/>
+      <c r="U229" s="32"/>
       <c r="V229" s="3" t="s">
         <v>444</v>
       </c>
@@ -7538,8 +7538,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="230" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P230" s="32"/>
+    <row r="230" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P230" s="31"/>
       <c r="Q230" s="26" t="s">
         <v>217</v>
       </c>
@@ -7549,7 +7549,7 @@
       <c r="S230" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="U230" s="28"/>
+      <c r="U230" s="32"/>
       <c r="V230" t="s">
         <v>445</v>
       </c>
@@ -7560,8 +7560,8 @@
         <v>376</v>
       </c>
     </row>
-    <row r="231" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P231" s="32"/>
+    <row r="231" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P231" s="31"/>
       <c r="Q231" s="26" t="s">
         <v>218</v>
       </c>
@@ -7571,7 +7571,7 @@
       <c r="S231" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="U231" s="28"/>
+      <c r="U231" s="32"/>
       <c r="V231" t="s">
         <v>205</v>
       </c>
@@ -7582,8 +7582,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="232" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P232" s="32"/>
+    <row r="232" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P232" s="31"/>
       <c r="Q232" t="s">
         <v>230</v>
       </c>
@@ -7593,7 +7593,7 @@
       <c r="S232" t="s">
         <v>334</v>
       </c>
-      <c r="U232" s="28"/>
+      <c r="U232" s="32"/>
       <c r="V232" t="s">
         <v>207</v>
       </c>
@@ -7604,8 +7604,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="233" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P233" s="32"/>
+    <row r="233" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P233" s="31"/>
       <c r="Q233" s="26" t="s">
         <v>231</v>
       </c>
@@ -7615,7 +7615,7 @@
       <c r="S233" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="U233" s="28"/>
+      <c r="U233" s="32"/>
       <c r="V233" s="26" t="s">
         <v>208</v>
       </c>
@@ -7626,8 +7626,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="234" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P234" s="32"/>
+    <row r="234" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P234" s="31"/>
       <c r="Q234" s="26" t="s">
         <v>232</v>
       </c>
@@ -7637,7 +7637,7 @@
       <c r="S234" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="U234" s="28"/>
+      <c r="U234" s="32"/>
       <c r="V234" s="26" t="s">
         <v>209</v>
       </c>
@@ -7648,8 +7648,8 @@
         <v>306</v>
       </c>
     </row>
-    <row r="235" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P235" s="32"/>
+    <row r="235" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P235" s="31"/>
       <c r="Q235" s="26" t="s">
         <v>237</v>
       </c>
@@ -7659,7 +7659,7 @@
       <c r="S235" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="U235" s="28"/>
+      <c r="U235" s="32"/>
       <c r="V235" t="s">
         <v>206</v>
       </c>
@@ -7670,8 +7670,8 @@
         <v>479</v>
       </c>
     </row>
-    <row r="236" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P236" s="32"/>
+    <row r="236" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P236" s="31"/>
       <c r="Q236" t="s">
         <v>233</v>
       </c>
@@ -7681,7 +7681,7 @@
       <c r="S236" t="s">
         <v>338</v>
       </c>
-      <c r="U236" s="28"/>
+      <c r="U236" s="32"/>
       <c r="V236" t="s">
         <v>199</v>
       </c>
@@ -7692,8 +7692,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="237" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P237" s="32"/>
+    <row r="237" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P237" s="31"/>
       <c r="Q237" s="26" t="s">
         <v>234</v>
       </c>
@@ -7703,7 +7703,7 @@
       <c r="S237" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="U237" s="28"/>
+      <c r="U237" s="32"/>
       <c r="V237" t="s">
         <v>220</v>
       </c>
@@ -7714,8 +7714,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="238" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P238" s="32"/>
+    <row r="238" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P238" s="31"/>
       <c r="Q238" s="26" t="s">
         <v>235</v>
       </c>
@@ -7725,7 +7725,7 @@
       <c r="S238" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="U238" s="28"/>
+      <c r="U238" s="32"/>
       <c r="V238" t="s">
         <v>432</v>
       </c>
@@ -7733,8 +7733,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="239" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P239" s="32"/>
+    <row r="239" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P239" s="31"/>
       <c r="Q239" s="26" t="s">
         <v>236</v>
       </c>
@@ -7744,7 +7744,7 @@
       <c r="S239" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="U239" s="31" t="s">
+      <c r="U239" s="27" t="s">
         <v>168</v>
       </c>
       <c r="V239" t="s">
@@ -7757,8 +7757,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="240" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P240" s="32"/>
+    <row r="240" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P240" s="31"/>
       <c r="Q240" t="s">
         <v>22</v>
       </c>
@@ -7768,7 +7768,7 @@
       <c r="S240" t="s">
         <v>343</v>
       </c>
-      <c r="U240" s="31"/>
+      <c r="U240" s="27"/>
       <c r="V240" t="s">
         <v>429</v>
       </c>
@@ -7779,8 +7779,8 @@
         <v>430</v>
       </c>
     </row>
-    <row r="241" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P241" s="32"/>
+    <row r="241" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P241" s="31"/>
       <c r="Q241" t="s">
         <v>21</v>
       </c>
@@ -7803,8 +7803,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="242" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="P242" s="32"/>
+    <row r="242" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="P242" s="31"/>
       <c r="Q242" s="26" t="s">
         <v>240</v>
       </c>
@@ -7814,7 +7814,7 @@
       <c r="S242" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="U242" s="32" t="s">
+      <c r="U242" s="31" t="s">
         <v>192</v>
       </c>
       <c r="V242" t="s">
@@ -7827,8 +7827,8 @@
         <v>378</v>
       </c>
     </row>
-    <row r="243" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="U243" s="32"/>
+    <row r="243" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U243" s="31"/>
       <c r="V243" s="26" t="s">
         <v>255</v>
       </c>
@@ -7839,8 +7839,8 @@
         <v>379</v>
       </c>
     </row>
-    <row r="244" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="U244" s="32"/>
+    <row r="244" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U244" s="31"/>
       <c r="V244" s="26" t="s">
         <v>256</v>
       </c>
@@ -7851,8 +7851,8 @@
         <v>380</v>
       </c>
     </row>
-    <row r="245" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="U245" s="32"/>
+    <row r="245" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U245" s="31"/>
       <c r="V245" s="26" t="s">
         <v>257</v>
       </c>
@@ -7863,8 +7863,8 @@
         <v>381</v>
       </c>
     </row>
-    <row r="246" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="U246" s="32"/>
+    <row r="246" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U246" s="31"/>
       <c r="V246" t="s">
         <v>258</v>
       </c>
@@ -7875,8 +7875,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="247" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="U247" s="32"/>
+    <row r="247" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U247" s="31"/>
       <c r="V247" s="26" t="s">
         <v>259</v>
       </c>
@@ -7887,8 +7887,8 @@
         <v>384</v>
       </c>
     </row>
-    <row r="248" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="U248" s="32"/>
+    <row r="248" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U248" s="31"/>
       <c r="V248" s="26" t="s">
         <v>260</v>
       </c>
@@ -7899,8 +7899,8 @@
         <v>385</v>
       </c>
     </row>
-    <row r="249" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="U249" s="32"/>
+    <row r="249" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U249" s="31"/>
       <c r="V249" s="26" t="s">
         <v>261</v>
       </c>
@@ -7911,8 +7911,8 @@
         <v>386</v>
       </c>
     </row>
-    <row r="250" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="U250" s="32"/>
+    <row r="250" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U250" s="31"/>
       <c r="V250" t="s">
         <v>262</v>
       </c>
@@ -7923,8 +7923,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="251" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="U251" s="32"/>
+    <row r="251" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U251" s="31"/>
       <c r="V251" s="26" t="s">
         <v>263</v>
       </c>
@@ -7935,8 +7935,8 @@
         <v>388</v>
       </c>
     </row>
-    <row r="252" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="U252" s="32"/>
+    <row r="252" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U252" s="31"/>
       <c r="V252" s="26" t="s">
         <v>264</v>
       </c>
@@ -7947,8 +7947,8 @@
         <v>389</v>
       </c>
     </row>
-    <row r="253" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="U253" s="32"/>
+    <row r="253" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U253" s="31"/>
       <c r="V253" s="26" t="s">
         <v>265</v>
       </c>
@@ -7959,8 +7959,8 @@
         <v>390</v>
       </c>
     </row>
-    <row r="254" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="U254" s="32"/>
+    <row r="254" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U254" s="31"/>
       <c r="V254" t="s">
         <v>266</v>
       </c>
@@ -7971,8 +7971,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="255" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="U255" s="32"/>
+    <row r="255" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U255" s="31"/>
       <c r="V255" s="26" t="s">
         <v>267</v>
       </c>
@@ -7983,8 +7983,8 @@
         <v>392</v>
       </c>
     </row>
-    <row r="256" spans="16:24" x14ac:dyDescent="0.25">
-      <c r="U256" s="32"/>
+    <row r="256" spans="16:24" x14ac:dyDescent="0.45">
+      <c r="U256" s="31"/>
       <c r="V256" s="26" t="s">
         <v>268</v>
       </c>
@@ -7995,8 +7995,8 @@
         <v>393</v>
       </c>
     </row>
-    <row r="257" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U257" s="32"/>
+    <row r="257" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U257" s="31"/>
       <c r="V257" s="26" t="s">
         <v>269</v>
       </c>
@@ -8007,8 +8007,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="258" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U258" s="32"/>
+    <row r="258" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U258" s="31"/>
       <c r="V258" t="s">
         <v>279</v>
       </c>
@@ -8019,8 +8019,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="259" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U259" s="32"/>
+    <row r="259" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U259" s="31"/>
       <c r="V259" t="s">
         <v>280</v>
       </c>
@@ -8031,8 +8031,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="260" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U260" s="32"/>
+    <row r="260" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U260" s="31"/>
       <c r="V260" t="s">
         <v>281</v>
       </c>
@@ -8043,8 +8043,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="261" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U261" s="32"/>
+    <row r="261" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U261" s="31"/>
       <c r="V261" t="s">
         <v>282</v>
       </c>
@@ -8055,8 +8055,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="262" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U262" s="32"/>
+    <row r="262" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U262" s="31"/>
       <c r="V262" t="s">
         <v>283</v>
       </c>
@@ -8067,8 +8067,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="263" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U263" s="32"/>
+    <row r="263" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U263" s="31"/>
       <c r="V263" t="s">
         <v>284</v>
       </c>
@@ -8079,8 +8079,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="264" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U264" s="32"/>
+    <row r="264" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U264" s="31"/>
       <c r="V264" t="s">
         <v>278</v>
       </c>
@@ -8091,8 +8091,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="265" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U265" s="32"/>
+    <row r="265" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U265" s="31"/>
       <c r="V265" t="s">
         <v>455</v>
       </c>
@@ -8108,47 +8108,12 @@
     <sortCondition ref="V231:V233"/>
   </sortState>
   <mergeCells count="63">
-    <mergeCell ref="P220:P221"/>
-    <mergeCell ref="P176:P177"/>
-    <mergeCell ref="P178:P179"/>
-    <mergeCell ref="P156:S156"/>
-    <mergeCell ref="P201:S201"/>
-    <mergeCell ref="P180:P199"/>
-    <mergeCell ref="P202:P218"/>
-    <mergeCell ref="U242:U265"/>
-    <mergeCell ref="U201:U224"/>
-    <mergeCell ref="U227:U238"/>
-    <mergeCell ref="U239:U240"/>
-    <mergeCell ref="U198:U199"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K3:K8"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P13:P21"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="P3:P9"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="K13:K21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:F11"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U82:X82"/>
-    <mergeCell ref="U55:U80"/>
-    <mergeCell ref="U52:U54"/>
-    <mergeCell ref="U39:U50"/>
-    <mergeCell ref="P45:P65"/>
-    <mergeCell ref="P68:P86"/>
-    <mergeCell ref="P67:S67"/>
-    <mergeCell ref="P114:P131"/>
-    <mergeCell ref="P136:P154"/>
-    <mergeCell ref="P92:P111"/>
+    <mergeCell ref="U106:U108"/>
+    <mergeCell ref="U83:U104"/>
+    <mergeCell ref="U185:X185"/>
+    <mergeCell ref="U136:X136"/>
+    <mergeCell ref="U137:U154"/>
+    <mergeCell ref="U157:U159"/>
     <mergeCell ref="U186:U197"/>
     <mergeCell ref="P41:P43"/>
     <mergeCell ref="U226:X226"/>
@@ -8165,12 +8130,47 @@
     <mergeCell ref="U155:U156"/>
     <mergeCell ref="P223:P242"/>
     <mergeCell ref="U109:U134"/>
-    <mergeCell ref="U106:U108"/>
-    <mergeCell ref="U83:U104"/>
-    <mergeCell ref="U185:X185"/>
-    <mergeCell ref="U136:X136"/>
-    <mergeCell ref="U137:U154"/>
-    <mergeCell ref="U157:U159"/>
+    <mergeCell ref="P45:P65"/>
+    <mergeCell ref="P68:P86"/>
+    <mergeCell ref="P67:S67"/>
+    <mergeCell ref="P114:P131"/>
+    <mergeCell ref="P136:P154"/>
+    <mergeCell ref="P92:P111"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U82:X82"/>
+    <mergeCell ref="U55:U80"/>
+    <mergeCell ref="U52:U54"/>
+    <mergeCell ref="U39:U50"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:F11"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P13:P21"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P3:P9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="K13:K21"/>
+    <mergeCell ref="U242:U265"/>
+    <mergeCell ref="U201:U224"/>
+    <mergeCell ref="U227:U238"/>
+    <mergeCell ref="U239:U240"/>
+    <mergeCell ref="U198:U199"/>
+    <mergeCell ref="P220:P221"/>
+    <mergeCell ref="P176:P177"/>
+    <mergeCell ref="P178:P179"/>
+    <mergeCell ref="P156:S156"/>
+    <mergeCell ref="P201:S201"/>
+    <mergeCell ref="P180:P199"/>
+    <mergeCell ref="P202:P218"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8185,18 +8185,18 @@
       <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>441</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -8230,7 +8230,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <f t="shared" ref="A5:A56" si="0">A4+1</f>
         <v>3</v>
@@ -8242,7 +8242,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8254,7 +8254,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8266,7 +8266,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8278,7 +8278,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8290,7 +8290,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8302,7 +8302,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8314,7 +8314,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8326,7 +8326,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8338,7 +8338,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8350,7 +8350,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <f>A14+1</f>
         <v>13</v>
@@ -8362,7 +8362,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <f>A15+1</f>
         <v>14</v>
@@ -8374,7 +8374,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <f>A16+1</f>
         <v>15</v>
@@ -8386,7 +8386,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <f>A17+1</f>
         <v>16</v>
@@ -8398,7 +8398,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <f>A18+1</f>
         <v>17</v>
@@ -8410,7 +8410,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8422,7 +8422,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8434,7 +8434,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8446,7 +8446,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8458,7 +8458,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8470,7 +8470,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8482,7 +8482,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <f>A25+1</f>
         <v>24</v>
@@ -8494,7 +8494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <f t="shared" ref="A27:A53" si="1">A26+1</f>
         <v>25</v>
@@ -8506,7 +8506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -8518,7 +8518,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -8530,7 +8530,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -8542,7 +8542,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -8554,7 +8554,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -8566,7 +8566,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -8578,7 +8578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -8590,7 +8590,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -8602,7 +8602,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <f>A35+1</f>
         <v>34</v>
@@ -8614,7 +8614,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <f>A36+1</f>
         <v>35</v>
@@ -8626,7 +8626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -8638,7 +8638,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -8650,7 +8650,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -8662,7 +8662,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -8674,7 +8674,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -8686,7 +8686,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -8698,7 +8698,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -8710,7 +8710,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -8722,7 +8722,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -8734,7 +8734,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -8746,7 +8746,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -8758,7 +8758,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <f>A48+1</f>
         <v>47</v>
@@ -8770,7 +8770,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <f>A49+1</f>
         <v>48</v>
@@ -8782,7 +8782,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -8794,7 +8794,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -8806,7 +8806,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -8818,7 +8818,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -8830,7 +8830,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -8842,7 +8842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -8854,7 +8854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <f>A56+1</f>
         <v>55</v>
@@ -8866,7 +8866,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <f t="shared" ref="A58:A131" si="2">A57+1</f>
         <v>56</v>
@@ -8878,7 +8878,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -8890,7 +8890,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -8902,7 +8902,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -8914,7 +8914,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -8926,7 +8926,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -8938,7 +8938,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -8950,7 +8950,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -8962,7 +8962,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -8974,7 +8974,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -8986,7 +8986,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -8998,7 +8998,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -9010,7 +9010,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -9022,7 +9022,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -9034,7 +9034,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -9046,7 +9046,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -9058,7 +9058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -9070,7 +9070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -9082,7 +9082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -9094,7 +9094,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -9106,7 +9106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -9118,7 +9118,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -9130,7 +9130,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -9142,7 +9142,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -9154,7 +9154,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -9166,7 +9166,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -9178,7 +9178,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -9190,7 +9190,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -9202,7 +9202,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -9214,7 +9214,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -9226,7 +9226,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -9238,7 +9238,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -9250,7 +9250,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -9262,7 +9262,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -9274,7 +9274,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <f>A91+1</f>
         <v>90</v>
@@ -9286,7 +9286,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <f t="shared" ref="A93:A99" si="3">A92+1</f>
         <v>91</v>
@@ -9298,7 +9298,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -9310,7 +9310,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -9322,7 +9322,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -9334,7 +9334,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -9346,7 +9346,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -9358,7 +9358,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -9370,7 +9370,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <f>A99+1</f>
         <v>98</v>
@@ -9382,7 +9382,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -9394,7 +9394,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -9406,7 +9406,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -9418,7 +9418,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -9430,7 +9430,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -9442,7 +9442,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -9454,7 +9454,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -9466,7 +9466,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108">
         <f>A107+1</f>
         <v>106</v>
@@ -9478,7 +9478,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109">
         <f>A108+1</f>
         <v>107</v>
@@ -9490,7 +9490,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110">
         <f>A109+1</f>
         <v>108</v>
@@ -9502,7 +9502,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111">
         <f>A110+1</f>
         <v>109</v>
@@ -9514,7 +9514,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112">
         <f>A111+1</f>
         <v>110</v>
@@ -9526,7 +9526,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -9538,7 +9538,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -9550,7 +9550,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -9562,7 +9562,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -9574,7 +9574,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -9586,7 +9586,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -9598,7 +9598,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -9610,7 +9610,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -9622,7 +9622,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -9634,7 +9634,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -9646,7 +9646,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -9658,7 +9658,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -9670,7 +9670,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -9682,7 +9682,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -9694,7 +9694,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -9706,7 +9706,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -9718,7 +9718,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -9730,7 +9730,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -9742,7 +9742,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -9754,7 +9754,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132">
         <f t="shared" ref="A132:A162" si="4">A131+1</f>
         <v>130</v>
@@ -9766,7 +9766,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133">
         <f t="shared" si="4"/>
         <v>131</v>
@@ -9778,7 +9778,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134">
         <f t="shared" si="4"/>
         <v>132</v>
@@ -9790,7 +9790,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135">
         <f t="shared" si="4"/>
         <v>133</v>
@@ -9802,7 +9802,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136">
         <f t="shared" si="4"/>
         <v>134</v>
@@ -9814,7 +9814,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137">
         <f t="shared" si="4"/>
         <v>135</v>
@@ -9826,7 +9826,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138">
         <f t="shared" si="4"/>
         <v>136</v>
@@ -9838,7 +9838,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139">
         <f t="shared" si="4"/>
         <v>137</v>
@@ -9850,7 +9850,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -9862,7 +9862,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141">
         <f t="shared" si="4"/>
         <v>139</v>
@@ -9874,7 +9874,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142">
         <f t="shared" si="4"/>
         <v>140</v>
@@ -9886,7 +9886,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143">
         <f t="shared" si="4"/>
         <v>141</v>
@@ -9898,7 +9898,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144">
         <f t="shared" si="4"/>
         <v>142</v>
@@ -9910,7 +9910,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145">
         <f t="shared" si="4"/>
         <v>143</v>
@@ -9922,7 +9922,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146">
         <f t="shared" si="4"/>
         <v>144</v>
@@ -9934,7 +9934,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147">
         <f t="shared" si="4"/>
         <v>145</v>
@@ -9946,7 +9946,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148">
         <f t="shared" si="4"/>
         <v>146</v>
@@ -9958,7 +9958,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149">
         <f t="shared" si="4"/>
         <v>147</v>
@@ -9970,7 +9970,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150">
         <f t="shared" si="4"/>
         <v>148</v>
@@ -9982,7 +9982,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151">
         <f t="shared" si="4"/>
         <v>149</v>
@@ -9994,7 +9994,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152">
         <f t="shared" si="4"/>
         <v>150</v>
@@ -10006,7 +10006,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153">
         <f>A152+1</f>
         <v>151</v>
@@ -10018,7 +10018,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154">
         <f t="shared" si="4"/>
         <v>152</v>
@@ -10030,7 +10030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155">
         <f t="shared" si="4"/>
         <v>153</v>
@@ -10042,7 +10042,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156">
         <f t="shared" si="4"/>
         <v>154</v>
@@ -10054,7 +10054,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157">
         <f t="shared" si="4"/>
         <v>155</v>
@@ -10066,7 +10066,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158">
         <f t="shared" si="4"/>
         <v>156</v>
@@ -10078,7 +10078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159">
         <f t="shared" si="4"/>
         <v>157</v>
@@ -10090,7 +10090,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160">
         <f t="shared" si="4"/>
         <v>158</v>
@@ -10102,7 +10102,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161">
         <f t="shared" si="4"/>
         <v>159</v>
@@ -10114,7 +10114,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162">
         <f t="shared" si="4"/>
         <v>160</v>
@@ -10144,63 +10144,63 @@
       <selection pane="topRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.73046875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="16" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.265625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="8" bestFit="1" customWidth="1"/>
     <col min="43" max="46" width="13" bestFit="1" customWidth="1"/>
-    <col min="47" max="50" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="50" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="16" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="15" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="17" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
         <v>167</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>148</v>
       </c>
@@ -10279,10 +10279,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>167</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
         <v>167</v>
@@ -10361,7 +10361,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -10381,10 +10381,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
       <c r="B10" s="5" t="s">
         <v>167</v>
@@ -10408,7 +10408,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
       <c r="B12" s="5" t="s">
         <v>167</v>
@@ -10461,7 +10461,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -10490,10 +10490,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="6"/>
       <c r="B15" s="5" t="s">
         <v>167</v>
@@ -10571,7 +10571,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -10652,7 +10652,7 @@
       </c>
       <c r="AI16" s="3"/>
     </row>
-    <row r="17" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
       <c r="B17" s="5" t="s">
         <v>167</v>
@@ -10790,7 +10790,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="6"/>
       <c r="B19" s="5" t="s">
         <v>167</v>
@@ -11083,7 +11083,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6"/>
       <c r="B21" s="5" t="s">
         <v>167</v>
@@ -11364,7 +11364,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="6"/>
       <c r="B23" s="5" t="s">
         <v>167</v>
@@ -11645,7 +11645,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>140</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="6"/>
       <c r="B25" s="5" t="s">
         <v>167</v>
@@ -11944,7 +11944,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>141</v>
       </c>
@@ -12084,13 +12084,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
     </row>
-    <row r="28" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="6"/>
       <c r="B28" s="5" t="s">
         <v>167</v>
@@ -12201,7 +12201,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="6"/>
       <c r="B30" s="5" t="s">
         <v>167</v>
@@ -12458,7 +12458,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="6"/>
       <c r="B32" s="5" t="s">
         <v>167</v>
@@ -12709,7 +12709,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6"/>
       <c r="B34" s="5" t="s">
         <v>167</v>
@@ -12957,7 +12957,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="6"/>
       <c r="B36" s="5" t="s">
         <v>167</v>
@@ -13217,7 +13217,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="6"/>
       <c r="B38" s="5" t="s">
         <v>167</v>
@@ -13456,7 +13456,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>121</v>
       </c>
@@ -13578,19 +13578,19 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:67" x14ac:dyDescent="0.45">
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:67" x14ac:dyDescent="0.45">
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:67" x14ac:dyDescent="0.45">
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:67" x14ac:dyDescent="0.45">
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:67" x14ac:dyDescent="0.45">
       <c r="E45" s="3"/>
     </row>
   </sheetData>
